--- a/uom/DiggsUomDictionary.xlsx
+++ b/uom/DiggsUomDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/uom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974F684-9AD8-3645-8F26-715693EDD6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFD9741-9890-FD4C-AB46-7A4AECCAE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20272" uniqueCount="4509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20263" uniqueCount="4508">
   <si>
     <t>Dictionary Version</t>
   </si>
@@ -13887,9 +13887,6 @@
     <t>Diggs addition. Pound per square inch absolute per second. Rate of absolute pressure change.</t>
   </si>
   <si>
-    <t>0.01 lbf/ft2,EPa,GPa,MPa,Mpsi,N/m2,N/mm2,Pa,TPa,at,atm,bar,cPa,cmH2O[4degC],dPa,dyne/cm2,fPa,hbar,inH2O[39degF],inH2O[60degF],inHg[32degF],inHg[60degF],kN/m2,kPa,kgf/cm2,kgf/m2,kgf/mm2,kpsi,lbf/ft2,mPa,mbar,mmHg[0degC],nPa,pPa,psi,tonf[UK]/ft2,tonf[US]/ft2,tonf[US]/in2,torr,uPa,ubar,umHg[0degC],upsi,klbf/in2,klbf/ft2,ftH2O[39degF],ftH2O[60degF],inH2O[4degC],tonf[US]/ft2,lbf/in2</t>
-  </si>
-  <si>
     <t>klbf/in2</t>
   </si>
   <si>
@@ -13935,13 +13932,13 @@
     <t>Diggs addition. Inch of water column at 4°C. Pressure unit based on height of water column.</t>
   </si>
   <si>
-    <t>Diggs addition. US ton-force per square foot (tsf). Pressure or stress unit.</t>
-  </si>
-  <si>
     <t>Diggs addition. Pound-force per square inch. Pressure or stress unit. Commonly abbreviated as psi.</t>
   </si>
   <si>
     <t xml:space="preserve">                                   </t>
+  </si>
+  <si>
+    <t>0.01 lbf/ft2,EPa,GPa,MPa,Mpsi,N/m2,N/mm2,Pa,TPa,at,atm,bar,cPa,cmH2O[4degC],dPa,dyne/cm2,fPa,hbar,inH2O[39degF],inH2O[60degF],inHg[32degF],inHg[60degF],kN/m2,kPa,kgf/cm2,kgf/m2,kgf/mm2,kpsi,lbf/ft2,mPa,mbar,mmHg[0degC],nPa,pPa,psi,tonf[UK]/ft2,tonf[US]/ft2,tonf[US]/in2,torr,uPa,ubar,umHg[0degC],upsi,klbf/in2,klbf/ft2,ftH2O[39degF],ftH2O[60degF],inH2O[4degC],lbf/in2</t>
   </si>
 </sst>
 </file>
@@ -16435,9 +16432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18362,7 +18359,7 @@
         <v>540</v>
       </c>
       <c r="F130" s="41" t="s">
-        <v>4490</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -19144,11 +19141,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S1641"/>
+  <dimension ref="A1:S1640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1532" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1685" sqref="H1685"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1440" sqref="B1440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42845,10 +42842,10 @@
     </row>
     <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="42" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B587" s="42" t="s">
         <v>4495</v>
-      </c>
-      <c r="B587" s="42" t="s">
-        <v>4496</v>
       </c>
       <c r="C587" s="42" t="s">
         <v>381</v>
@@ -42885,15 +42882,15 @@
       </c>
       <c r="N587" s="42"/>
       <c r="O587" s="42" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="42" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B588" s="42" t="s">
         <v>4497</v>
-      </c>
-      <c r="B588" s="42" t="s">
-        <v>4498</v>
       </c>
       <c r="C588" s="42" t="s">
         <v>381</v>
@@ -42930,7 +42927,7 @@
       </c>
       <c r="N588" s="42"/>
       <c r="O588" s="42" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="589" spans="1:15" x14ac:dyDescent="0.2">
@@ -48766,10 +48763,10 @@
     </row>
     <row r="730" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A730" s="42" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B730" s="42" t="s">
         <v>4499</v>
-      </c>
-      <c r="B730" s="42" t="s">
-        <v>4500</v>
       </c>
       <c r="C730" s="42" t="s">
         <v>381</v>
@@ -48806,7 +48803,7 @@
       </c>
       <c r="N730" s="42"/>
       <c r="O730" s="42" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.2">
@@ -52389,10 +52386,10 @@
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A830" s="42" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B830" s="42" t="s">
         <v>4493</v>
-      </c>
-      <c r="B830" s="42" t="s">
-        <v>4494</v>
       </c>
       <c r="C830" s="42" t="s">
         <v>381</v>
@@ -52429,7 +52426,7 @@
       </c>
       <c r="N830" s="42"/>
       <c r="O830" s="42" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.2">
@@ -52479,10 +52476,10 @@
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A832" s="42" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B832" s="42" t="s">
         <v>4491</v>
-      </c>
-      <c r="B832" s="42" t="s">
-        <v>4492</v>
       </c>
       <c r="C832" s="42" t="s">
         <v>381</v>
@@ -52519,7 +52516,7 @@
       </c>
       <c r="N832" s="42"/>
       <c r="O832" s="42" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="833" spans="1:15" x14ac:dyDescent="0.2">
@@ -56305,7 +56302,7 @@
       </c>
       <c r="N923" s="42"/>
       <c r="O923" s="42" t="s">
-        <v>4507</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.2">
@@ -69987,7 +69984,7 @@
         <v>601</v>
       </c>
       <c r="G1282" s="16" t="s">
-        <v>4508</v>
+        <v>4506</v>
       </c>
       <c r="H1282" s="16"/>
       <c r="I1282" s="16"/>
@@ -76246,74 +76243,70 @@
       </c>
     </row>
     <row r="1441" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1441" s="42" t="s">
-        <v>3538</v>
-      </c>
-      <c r="B1441" s="42" t="s">
-        <v>3539</v>
-      </c>
-      <c r="C1441" s="42" t="s">
+      <c r="A1441" s="14" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1441" s="14" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C1441" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D1441" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1441" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1441" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1441" s="42" t="s">
+      <c r="D1441" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1441" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1441" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1441" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="H1441" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1441" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1441" s="42">
-        <v>0</v>
-      </c>
-      <c r="K1441" s="52">
-        <v>8896.4432305209994</v>
-      </c>
-      <c r="L1441" s="42">
-        <v>9.2903040000000006E-2</v>
-      </c>
-      <c r="M1441" s="42">
-        <v>0</v>
-      </c>
-      <c r="N1441" s="42"/>
-      <c r="O1441" s="42" t="s">
-        <v>4506</v>
+      <c r="H1441" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1441" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1441" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1441" s="44" t="s">
+        <v>2963</v>
+      </c>
+      <c r="L1441" s="14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M1441" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1442" s="14" t="s">
-        <v>3540</v>
+        <v>2452</v>
       </c>
       <c r="B1442" s="14" t="s">
-        <v>3541</v>
+        <v>2453</v>
       </c>
       <c r="C1442" s="14" t="s">
-        <v>381</v>
+        <v>241</v>
       </c>
       <c r="D1442" s="14" t="s">
         <v>591</v>
       </c>
       <c r="E1442" s="14" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="F1442" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1442" s="14" t="s">
-        <v>540</v>
+        <v>242</v>
       </c>
       <c r="H1442" s="14" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="I1442" s="14" t="s">
         <v>582</v>
@@ -76322,24 +76315,30 @@
         <v>448</v>
       </c>
       <c r="K1442" s="44" t="s">
-        <v>2963</v>
+        <v>2454</v>
       </c>
       <c r="L1442" s="14" t="s">
-        <v>1268</v>
+        <v>998</v>
       </c>
       <c r="M1442" s="14" t="s">
         <v>448</v>
+      </c>
+      <c r="N1442" s="14" t="s">
+        <v>2455</v>
+      </c>
+      <c r="O1442" s="14" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="1443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1443" s="14" t="s">
-        <v>2452</v>
+        <v>3466</v>
       </c>
       <c r="B1443" s="14" t="s">
-        <v>2453</v>
+        <v>3466</v>
       </c>
       <c r="C1443" s="14" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="D1443" s="14" t="s">
         <v>591</v>
@@ -76351,7 +76350,7 @@
         <v>584</v>
       </c>
       <c r="G1443" s="14" t="s">
-        <v>242</v>
+        <v>540</v>
       </c>
       <c r="H1443" s="14" t="s">
         <v>585</v>
@@ -76363,125 +76362,119 @@
         <v>448</v>
       </c>
       <c r="K1443" s="44" t="s">
-        <v>2454</v>
+        <v>3269</v>
       </c>
       <c r="L1443" s="14" t="s">
-        <v>998</v>
+        <v>3467</v>
       </c>
       <c r="M1443" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1443" s="14" t="s">
-        <v>2455</v>
+        <v>3468</v>
       </c>
       <c r="O1443" s="14" t="s">
-        <v>2456</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1444" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1444" s="14" t="s">
-        <v>3466</v>
-      </c>
-      <c r="B1444" s="14" t="s">
-        <v>3466</v>
-      </c>
-      <c r="C1444" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1444" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1444" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="F1444" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1444" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="H1444" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="I1444" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1444" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1444" s="44" t="s">
-        <v>3269</v>
-      </c>
-      <c r="L1444" s="14" t="s">
-        <v>3467</v>
-      </c>
-      <c r="M1444" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="N1444" s="14" t="s">
-        <v>3468</v>
-      </c>
-      <c r="O1444" s="14" t="s">
-        <v>3469</v>
+      <c r="A1444" s="40" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B1444" s="40" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C1444" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1444" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1444" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1444" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1444" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1444" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1444" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1444" s="40">
+        <v>0</v>
+      </c>
+      <c r="K1444" s="49">
+        <v>133.322368421053</v>
+      </c>
+      <c r="L1444" s="40">
+        <v>1</v>
+      </c>
+      <c r="M1444" s="40">
+        <v>0</v>
+      </c>
+      <c r="N1444" s="40"/>
+      <c r="O1444" s="40" t="s">
+        <v>4472</v>
       </c>
     </row>
     <row r="1445" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1445" s="40" t="s">
-        <v>4433</v>
-      </c>
-      <c r="B1445" s="40" t="s">
-        <v>4434</v>
-      </c>
-      <c r="C1445" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1445" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1445" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1445" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1445" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1445" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1445" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1445" s="40">
-        <v>0</v>
-      </c>
-      <c r="K1445" s="49">
-        <v>133.322368421053</v>
-      </c>
-      <c r="L1445" s="40">
-        <v>1</v>
-      </c>
-      <c r="M1445" s="40">
-        <v>0</v>
-      </c>
-      <c r="N1445" s="40"/>
-      <c r="O1445" s="40" t="s">
-        <v>4472</v>
+      <c r="A1445" s="14" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1445" s="14" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C1445" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1445" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1445" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1445" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1445" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1445" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1445" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1445" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1445" s="44" t="s">
+        <v>3281</v>
+      </c>
+      <c r="L1445" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1445" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1446" s="14" t="s">
-        <v>3425</v>
+        <v>3571</v>
       </c>
       <c r="B1446" s="14" t="s">
-        <v>3426</v>
+        <v>3572</v>
       </c>
       <c r="C1446" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D1446" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1446" s="14" t="s">
         <v>820</v>
@@ -76490,7 +76483,7 @@
         <v>584</v>
       </c>
       <c r="G1446" s="14" t="s">
-        <v>378</v>
+        <v>540</v>
       </c>
       <c r="H1446" s="14" t="s">
         <v>617</v>
@@ -76502,7 +76495,7 @@
         <v>448</v>
       </c>
       <c r="K1446" s="44" t="s">
-        <v>3281</v>
+        <v>856</v>
       </c>
       <c r="L1446" s="14" t="s">
         <v>17</v>
@@ -76513,16 +76506,16 @@
     </row>
     <row r="1447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1447" s="14" t="s">
-        <v>3571</v>
+        <v>2095</v>
       </c>
       <c r="B1447" s="14" t="s">
-        <v>3572</v>
+        <v>2096</v>
       </c>
       <c r="C1447" s="14" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="D1447" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1447" s="14" t="s">
         <v>820</v>
@@ -76531,7 +76524,7 @@
         <v>584</v>
       </c>
       <c r="G1447" s="14" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="H1447" s="14" t="s">
         <v>617</v>
@@ -76543,7 +76536,7 @@
         <v>448</v>
       </c>
       <c r="K1447" s="44" t="s">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="L1447" s="14" t="s">
         <v>17</v>
@@ -76552,18 +76545,18 @@
         <v>448</v>
       </c>
     </row>
-    <row r="1448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1448" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1448" s="14" t="s">
-        <v>2095</v>
+        <v>1294</v>
       </c>
       <c r="B1448" s="14" t="s">
-        <v>2096</v>
+        <v>1295</v>
       </c>
       <c r="C1448" s="14" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="D1448" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1448" s="14" t="s">
         <v>820</v>
@@ -76572,7 +76565,7 @@
         <v>584</v>
       </c>
       <c r="G1448" s="14" t="s">
-        <v>514</v>
+        <v>90</v>
       </c>
       <c r="H1448" s="14" t="s">
         <v>617</v>
@@ -76584,7 +76577,7 @@
         <v>448</v>
       </c>
       <c r="K1448" s="44" t="s">
-        <v>901</v>
+        <v>856</v>
       </c>
       <c r="L1448" s="14" t="s">
         <v>17</v>
@@ -76592,16 +76585,22 @@
       <c r="M1448" s="14" t="s">
         <v>448</v>
       </c>
+      <c r="N1448" s="14"/>
+      <c r="O1448" s="14"/>
+      <c r="P1448" s="14"/>
+      <c r="Q1448" s="14"/>
+      <c r="R1448" s="14"/>
+      <c r="S1448" s="14"/>
     </row>
     <row r="1449" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1449" s="14" t="s">
-        <v>1294</v>
+        <v>3220</v>
       </c>
       <c r="B1449" s="14" t="s">
-        <v>1295</v>
+        <v>3221</v>
       </c>
       <c r="C1449" s="14" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="D1449" s="14" t="s">
         <v>582</v>
@@ -76613,7 +76612,7 @@
         <v>584</v>
       </c>
       <c r="G1449" s="14" t="s">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="H1449" s="14" t="s">
         <v>617</v>
@@ -76642,13 +76641,13 @@
     </row>
     <row r="1450" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1450" s="14" t="s">
-        <v>3220</v>
+        <v>2228</v>
       </c>
       <c r="B1450" s="14" t="s">
-        <v>3221</v>
+        <v>2229</v>
       </c>
       <c r="C1450" s="14" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="D1450" s="14" t="s">
         <v>582</v>
@@ -76660,7 +76659,7 @@
         <v>584</v>
       </c>
       <c r="G1450" s="14" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="H1450" s="14" t="s">
         <v>617</v>
@@ -76689,13 +76688,13 @@
     </row>
     <row r="1451" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1451" s="14" t="s">
-        <v>2228</v>
+        <v>2507</v>
       </c>
       <c r="B1451" s="14" t="s">
-        <v>2229</v>
+        <v>2508</v>
       </c>
       <c r="C1451" s="14" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D1451" s="14" t="s">
         <v>582</v>
@@ -76707,7 +76706,7 @@
         <v>584</v>
       </c>
       <c r="G1451" s="14" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H1451" s="14" t="s">
         <v>617</v>
@@ -76736,25 +76735,25 @@
     </row>
     <row r="1452" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1452" s="14" t="s">
-        <v>2507</v>
+        <v>2303</v>
       </c>
       <c r="B1452" s="14" t="s">
-        <v>2508</v>
+        <v>2304</v>
       </c>
       <c r="C1452" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D1452" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1452" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1452" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1452" s="14" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="H1452" s="14" t="s">
         <v>617</v>
@@ -76766,7 +76765,7 @@
         <v>448</v>
       </c>
       <c r="K1452" s="44" t="s">
-        <v>856</v>
+        <v>2305</v>
       </c>
       <c r="L1452" s="14" t="s">
         <v>17</v>
@@ -76783,25 +76782,25 @@
     </row>
     <row r="1453" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1453" s="14" t="s">
-        <v>2303</v>
+        <v>2203</v>
       </c>
       <c r="B1453" s="14" t="s">
-        <v>2304</v>
+        <v>2204</v>
       </c>
       <c r="C1453" s="14" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D1453" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1453" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1453" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1453" s="14" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="H1453" s="14" t="s">
         <v>617</v>
@@ -76813,7 +76812,7 @@
         <v>448</v>
       </c>
       <c r="K1453" s="44" t="s">
-        <v>2305</v>
+        <v>856</v>
       </c>
       <c r="L1453" s="14" t="s">
         <v>17</v>
@@ -76830,13 +76829,13 @@
     </row>
     <row r="1454" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1454" s="14" t="s">
-        <v>2203</v>
+        <v>1242</v>
       </c>
       <c r="B1454" s="14" t="s">
-        <v>2204</v>
+        <v>1243</v>
       </c>
       <c r="C1454" s="14" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="D1454" s="14" t="s">
         <v>582</v>
@@ -76848,7 +76847,7 @@
         <v>584</v>
       </c>
       <c r="G1454" s="14" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="H1454" s="14" t="s">
         <v>617</v>
@@ -76860,7 +76859,7 @@
         <v>448</v>
       </c>
       <c r="K1454" s="44" t="s">
-        <v>856</v>
+        <v>598</v>
       </c>
       <c r="L1454" s="14" t="s">
         <v>17</v>
@@ -76877,25 +76876,25 @@
     </row>
     <row r="1455" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1455" s="14" t="s">
-        <v>1242</v>
+        <v>1264</v>
       </c>
       <c r="B1455" s="14" t="s">
-        <v>1243</v>
+        <v>1265</v>
       </c>
       <c r="C1455" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D1455" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1455" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1455" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1455" s="14" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H1455" s="14" t="s">
         <v>617</v>
@@ -76907,7 +76906,7 @@
         <v>448</v>
       </c>
       <c r="K1455" s="44" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="L1455" s="14" t="s">
         <v>17</v>
@@ -76924,16 +76923,16 @@
     </row>
     <row r="1456" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1456" s="14" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B1456" s="14" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C1456" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D1456" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1456" s="14" t="s">
         <v>630</v>
@@ -76954,10 +76953,10 @@
         <v>448</v>
       </c>
       <c r="K1456" s="44" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="L1456" s="14" t="s">
-        <v>17</v>
+        <v>1268</v>
       </c>
       <c r="M1456" s="14" t="s">
         <v>448</v>
@@ -76971,25 +76970,25 @@
     </row>
     <row r="1457" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1457" s="14" t="s">
-        <v>1266</v>
+        <v>3573</v>
       </c>
       <c r="B1457" s="14" t="s">
-        <v>1267</v>
+        <v>3574</v>
       </c>
       <c r="C1457" s="14" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="D1457" s="14" t="s">
         <v>591</v>
       </c>
       <c r="E1457" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1457" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1457" s="14" t="s">
-        <v>83</v>
+        <v>540</v>
       </c>
       <c r="H1457" s="14" t="s">
         <v>617</v>
@@ -77001,10 +77000,10 @@
         <v>448</v>
       </c>
       <c r="K1457" s="44" t="s">
-        <v>598</v>
+        <v>824</v>
       </c>
       <c r="L1457" s="14" t="s">
-        <v>1268</v>
+        <v>17</v>
       </c>
       <c r="M1457" s="14" t="s">
         <v>448</v>
@@ -77017,113 +77016,113 @@
       <c r="S1457" s="14"/>
     </row>
     <row r="1458" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1458" s="14" t="s">
-        <v>3573</v>
-      </c>
-      <c r="B1458" s="14" t="s">
-        <v>3574</v>
-      </c>
-      <c r="C1458" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1458" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1458" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="F1458" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1458" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="H1458" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1458" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1458" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1458" s="44" t="s">
-        <v>824</v>
-      </c>
-      <c r="L1458" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1458" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="N1458" s="14"/>
-      <c r="O1458" s="14"/>
+      <c r="A1458" s="40" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B1458" s="40" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C1458" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1458" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1458" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1458" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1458" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1458" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1458" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1458" s="40">
+        <v>0</v>
+      </c>
+      <c r="K1458" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L1458" s="40">
+        <v>1</v>
+      </c>
+      <c r="M1458" s="40">
+        <v>0</v>
+      </c>
+      <c r="N1458" s="40"/>
+      <c r="O1458" s="40" t="s">
+        <v>4473</v>
+      </c>
       <c r="P1458" s="14"/>
       <c r="Q1458" s="14"/>
       <c r="R1458" s="14"/>
       <c r="S1458" s="14"/>
     </row>
     <row r="1459" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1459" s="40" t="s">
-        <v>4435</v>
-      </c>
-      <c r="B1459" s="40" t="s">
-        <v>4436</v>
-      </c>
-      <c r="C1459" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1459" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1459" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1459" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1459" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1459" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1459" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1459" s="40">
-        <v>0</v>
-      </c>
-      <c r="K1459" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="L1459" s="40">
-        <v>1</v>
-      </c>
-      <c r="M1459" s="40">
-        <v>0</v>
-      </c>
-      <c r="N1459" s="40"/>
-      <c r="O1459" s="40" t="s">
-        <v>4473</v>
-      </c>
+      <c r="A1459" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1459" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1459" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1459" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1459" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1459" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1459" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1459" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1459" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1459" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1459" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="L1459" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1459" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1459" s="14"/>
+      <c r="O1459" s="14"/>
       <c r="P1459" s="14"/>
       <c r="Q1459" s="14"/>
       <c r="R1459" s="14"/>
       <c r="S1459" s="14"/>
     </row>
-    <row r="1460" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1460" s="14" t="s">
-        <v>1364</v>
+        <v>2423</v>
       </c>
       <c r="B1460" s="14" t="s">
-        <v>1365</v>
+        <v>2424</v>
       </c>
       <c r="C1460" s="14" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="D1460" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1460" s="14" t="s">
         <v>820</v>
@@ -77132,7 +77131,7 @@
         <v>584</v>
       </c>
       <c r="G1460" s="14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="H1460" s="14" t="s">
         <v>617</v>
@@ -77144,7 +77143,7 @@
         <v>448</v>
       </c>
       <c r="K1460" s="44" t="s">
-        <v>598</v>
+        <v>2425</v>
       </c>
       <c r="L1460" s="14" t="s">
         <v>17</v>
@@ -77152,34 +77151,28 @@
       <c r="M1460" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="N1460" s="14"/>
-      <c r="O1460" s="14"/>
-      <c r="P1460" s="14"/>
-      <c r="Q1460" s="14"/>
-      <c r="R1460" s="14"/>
-      <c r="S1460" s="14"/>
     </row>
     <row r="1461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1461" s="14" t="s">
-        <v>2423</v>
+        <v>3745</v>
       </c>
       <c r="B1461" s="14" t="s">
-        <v>2424</v>
+        <v>3746</v>
       </c>
       <c r="C1461" s="14" t="s">
-        <v>238</v>
+        <v>403</v>
       </c>
       <c r="D1461" s="14" t="s">
         <v>591</v>
       </c>
       <c r="E1461" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1461" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1461" s="14" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="H1461" s="14" t="s">
         <v>617</v>
@@ -77191,7 +77184,7 @@
         <v>448</v>
       </c>
       <c r="K1461" s="44" t="s">
-        <v>2425</v>
+        <v>2338</v>
       </c>
       <c r="L1461" s="14" t="s">
         <v>17</v>
@@ -77202,13 +77195,13 @@
     </row>
     <row r="1462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1462" s="14" t="s">
-        <v>3745</v>
+        <v>2485</v>
       </c>
       <c r="B1462" s="14" t="s">
-        <v>3746</v>
+        <v>2486</v>
       </c>
       <c r="C1462" s="14" t="s">
-        <v>403</v>
+        <v>241</v>
       </c>
       <c r="D1462" s="14" t="s">
         <v>591</v>
@@ -77220,7 +77213,7 @@
         <v>584</v>
       </c>
       <c r="G1462" s="14" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="H1462" s="14" t="s">
         <v>617</v>
@@ -77232,7 +77225,7 @@
         <v>448</v>
       </c>
       <c r="K1462" s="44" t="s">
-        <v>2338</v>
+        <v>2425</v>
       </c>
       <c r="L1462" s="14" t="s">
         <v>17</v>
@@ -77243,25 +77236,25 @@
     </row>
     <row r="1463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1463" s="14" t="s">
-        <v>2485</v>
+        <v>1032</v>
       </c>
       <c r="B1463" s="14" t="s">
-        <v>2486</v>
+        <v>1033</v>
       </c>
       <c r="C1463" s="14" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="D1463" s="14" t="s">
         <v>591</v>
       </c>
       <c r="E1463" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1463" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1463" s="14" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="H1463" s="14" t="s">
         <v>617</v>
@@ -77273,7 +77266,7 @@
         <v>448</v>
       </c>
       <c r="K1463" s="44" t="s">
-        <v>2425</v>
+        <v>1034</v>
       </c>
       <c r="L1463" s="14" t="s">
         <v>17</v>
@@ -77284,16 +77277,16 @@
     </row>
     <row r="1464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1464" s="14" t="s">
-        <v>1032</v>
+        <v>858</v>
       </c>
       <c r="B1464" s="14" t="s">
-        <v>1033</v>
+        <v>859</v>
       </c>
       <c r="C1464" s="14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D1464" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1464" s="14" t="s">
         <v>820</v>
@@ -77302,10 +77295,10 @@
         <v>584</v>
       </c>
       <c r="G1464" s="14" t="s">
-        <v>485</v>
+        <v>18</v>
       </c>
       <c r="H1464" s="14" t="s">
-        <v>617</v>
+        <v>860</v>
       </c>
       <c r="I1464" s="14" t="s">
         <v>582</v>
@@ -77314,24 +77307,27 @@
         <v>448</v>
       </c>
       <c r="K1464" s="44" t="s">
-        <v>1034</v>
+        <v>598</v>
       </c>
       <c r="L1464" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M1464" s="14" t="s">
         <v>448</v>
+      </c>
+      <c r="O1464" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="1465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1465" s="14" t="s">
-        <v>858</v>
+        <v>2426</v>
       </c>
       <c r="B1465" s="14" t="s">
-        <v>859</v>
+        <v>2427</v>
       </c>
       <c r="C1465" s="14" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="D1465" s="14" t="s">
         <v>582</v>
@@ -77343,39 +77339,36 @@
         <v>584</v>
       </c>
       <c r="G1465" s="14" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="H1465" s="14" t="s">
-        <v>860</v>
+        <v>617</v>
       </c>
       <c r="I1465" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="J1465" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K1465" s="44" t="s">
-        <v>598</v>
+        <v>2428</v>
       </c>
       <c r="L1465" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M1465" s="14" t="s">
         <v>448</v>
-      </c>
-      <c r="O1465" s="14" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="1466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1466" s="14" t="s">
-        <v>2426</v>
+        <v>1330</v>
       </c>
       <c r="B1466" s="14" t="s">
-        <v>2427</v>
+        <v>1331</v>
       </c>
       <c r="C1466" s="14" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="D1466" s="14" t="s">
         <v>582</v>
@@ -77387,19 +77380,19 @@
         <v>584</v>
       </c>
       <c r="G1466" s="14" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H1466" s="14" t="s">
         <v>617</v>
       </c>
       <c r="I1466" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="J1466" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K1466" s="44" t="s">
-        <v>2428</v>
+        <v>598</v>
       </c>
       <c r="L1466" s="14" t="s">
         <v>17</v>
@@ -77410,25 +77403,25 @@
     </row>
     <row r="1467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1467" s="14" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B1467" s="14" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C1467" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1467" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1467" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1467" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1467" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H1467" s="14" t="s">
         <v>617</v>
@@ -77451,25 +77444,25 @@
     </row>
     <row r="1468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1468" s="14" t="s">
-        <v>1332</v>
+        <v>3129</v>
       </c>
       <c r="B1468" s="14" t="s">
-        <v>1333</v>
+        <v>3130</v>
       </c>
       <c r="C1468" s="14" t="s">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="D1468" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1468" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1468" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1468" s="14" t="s">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="H1468" s="14" t="s">
         <v>617</v>
@@ -77481,7 +77474,7 @@
         <v>448</v>
       </c>
       <c r="K1468" s="44" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
       <c r="L1468" s="14" t="s">
         <v>17</v>
@@ -77492,25 +77485,25 @@
     </row>
     <row r="1469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1469" s="14" t="s">
-        <v>3129</v>
+        <v>3355</v>
       </c>
       <c r="B1469" s="14" t="s">
-        <v>3130</v>
+        <v>3356</v>
       </c>
       <c r="C1469" s="14" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="D1469" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1469" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1469" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1469" s="14" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="H1469" s="14" t="s">
         <v>617</v>
@@ -77522,7 +77515,7 @@
         <v>448</v>
       </c>
       <c r="K1469" s="44" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="L1469" s="14" t="s">
         <v>17</v>
@@ -77533,13 +77526,13 @@
     </row>
     <row r="1470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1470" s="14" t="s">
-        <v>3355</v>
+        <v>664</v>
       </c>
       <c r="B1470" s="14" t="s">
-        <v>3356</v>
+        <v>665</v>
       </c>
       <c r="C1470" s="14" t="s">
-        <v>363</v>
+        <v>17</v>
       </c>
       <c r="D1470" s="14" t="s">
         <v>582</v>
@@ -77551,7 +77544,7 @@
         <v>584</v>
       </c>
       <c r="G1470" s="14" t="s">
-        <v>364</v>
+        <v>462</v>
       </c>
       <c r="H1470" s="14" t="s">
         <v>617</v>
@@ -77563,7 +77556,7 @@
         <v>448</v>
       </c>
       <c r="K1470" s="44" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L1470" s="14" t="s">
         <v>17</v>
@@ -77574,10 +77567,10 @@
     </row>
     <row r="1471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1471" s="14" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B1471" s="14" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C1471" s="14" t="s">
         <v>17</v>
@@ -77604,7 +77597,7 @@
         <v>448</v>
       </c>
       <c r="K1471" s="44" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L1471" s="14" t="s">
         <v>17</v>
@@ -77615,25 +77608,25 @@
     </row>
     <row r="1472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1472" s="14" t="s">
-        <v>666</v>
+        <v>3222</v>
       </c>
       <c r="B1472" s="14" t="s">
-        <v>667</v>
+        <v>3223</v>
       </c>
       <c r="C1472" s="14" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="D1472" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1472" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1472" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1472" s="14" t="s">
-        <v>462</v>
+        <v>347</v>
       </c>
       <c r="H1472" s="14" t="s">
         <v>617</v>
@@ -77645,7 +77638,7 @@
         <v>448</v>
       </c>
       <c r="K1472" s="44" t="s">
-        <v>594</v>
+        <v>1424</v>
       </c>
       <c r="L1472" s="14" t="s">
         <v>17</v>
@@ -77656,16 +77649,16 @@
     </row>
     <row r="1473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1473" s="14" t="s">
-        <v>3222</v>
+        <v>2097</v>
       </c>
       <c r="B1473" s="14" t="s">
-        <v>3223</v>
+        <v>2098</v>
       </c>
       <c r="C1473" s="14" t="s">
-        <v>346</v>
+        <v>191</v>
       </c>
       <c r="D1473" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1473" s="14" t="s">
         <v>820</v>
@@ -77674,7 +77667,7 @@
         <v>584</v>
       </c>
       <c r="G1473" s="14" t="s">
-        <v>347</v>
+        <v>514</v>
       </c>
       <c r="H1473" s="14" t="s">
         <v>617</v>
@@ -77686,7 +77679,7 @@
         <v>448</v>
       </c>
       <c r="K1473" s="44" t="s">
-        <v>1424</v>
+        <v>598</v>
       </c>
       <c r="L1473" s="14" t="s">
         <v>17</v>
@@ -77697,13 +77690,13 @@
     </row>
     <row r="1474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1474" s="14" t="s">
-        <v>2097</v>
+        <v>2152</v>
       </c>
       <c r="B1474" s="14" t="s">
-        <v>2098</v>
+        <v>2153</v>
       </c>
       <c r="C1474" s="14" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D1474" s="14" t="s">
         <v>582</v>
@@ -77715,7 +77708,7 @@
         <v>584</v>
       </c>
       <c r="G1474" s="14" t="s">
-        <v>514</v>
+        <v>215</v>
       </c>
       <c r="H1474" s="14" t="s">
         <v>617</v>
@@ -77738,25 +77731,25 @@
     </row>
     <row r="1475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1475" s="14" t="s">
-        <v>2152</v>
+        <v>2911</v>
       </c>
       <c r="B1475" s="14" t="s">
-        <v>2153</v>
+        <v>2912</v>
       </c>
       <c r="C1475" s="14" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="D1475" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1475" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1475" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1475" s="14" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="H1475" s="14" t="s">
         <v>617</v>
@@ -77779,25 +77772,25 @@
     </row>
     <row r="1476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1476" s="14" t="s">
-        <v>2911</v>
+        <v>1057</v>
       </c>
       <c r="B1476" s="14" t="s">
-        <v>2912</v>
+        <v>1058</v>
       </c>
       <c r="C1476" s="14" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="D1476" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1476" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1476" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1476" s="14" t="s">
-        <v>305</v>
+        <v>488</v>
       </c>
       <c r="H1476" s="14" t="s">
         <v>617</v>
@@ -77820,13 +77813,13 @@
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1477" s="14" t="s">
-        <v>1057</v>
+        <v>2429</v>
       </c>
       <c r="B1477" s="14" t="s">
-        <v>1058</v>
+        <v>2430</v>
       </c>
       <c r="C1477" s="14" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="D1477" s="14" t="s">
         <v>582</v>
@@ -77838,7 +77831,7 @@
         <v>584</v>
       </c>
       <c r="G1477" s="14" t="s">
-        <v>488</v>
+        <v>132</v>
       </c>
       <c r="H1477" s="14" t="s">
         <v>617</v>
@@ -77861,13 +77854,13 @@
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1478" s="14" t="s">
-        <v>2429</v>
+        <v>1735</v>
       </c>
       <c r="B1478" s="14" t="s">
-        <v>2430</v>
+        <v>1736</v>
       </c>
       <c r="C1478" s="14" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="D1478" s="14" t="s">
         <v>582</v>
@@ -77879,7 +77872,7 @@
         <v>584</v>
       </c>
       <c r="G1478" s="14" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="H1478" s="14" t="s">
         <v>617</v>
@@ -77899,28 +77892,31 @@
       <c r="M1478" s="14" t="s">
         <v>448</v>
       </c>
+      <c r="O1478" s="14" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1479" s="14" t="s">
-        <v>1735</v>
+        <v>1801</v>
       </c>
       <c r="B1479" s="14" t="s">
-        <v>1736</v>
+        <v>1802</v>
       </c>
       <c r="C1479" s="14" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D1479" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1479" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1479" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1479" s="14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H1479" s="14" t="s">
         <v>617</v>
@@ -77940,19 +77936,16 @@
       <c r="M1479" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="O1479" s="14" t="s">
-        <v>1737</v>
-      </c>
     </row>
     <row r="1480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1480" s="14" t="s">
-        <v>1801</v>
+        <v>1867</v>
       </c>
       <c r="B1480" s="14" t="s">
-        <v>1802</v>
+        <v>1876</v>
       </c>
       <c r="C1480" s="14" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D1480" s="14" t="s">
         <v>582</v>
@@ -77964,7 +77957,7 @@
         <v>584</v>
       </c>
       <c r="G1480" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H1480" s="14" t="s">
         <v>617</v>
@@ -77976,7 +77969,7 @@
         <v>448</v>
       </c>
       <c r="K1480" s="44" t="s">
-        <v>598</v>
+        <v>852</v>
       </c>
       <c r="L1480" s="14" t="s">
         <v>17</v>
@@ -77987,13 +77980,13 @@
     </row>
     <row r="1481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1481" s="14" t="s">
-        <v>1867</v>
+        <v>2602</v>
       </c>
       <c r="B1481" s="14" t="s">
-        <v>1876</v>
+        <v>2603</v>
       </c>
       <c r="C1481" s="14" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="D1481" s="14" t="s">
         <v>582</v>
@@ -78005,7 +77998,7 @@
         <v>584</v>
       </c>
       <c r="G1481" s="14" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="H1481" s="14" t="s">
         <v>617</v>
@@ -78028,37 +78021,37 @@
     </row>
     <row r="1482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1482" s="14" t="s">
-        <v>2602</v>
+        <v>3470</v>
       </c>
       <c r="B1482" s="14" t="s">
-        <v>2603</v>
+        <v>3471</v>
       </c>
       <c r="C1482" s="14" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D1482" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1482" s="14" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="F1482" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1482" s="14" t="s">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="H1482" s="14" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="I1482" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="J1482" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K1482" s="44" t="s">
-        <v>852</v>
+        <v>3472</v>
       </c>
       <c r="L1482" s="14" t="s">
         <v>17</v>
@@ -78066,105 +78059,105 @@
       <c r="M1482" s="14" t="s">
         <v>448</v>
       </c>
+      <c r="O1482" s="14" t="s">
+        <v>3446</v>
+      </c>
     </row>
     <row r="1483" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1483" s="14" t="s">
-        <v>3470</v>
-      </c>
-      <c r="B1483" s="14" t="s">
-        <v>3471</v>
-      </c>
-      <c r="C1483" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1483" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1483" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="F1483" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1483" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="H1483" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="I1483" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="J1483" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1483" s="44" t="s">
-        <v>3472</v>
-      </c>
-      <c r="L1483" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1483" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="O1483" s="14" t="s">
-        <v>3446</v>
+      <c r="A1483" s="40" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B1483" s="40" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C1483" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1483" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1483" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1483" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1483" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1483" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1483" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1483" s="40">
+        <v>0</v>
+      </c>
+      <c r="K1483" s="49">
+        <v>0.13332238741499999</v>
+      </c>
+      <c r="L1483" s="40">
+        <v>1</v>
+      </c>
+      <c r="M1483" s="40">
+        <v>0</v>
+      </c>
+      <c r="N1483" s="40"/>
+      <c r="O1483" s="40" t="s">
+        <v>4474</v>
       </c>
     </row>
     <row r="1484" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1484" s="40" t="s">
-        <v>4437</v>
-      </c>
-      <c r="B1484" s="40" t="s">
-        <v>4438</v>
-      </c>
-      <c r="C1484" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1484" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1484" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1484" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1484" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1484" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1484" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1484" s="40">
-        <v>0</v>
-      </c>
-      <c r="K1484" s="49">
-        <v>0.13332238741499999</v>
-      </c>
-      <c r="L1484" s="40">
-        <v>1</v>
-      </c>
-      <c r="M1484" s="40">
-        <v>0</v>
-      </c>
-      <c r="N1484" s="40"/>
-      <c r="O1484" s="40" t="s">
-        <v>4474</v>
+      <c r="A1484" s="14" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B1484" s="14" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C1484" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1484" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1484" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1484" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1484" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1484" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1484" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1484" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1484" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="L1484" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1484" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1485" s="14" t="s">
-        <v>3772</v>
+        <v>3024</v>
       </c>
       <c r="B1485" s="14" t="s">
-        <v>3773</v>
+        <v>3025</v>
       </c>
       <c r="C1485" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D1485" s="14" t="s">
         <v>582</v>
@@ -78176,7 +78169,7 @@
         <v>584</v>
       </c>
       <c r="G1485" s="14" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="H1485" s="14" t="s">
         <v>617</v>
@@ -78199,13 +78192,13 @@
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1486" s="14" t="s">
-        <v>3024</v>
+        <v>2178</v>
       </c>
       <c r="B1486" s="14" t="s">
-        <v>3025</v>
+        <v>2179</v>
       </c>
       <c r="C1486" s="14" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="D1486" s="14" t="s">
         <v>582</v>
@@ -78217,7 +78210,7 @@
         <v>584</v>
       </c>
       <c r="G1486" s="14" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="H1486" s="14" t="s">
         <v>617</v>
@@ -78240,25 +78233,25 @@
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1487" s="14" t="s">
-        <v>2178</v>
+        <v>2915</v>
       </c>
       <c r="B1487" s="14" t="s">
-        <v>2179</v>
+        <v>2916</v>
       </c>
       <c r="C1487" s="14" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D1487" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1487" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1487" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1487" s="14" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="H1487" s="14" t="s">
         <v>617</v>
@@ -78273,7 +78266,7 @@
         <v>598</v>
       </c>
       <c r="L1487" s="14" t="s">
-        <v>17</v>
+        <v>680</v>
       </c>
       <c r="M1487" s="14" t="s">
         <v>448</v>
@@ -78281,16 +78274,16 @@
     </row>
     <row r="1488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1488" s="14" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="B1488" s="14" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="C1488" s="14" t="s">
         <v>308</v>
       </c>
       <c r="D1488" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1488" s="14" t="s">
         <v>630</v>
@@ -78314,7 +78307,7 @@
         <v>598</v>
       </c>
       <c r="L1488" s="14" t="s">
-        <v>680</v>
+        <v>17</v>
       </c>
       <c r="M1488" s="14" t="s">
         <v>448</v>
@@ -78322,25 +78315,25 @@
     </row>
     <row r="1489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1489" s="14" t="s">
-        <v>2917</v>
+        <v>3427</v>
       </c>
       <c r="B1489" s="14" t="s">
-        <v>2918</v>
+        <v>3428</v>
       </c>
       <c r="C1489" s="14" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="D1489" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1489" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1489" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1489" s="14" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="H1489" s="14" t="s">
         <v>617</v>
@@ -78352,7 +78345,7 @@
         <v>448</v>
       </c>
       <c r="K1489" s="44" t="s">
-        <v>598</v>
+        <v>2026</v>
       </c>
       <c r="L1489" s="14" t="s">
         <v>17</v>
@@ -78363,16 +78356,16 @@
     </row>
     <row r="1490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1490" s="14" t="s">
-        <v>3427</v>
+        <v>3575</v>
       </c>
       <c r="B1490" s="14" t="s">
-        <v>3428</v>
+        <v>3576</v>
       </c>
       <c r="C1490" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D1490" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1490" s="14" t="s">
         <v>820</v>
@@ -78381,7 +78374,7 @@
         <v>584</v>
       </c>
       <c r="G1490" s="14" t="s">
-        <v>378</v>
+        <v>540</v>
       </c>
       <c r="H1490" s="14" t="s">
         <v>617</v>
@@ -78393,7 +78386,7 @@
         <v>448</v>
       </c>
       <c r="K1490" s="44" t="s">
-        <v>2026</v>
+        <v>598</v>
       </c>
       <c r="L1490" s="14" t="s">
         <v>17</v>
@@ -78403,189 +78396,189 @@
       </c>
     </row>
     <row r="1491" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1491" s="14" t="s">
-        <v>3575</v>
-      </c>
-      <c r="B1491" s="14" t="s">
-        <v>3576</v>
-      </c>
-      <c r="C1491" s="14" t="s">
+      <c r="A1491" s="40" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B1491" s="40" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C1491" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1491" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1491" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1491" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1491" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1491" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1491" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1491" s="40">
+        <v>0</v>
+      </c>
+      <c r="K1491" s="49">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="L1491" s="40">
+        <v>1</v>
+      </c>
+      <c r="M1491" s="40">
+        <v>0</v>
+      </c>
+      <c r="N1491" s="40"/>
+      <c r="O1491" s="40" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1492" s="14" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1492" s="14" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1492" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D1491" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="E1491" s="14" t="s">
+      <c r="D1492" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1492" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="F1491" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1491" s="14" t="s">
+      <c r="F1492" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1492" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="H1491" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1491" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1491" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1491" s="44" t="s">
+      <c r="H1492" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1492" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1492" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1492" s="44" t="s">
+        <v>3579</v>
+      </c>
+      <c r="L1492" s="14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M1492" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1493" s="40" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B1493" s="40" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C1493" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1493" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1493" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1493" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1493" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1493" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1493" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1493" s="40">
+        <v>0</v>
+      </c>
+      <c r="K1493" s="49">
+        <v>4.4482216152605001E-6</v>
+      </c>
+      <c r="L1493" s="40">
+        <v>6.4515999999999998E-4</v>
+      </c>
+      <c r="M1493" s="40">
+        <v>0</v>
+      </c>
+      <c r="N1493" s="40"/>
+      <c r="O1493" s="40" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1494" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1494" s="14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C1494" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1494" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1494" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1494" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1494" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1494" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1494" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1494" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1494" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="L1491" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1491" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1492" s="40" t="s">
-        <v>4439</v>
-      </c>
-      <c r="B1492" s="40" t="s">
-        <v>4440</v>
-      </c>
-      <c r="C1492" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1492" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="E1492" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1492" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1492" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1492" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1492" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1492" s="40">
-        <v>0</v>
-      </c>
-      <c r="K1492" s="49">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L1492" s="40">
-        <v>1</v>
-      </c>
-      <c r="M1492" s="40">
-        <v>0</v>
-      </c>
-      <c r="N1492" s="40"/>
-      <c r="O1492" s="40" t="s">
-        <v>4475</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1493" s="14" t="s">
-        <v>3577</v>
-      </c>
-      <c r="B1493" s="14" t="s">
-        <v>3578</v>
-      </c>
-      <c r="C1493" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1493" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1493" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="F1493" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1493" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="H1493" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1493" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1493" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1493" s="44" t="s">
-        <v>3579</v>
-      </c>
-      <c r="L1493" s="14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="M1493" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1494" s="40" t="s">
-        <v>4441</v>
-      </c>
-      <c r="B1494" s="40" t="s">
-        <v>4442</v>
-      </c>
-      <c r="C1494" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D1494" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1494" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1494" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1494" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="H1494" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1494" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1494" s="40">
-        <v>0</v>
-      </c>
-      <c r="K1494" s="49">
-        <v>4.4482216152605001E-6</v>
-      </c>
-      <c r="L1494" s="40">
-        <v>6.4515999999999998E-4</v>
-      </c>
-      <c r="M1494" s="40">
-        <v>0</v>
-      </c>
-      <c r="N1494" s="40"/>
-      <c r="O1494" s="40" t="s">
-        <v>4476</v>
+      <c r="L1494" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1494" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1495" s="14" t="s">
-        <v>1109</v>
+        <v>2099</v>
       </c>
       <c r="B1495" s="14" t="s">
-        <v>1110</v>
+        <v>2100</v>
       </c>
       <c r="C1495" s="14" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="D1495" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1495" s="14" t="s">
         <v>820</v>
@@ -78594,7 +78587,7 @@
         <v>584</v>
       </c>
       <c r="G1495" s="14" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="H1495" s="14" t="s">
         <v>617</v>
@@ -78606,7 +78599,7 @@
         <v>448</v>
       </c>
       <c r="K1495" s="44" t="s">
-        <v>598</v>
+        <v>1879</v>
       </c>
       <c r="L1495" s="14" t="s">
         <v>17</v>
@@ -78617,16 +78610,16 @@
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1496" s="14" t="s">
-        <v>2099</v>
+        <v>1296</v>
       </c>
       <c r="B1496" s="14" t="s">
-        <v>2100</v>
+        <v>1297</v>
       </c>
       <c r="C1496" s="14" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="D1496" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1496" s="14" t="s">
         <v>820</v>
@@ -78635,7 +78628,7 @@
         <v>584</v>
       </c>
       <c r="G1496" s="14" t="s">
-        <v>514</v>
+        <v>90</v>
       </c>
       <c r="H1496" s="14" t="s">
         <v>617</v>
@@ -78647,7 +78640,7 @@
         <v>448</v>
       </c>
       <c r="K1496" s="44" t="s">
-        <v>1879</v>
+        <v>598</v>
       </c>
       <c r="L1496" s="14" t="s">
         <v>17</v>
@@ -78658,13 +78651,13 @@
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1497" s="14" t="s">
-        <v>1296</v>
+        <v>3869</v>
       </c>
       <c r="B1497" s="14" t="s">
-        <v>1297</v>
+        <v>3870</v>
       </c>
       <c r="C1497" s="14" t="s">
-        <v>89</v>
+        <v>347</v>
       </c>
       <c r="D1497" s="14" t="s">
         <v>582</v>
@@ -78676,7 +78669,7 @@
         <v>584</v>
       </c>
       <c r="G1497" s="14" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
       <c r="H1497" s="14" t="s">
         <v>617</v>
@@ -78699,25 +78692,25 @@
     </row>
     <row r="1498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1498" s="14" t="s">
-        <v>3869</v>
+        <v>3898</v>
       </c>
       <c r="B1498" s="14" t="s">
-        <v>3870</v>
+        <v>3899</v>
       </c>
       <c r="C1498" s="14" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="D1498" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1498" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1498" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1498" s="14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H1498" s="14" t="s">
         <v>617</v>
@@ -78732,7 +78725,7 @@
         <v>598</v>
       </c>
       <c r="L1498" s="14" t="s">
-        <v>17</v>
+        <v>680</v>
       </c>
       <c r="M1498" s="14" t="s">
         <v>448</v>
@@ -78740,10 +78733,10 @@
     </row>
     <row r="1499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1499" s="14" t="s">
-        <v>3898</v>
+        <v>3900</v>
       </c>
       <c r="B1499" s="14" t="s">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="C1499" s="14" t="s">
         <v>430</v>
@@ -78773,7 +78766,7 @@
         <v>598</v>
       </c>
       <c r="L1499" s="14" t="s">
-        <v>680</v>
+        <v>908</v>
       </c>
       <c r="M1499" s="14" t="s">
         <v>448</v>
@@ -78781,16 +78774,16 @@
     </row>
     <row r="1500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1500" s="14" t="s">
-        <v>3900</v>
+        <v>3902</v>
       </c>
       <c r="B1500" s="14" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
       <c r="C1500" s="14" t="s">
         <v>430</v>
       </c>
       <c r="D1500" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1500" s="14" t="s">
         <v>630</v>
@@ -78814,7 +78807,7 @@
         <v>598</v>
       </c>
       <c r="L1500" s="14" t="s">
-        <v>908</v>
+        <v>17</v>
       </c>
       <c r="M1500" s="14" t="s">
         <v>448</v>
@@ -78822,25 +78815,25 @@
     </row>
     <row r="1501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1501" s="14" t="s">
-        <v>3902</v>
+        <v>3224</v>
       </c>
       <c r="B1501" s="14" t="s">
-        <v>3903</v>
+        <v>3225</v>
       </c>
       <c r="C1501" s="14" t="s">
-        <v>430</v>
+        <v>346</v>
       </c>
       <c r="D1501" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1501" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1501" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1501" s="14" t="s">
-        <v>431</v>
+        <v>347</v>
       </c>
       <c r="H1501" s="14" t="s">
         <v>617</v>
@@ -78863,13 +78856,13 @@
     </row>
     <row r="1502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1502" s="14" t="s">
-        <v>3224</v>
+        <v>2230</v>
       </c>
       <c r="B1502" s="14" t="s">
-        <v>3225</v>
+        <v>2231</v>
       </c>
       <c r="C1502" s="14" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="D1502" s="14" t="s">
         <v>582</v>
@@ -78881,7 +78874,7 @@
         <v>584</v>
       </c>
       <c r="G1502" s="14" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="H1502" s="14" t="s">
         <v>617</v>
@@ -78904,25 +78897,25 @@
     </row>
     <row r="1503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1503" s="14" t="s">
-        <v>2230</v>
+        <v>2927</v>
       </c>
       <c r="B1503" s="14" t="s">
-        <v>2231</v>
+        <v>2928</v>
       </c>
       <c r="C1503" s="14" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="D1503" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1503" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1503" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1503" s="14" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="H1503" s="14" t="s">
         <v>617</v>
@@ -78937,7 +78930,7 @@
         <v>598</v>
       </c>
       <c r="L1503" s="14" t="s">
-        <v>17</v>
+        <v>680</v>
       </c>
       <c r="M1503" s="14" t="s">
         <v>448</v>
@@ -78945,16 +78938,16 @@
     </row>
     <row r="1504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1504" s="14" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="B1504" s="14" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="C1504" s="14" t="s">
         <v>316</v>
       </c>
       <c r="D1504" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E1504" s="14" t="s">
         <v>630</v>
@@ -78978,7 +78971,7 @@
         <v>598</v>
       </c>
       <c r="L1504" s="14" t="s">
-        <v>680</v>
+        <v>17</v>
       </c>
       <c r="M1504" s="14" t="s">
         <v>448</v>
@@ -78986,25 +78979,25 @@
     </row>
     <row r="1505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1505" s="14" t="s">
-        <v>2929</v>
+        <v>2509</v>
       </c>
       <c r="B1505" s="14" t="s">
-        <v>2930</v>
+        <v>2510</v>
       </c>
       <c r="C1505" s="14" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D1505" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1505" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1505" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1505" s="14" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="H1505" s="14" t="s">
         <v>617</v>
@@ -79027,25 +79020,25 @@
     </row>
     <row r="1506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1506" s="14" t="s">
-        <v>2509</v>
+        <v>3625</v>
       </c>
       <c r="B1506" s="14" t="s">
-        <v>2510</v>
+        <v>3626</v>
       </c>
       <c r="C1506" s="14" t="s">
-        <v>241</v>
+        <v>385</v>
       </c>
       <c r="D1506" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1506" s="14" t="s">
-        <v>820</v>
+        <v>630</v>
       </c>
       <c r="F1506" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1506" s="14" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="H1506" s="14" t="s">
         <v>617</v>
@@ -79068,25 +79061,25 @@
     </row>
     <row r="1507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1507" s="14" t="s">
-        <v>3625</v>
+        <v>2205</v>
       </c>
       <c r="B1507" s="14" t="s">
-        <v>3626</v>
+        <v>2206</v>
       </c>
       <c r="C1507" s="14" t="s">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="D1507" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1507" s="14" t="s">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="F1507" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1507" s="14" t="s">
-        <v>386</v>
+        <v>223</v>
       </c>
       <c r="H1507" s="14" t="s">
         <v>617</v>
@@ -79109,77 +79102,56 @@
     </row>
     <row r="1508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1508" s="14" t="s">
-        <v>2205</v>
+        <v>227</v>
       </c>
       <c r="B1508" s="14" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="C1508" s="14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D1508" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1508" s="14" t="s">
-        <v>820</v>
+        <v>986</v>
       </c>
       <c r="F1508" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1508" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1508" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1508" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1508" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1508" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="L1508" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1508" s="14" t="s">
-        <v>448</v>
+        <v>601</v>
+      </c>
+      <c r="N1508" s="14" t="s">
+        <v>2208</v>
+      </c>
+      <c r="O1508" s="14" t="s">
+        <v>2209</v>
       </c>
     </row>
     <row r="1509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1509" s="14" t="s">
-        <v>227</v>
+        <v>563</v>
       </c>
       <c r="B1509" s="14" t="s">
-        <v>2207</v>
+        <v>3968</v>
       </c>
       <c r="C1509" s="14" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="D1509" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1509" s="14" t="s">
-        <v>986</v>
+        <v>630</v>
       </c>
       <c r="F1509" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="N1509" s="14" t="s">
-        <v>2208</v>
-      </c>
-      <c r="O1509" s="14" t="s">
-        <v>2209</v>
-      </c>
     </row>
     <row r="1510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1510" s="14" t="s">
-        <v>563</v>
+        <v>3969</v>
       </c>
       <c r="B1510" s="14" t="s">
-        <v>3968</v>
+        <v>3970</v>
       </c>
       <c r="C1510" s="14" t="s">
         <v>447</v>
@@ -79191,18 +79163,39 @@
         <v>630</v>
       </c>
       <c r="F1510" s="14" t="s">
-        <v>601</v>
+        <v>584</v>
+      </c>
+      <c r="G1510" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1510" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1510" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1510" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1510" s="44" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L1510" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1510" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1511" s="14" t="s">
-        <v>3969</v>
+        <v>317</v>
       </c>
       <c r="B1511" s="14" t="s">
-        <v>3970</v>
+        <v>2922</v>
       </c>
       <c r="C1511" s="14" t="s">
-        <v>447</v>
+        <v>316</v>
       </c>
       <c r="D1511" s="14" t="s">
         <v>582</v>
@@ -79211,82 +79204,86 @@
         <v>630</v>
       </c>
       <c r="F1511" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1511" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="H1511" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1511" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1511" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1511" s="44" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L1511" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1511" s="14" t="s">
-        <v>448</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1512" s="14" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="B1512" s="14" t="s">
-        <v>2922</v>
+        <v>2431</v>
       </c>
       <c r="C1512" s="14" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="D1512" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1512" s="14" t="s">
-        <v>630</v>
+        <v>986</v>
       </c>
       <c r="F1512" s="14" t="s">
         <v>601</v>
       </c>
+      <c r="N1512" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="O1512" s="14" t="s">
+        <v>2432</v>
+      </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1513" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1513" s="14" t="s">
-        <v>2431</v>
-      </c>
-      <c r="C1513" s="14" t="s">
-        <v>241</v>
+      <c r="A1513" s="34" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B1513" s="34" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C1513" s="34" t="s">
+        <v>381</v>
       </c>
       <c r="D1513" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="E1513" s="14" t="s">
-        <v>986</v>
-      </c>
-      <c r="F1513" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="N1513" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="O1513" s="14" t="s">
-        <v>2432</v>
+        <v>591</v>
+      </c>
+      <c r="E1513" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1513" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1513" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="H1513" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1513" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1513" s="34">
+        <v>0</v>
+      </c>
+      <c r="K1513" s="53">
+        <v>3600</v>
+      </c>
+      <c r="L1513" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="M1513" s="34">
+        <v>0</v>
+      </c>
+      <c r="N1513" s="34"/>
+      <c r="O1513" s="34" t="s">
+        <v>4128</v>
       </c>
     </row>
     <row r="1514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1514" s="34" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="B1514" s="34" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="C1514" s="34" t="s">
         <v>381</v>
@@ -79316,7 +79313,7 @@
         <v>3600</v>
       </c>
       <c r="L1514" s="34">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="M1514" s="34">
         <v>0</v>
@@ -79327,59 +79324,37 @@
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1515" s="34" t="s">
-        <v>4351</v>
-      </c>
-      <c r="B1515" s="34" t="s">
-        <v>4352</v>
-      </c>
-      <c r="C1515" s="34" t="s">
-        <v>381</v>
+      <c r="A1515" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1515" s="14" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1515" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="D1515" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1515" s="34" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1515" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1515" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="H1515" s="34" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1515" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1515" s="34">
-        <v>0</v>
-      </c>
-      <c r="K1515" s="53">
-        <v>3600</v>
-      </c>
-      <c r="L1515" s="34">
-        <v>1</v>
-      </c>
-      <c r="M1515" s="34">
-        <v>0</v>
-      </c>
-      <c r="N1515" s="34"/>
-      <c r="O1515" s="34" t="s">
-        <v>4128</v>
+        <v>582</v>
+      </c>
+      <c r="E1515" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1515" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="N1515" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1516" s="14" t="s">
-        <v>508</v>
+        <v>301</v>
       </c>
       <c r="B1516" s="14" t="s">
-        <v>1953</v>
+        <v>2896</v>
       </c>
       <c r="C1516" s="14" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="D1516" s="14" t="s">
         <v>582</v>
@@ -79390,19 +79365,16 @@
       <c r="F1516" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="N1516" s="14" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1517" s="14" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="B1517" s="14" t="s">
-        <v>2896</v>
+        <v>3140</v>
       </c>
       <c r="C1517" s="14" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="D1517" s="14" t="s">
         <v>582</v>
@@ -79416,13 +79388,13 @@
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1518" s="14" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="B1518" s="14" t="s">
-        <v>3140</v>
+        <v>3632</v>
       </c>
       <c r="C1518" s="14" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="D1518" s="14" t="s">
         <v>582</v>
@@ -79436,13 +79408,13 @@
     </row>
     <row r="1519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1519" s="14" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="B1519" s="14" t="s">
-        <v>3632</v>
+        <v>3131</v>
       </c>
       <c r="C1519" s="14" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="D1519" s="14" t="s">
         <v>582</v>
@@ -79456,13 +79428,13 @@
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1520" s="14" t="s">
-        <v>335</v>
+        <v>3747</v>
       </c>
       <c r="B1520" s="14" t="s">
-        <v>3131</v>
+        <v>3748</v>
       </c>
       <c r="C1520" s="14" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="D1520" s="14" t="s">
         <v>582</v>
@@ -79471,18 +79443,39 @@
         <v>630</v>
       </c>
       <c r="F1520" s="14" t="s">
-        <v>601</v>
+        <v>584</v>
+      </c>
+      <c r="G1520" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1520" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1520" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1520" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1520" s="44" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L1520" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1520" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1521" s="14" t="s">
-        <v>3747</v>
+        <v>211</v>
       </c>
       <c r="B1521" s="14" t="s">
-        <v>3748</v>
+        <v>2128</v>
       </c>
       <c r="C1521" s="14" t="s">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="D1521" s="14" t="s">
         <v>582</v>
@@ -79491,39 +79484,18 @@
         <v>630</v>
       </c>
       <c r="F1521" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1521" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="H1521" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1521" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1521" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1521" s="44" t="s">
-        <v>1254</v>
-      </c>
-      <c r="L1521" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1521" s="14" t="s">
-        <v>448</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1522" s="14" t="s">
-        <v>211</v>
+        <v>816</v>
       </c>
       <c r="B1522" s="14" t="s">
-        <v>2128</v>
+        <v>817</v>
       </c>
       <c r="C1522" s="14" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="D1522" s="14" t="s">
         <v>582</v>
@@ -79532,18 +79504,39 @@
         <v>630</v>
       </c>
       <c r="F1522" s="14" t="s">
-        <v>601</v>
+        <v>584</v>
+      </c>
+      <c r="G1522" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1522" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1522" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1522" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1522" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="L1522" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1522" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1523" s="14" t="s">
-        <v>816</v>
+        <v>404</v>
       </c>
       <c r="B1523" s="14" t="s">
-        <v>817</v>
+        <v>3727</v>
       </c>
       <c r="C1523" s="14" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="D1523" s="14" t="s">
         <v>582</v>
@@ -79552,39 +79545,18 @@
         <v>630</v>
       </c>
       <c r="F1523" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1523" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="H1523" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1523" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1523" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1523" s="44" t="s">
-        <v>594</v>
-      </c>
-      <c r="L1523" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1523" s="14" t="s">
-        <v>448</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1524" s="14" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B1524" s="14" t="s">
-        <v>3727</v>
+        <v>3582</v>
       </c>
       <c r="C1524" s="14" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D1524" s="14" t="s">
         <v>582</v>
@@ -79598,13 +79570,13 @@
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1525" s="14" t="s">
-        <v>386</v>
+        <v>3749</v>
       </c>
       <c r="B1525" s="14" t="s">
-        <v>3582</v>
+        <v>3750</v>
       </c>
       <c r="C1525" s="14" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D1525" s="14" t="s">
         <v>582</v>
@@ -79613,18 +79585,39 @@
         <v>630</v>
       </c>
       <c r="F1525" s="14" t="s">
-        <v>601</v>
+        <v>584</v>
+      </c>
+      <c r="G1525" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1525" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1525" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1525" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1525" s="44" t="s">
+        <v>845</v>
+      </c>
+      <c r="L1525" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1525" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1526" s="14" t="s">
-        <v>3749</v>
+        <v>235</v>
       </c>
       <c r="B1526" s="14" t="s">
-        <v>3750</v>
+        <v>2242</v>
       </c>
       <c r="C1526" s="14" t="s">
-        <v>403</v>
+        <v>234</v>
       </c>
       <c r="D1526" s="14" t="s">
         <v>582</v>
@@ -79633,39 +79626,18 @@
         <v>630</v>
       </c>
       <c r="F1526" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1526" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="H1526" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1526" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1526" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1526" s="44" t="s">
-        <v>845</v>
-      </c>
-      <c r="L1526" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1526" s="14" t="s">
-        <v>448</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1527" s="14" t="s">
-        <v>235</v>
+        <v>458</v>
       </c>
       <c r="B1527" s="14" t="s">
-        <v>2242</v>
+        <v>645</v>
       </c>
       <c r="C1527" s="14" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="D1527" s="14" t="s">
         <v>582</v>
@@ -79676,65 +79648,65 @@
       <c r="F1527" s="14" t="s">
         <v>601</v>
       </c>
+      <c r="N1527" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1528" s="14" t="s">
-        <v>458</v>
+        <v>223</v>
       </c>
       <c r="B1528" s="14" t="s">
-        <v>645</v>
+        <v>2180</v>
       </c>
       <c r="C1528" s="14" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="D1528" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1528" s="14" t="s">
-        <v>630</v>
+        <v>986</v>
       </c>
       <c r="F1528" s="14" t="s">
         <v>601</v>
       </c>
       <c r="N1528" s="14" t="s">
-        <v>18</v>
+        <v>2181</v>
+      </c>
+      <c r="O1528" s="14" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="1529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1529" s="14" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="B1529" s="14" t="s">
-        <v>2180</v>
+        <v>2798</v>
       </c>
       <c r="C1529" s="14" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="D1529" s="14" t="s">
         <v>582</v>
       </c>
       <c r="E1529" s="14" t="s">
-        <v>986</v>
+        <v>630</v>
       </c>
       <c r="F1529" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="N1529" s="14" t="s">
-        <v>2181</v>
-      </c>
-      <c r="O1529" s="14" t="s">
-        <v>2182</v>
-      </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1530" s="14" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="B1530" s="14" t="s">
-        <v>2798</v>
+        <v>2919</v>
       </c>
       <c r="C1530" s="14" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="D1530" s="14" t="s">
         <v>582</v>
@@ -79748,10 +79720,10 @@
     </row>
     <row r="1531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1531" s="14" t="s">
-        <v>313</v>
+        <v>2920</v>
       </c>
       <c r="B1531" s="14" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="C1531" s="14" t="s">
         <v>312</v>
@@ -79763,33 +79735,54 @@
         <v>630</v>
       </c>
       <c r="F1531" s="14" t="s">
-        <v>601</v>
+        <v>584</v>
+      </c>
+      <c r="G1531" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1531" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1531" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1531" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1531" s="44" t="s">
+        <v>742</v>
+      </c>
+      <c r="L1531" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1531" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="1532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1532" s="14" t="s">
-        <v>2920</v>
+        <v>3823</v>
       </c>
       <c r="B1532" s="14" t="s">
-        <v>2921</v>
+        <v>3824</v>
       </c>
       <c r="C1532" s="14" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="D1532" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E1532" s="14" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="F1532" s="14" t="s">
         <v>584</v>
       </c>
       <c r="G1532" s="14" t="s">
-        <v>313</v>
+        <v>428</v>
       </c>
       <c r="H1532" s="14" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="I1532" s="14" t="s">
         <v>582</v>
@@ -79798,24 +79791,30 @@
         <v>448</v>
       </c>
       <c r="K1532" s="44" t="s">
-        <v>742</v>
+        <v>1008</v>
       </c>
       <c r="L1532" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M1532" s="14" t="s">
         <v>448</v>
+      </c>
+      <c r="N1532" s="14" t="s">
+        <v>3825</v>
+      </c>
+      <c r="O1532" s="14" t="s">
+        <v>3826</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1533" s="14" t="s">
-        <v>3823</v>
+        <v>1608</v>
       </c>
       <c r="B1533" s="14" t="s">
-        <v>3824</v>
+        <v>1609</v>
       </c>
       <c r="C1533" s="14" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
       <c r="D1533" s="14" t="s">
         <v>591</v>
@@ -79827,10 +79826,10 @@
         <v>584</v>
       </c>
       <c r="G1533" s="14" t="s">
-        <v>428</v>
+        <v>161</v>
       </c>
       <c r="H1533" s="14" t="s">
-        <v>593</v>
+        <v>1532</v>
       </c>
       <c r="I1533" s="14" t="s">
         <v>582</v>
@@ -79839,7 +79838,7 @@
         <v>448</v>
       </c>
       <c r="K1533" s="44" t="s">
-        <v>1008</v>
+        <v>918</v>
       </c>
       <c r="L1533" s="14" t="s">
         <v>17</v>
@@ -79848,18 +79847,18 @@
         <v>448</v>
       </c>
       <c r="N1533" s="14" t="s">
-        <v>3825</v>
+        <v>1610</v>
       </c>
       <c r="O1533" s="14" t="s">
-        <v>3826</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1534" s="14" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="B1534" s="14" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="C1534" s="14" t="s">
         <v>160</v>
@@ -79877,16 +79876,16 @@
         <v>161</v>
       </c>
       <c r="H1534" s="14" t="s">
-        <v>1532</v>
+        <v>860</v>
       </c>
       <c r="I1534" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="J1534" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K1534" s="44" t="s">
-        <v>918</v>
+        <v>1478</v>
       </c>
       <c r="L1534" s="14" t="s">
         <v>17</v>
@@ -79895,18 +79894,18 @@
         <v>448</v>
       </c>
       <c r="N1534" s="14" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="O1534" s="14" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1535" s="14" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="B1535" s="14" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="C1535" s="14" t="s">
         <v>160</v>
@@ -79933,27 +79932,27 @@
         <v>448</v>
       </c>
       <c r="K1535" s="44" t="s">
-        <v>1478</v>
+        <v>1618</v>
       </c>
       <c r="L1535" s="14" t="s">
-        <v>17</v>
+        <v>1439</v>
       </c>
       <c r="M1535" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1535" s="14" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="O1535" s="14" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1536" s="14" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="B1536" s="14" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="C1536" s="14" t="s">
         <v>160</v>
@@ -79980,27 +79979,27 @@
         <v>448</v>
       </c>
       <c r="K1536" s="44" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="L1536" s="14" t="s">
-        <v>1439</v>
+        <v>17</v>
       </c>
       <c r="M1536" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1536" s="14" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="O1536" s="14" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1537" s="14" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="B1537" s="14" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="C1537" s="14" t="s">
         <v>160</v>
@@ -80027,27 +80026,27 @@
         <v>448</v>
       </c>
       <c r="K1537" s="44" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="L1537" s="14" t="s">
-        <v>17</v>
+        <v>1503</v>
       </c>
       <c r="M1537" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1537" s="14" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="O1537" s="14" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1538" s="14" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="B1538" s="14" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="C1538" s="14" t="s">
         <v>160</v>
@@ -80074,27 +80073,27 @@
         <v>448</v>
       </c>
       <c r="K1538" s="44" t="s">
-        <v>1618</v>
+        <v>1632</v>
       </c>
       <c r="L1538" s="14" t="s">
-        <v>1503</v>
+        <v>17</v>
       </c>
       <c r="M1538" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1538" s="14" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="O1538" s="14" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1539" s="14" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="B1539" s="14" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="C1539" s="14" t="s">
         <v>160</v>
@@ -80121,7 +80120,7 @@
         <v>448</v>
       </c>
       <c r="K1539" s="44" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="L1539" s="14" t="s">
         <v>17</v>
@@ -80130,18 +80129,18 @@
         <v>448</v>
       </c>
       <c r="N1539" s="14" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="O1539" s="14" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1540" s="14" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="B1540" s="14" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="C1540" s="14" t="s">
         <v>160</v>
@@ -80168,7 +80167,7 @@
         <v>448</v>
       </c>
       <c r="K1540" s="44" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="L1540" s="14" t="s">
         <v>17</v>
@@ -80177,18 +80176,18 @@
         <v>448</v>
       </c>
       <c r="N1540" s="14" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="O1540" s="14" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1541" s="14" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="B1541" s="14" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="C1541" s="14" t="s">
         <v>160</v>
@@ -80215,74 +80214,74 @@
         <v>448</v>
       </c>
       <c r="K1541" s="44" t="s">
-        <v>1642</v>
+        <v>1618</v>
       </c>
       <c r="L1541" s="14" t="s">
-        <v>17</v>
+        <v>1454</v>
       </c>
       <c r="M1541" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1541" s="14" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="O1541" s="14" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1542" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1542" s="14" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B1542" s="14" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C1542" s="14" t="s">
+      <c r="A1542" s="21" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1542" s="21" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C1542" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D1542" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1542" s="14" t="s">
+      <c r="D1542" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1542" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="F1542" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1542" s="14" t="s">
+      <c r="F1542" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1542" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H1542" s="14" t="s">
+      <c r="H1542" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="I1542" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="J1542" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1542" s="44" t="s">
-        <v>1618</v>
-      </c>
-      <c r="L1542" s="14" t="s">
-        <v>1454</v>
-      </c>
-      <c r="M1542" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="N1542" s="14" t="s">
-        <v>1647</v>
-      </c>
-      <c r="O1542" s="14" t="s">
-        <v>1648</v>
+      <c r="I1542" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1542" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1542" s="57" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L1542" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1542" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1542" s="21" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O1542" s="21" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="1543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1543" s="21" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="B1543" s="21" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="C1543" s="21" t="s">
         <v>160</v>
@@ -80300,7 +80299,7 @@
         <v>161</v>
       </c>
       <c r="H1543" s="21" t="s">
-        <v>860</v>
+        <v>585</v>
       </c>
       <c r="I1543" s="21" t="s">
         <v>582</v>
@@ -80309,45 +80308,45 @@
         <v>448</v>
       </c>
       <c r="K1543" s="57" t="s">
-        <v>1522</v>
+        <v>998</v>
       </c>
       <c r="L1543" s="21" t="s">
-        <v>17</v>
+        <v>1527</v>
       </c>
       <c r="M1543" s="21" t="s">
         <v>448</v>
       </c>
       <c r="N1543" s="21" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="O1543" s="21" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1544" s="21" t="s">
-        <v>1653</v>
+        <v>1914</v>
       </c>
       <c r="B1544" s="21" t="s">
-        <v>1654</v>
+        <v>1915</v>
       </c>
       <c r="C1544" s="21" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D1544" s="21" t="s">
         <v>591</v>
       </c>
       <c r="E1544" s="21" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="F1544" s="21" t="s">
         <v>584</v>
       </c>
       <c r="G1544" s="21" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H1544" s="21" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="I1544" s="21" t="s">
         <v>582</v>
@@ -80356,30 +80355,26 @@
         <v>448</v>
       </c>
       <c r="K1544" s="57" t="s">
-        <v>998</v>
+        <v>1916</v>
       </c>
       <c r="L1544" s="21" t="s">
-        <v>1527</v>
+        <v>17</v>
       </c>
       <c r="M1544" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="N1544" s="21" t="s">
-        <v>1655</v>
-      </c>
-      <c r="O1544" s="21" t="s">
-        <v>1656</v>
-      </c>
+      <c r="N1544" s="21"/>
+      <c r="O1544" s="21"/>
     </row>
     <row r="1545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1545" s="21" t="s">
-        <v>1914</v>
+        <v>2623</v>
       </c>
       <c r="B1545" s="21" t="s">
-        <v>1915</v>
+        <v>2624</v>
       </c>
       <c r="C1545" s="21" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="D1545" s="21" t="s">
         <v>591</v>
@@ -80391,7 +80386,7 @@
         <v>584</v>
       </c>
       <c r="G1545" s="21" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="H1545" s="21" t="s">
         <v>617</v>
@@ -80403,7 +80398,7 @@
         <v>448</v>
       </c>
       <c r="K1545" s="57" t="s">
-        <v>1916</v>
+        <v>2625</v>
       </c>
       <c r="L1545" s="21" t="s">
         <v>17</v>
@@ -80415,64 +80410,24 @@
       <c r="O1545" s="21"/>
     </row>
     <row r="1546" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1546" s="21" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B1546" s="21" t="s">
-        <v>2624</v>
-      </c>
-      <c r="C1546" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1546" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1546" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1546" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1546" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1546" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1546" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="J1546" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="K1546" s="57" t="s">
-        <v>2625</v>
-      </c>
-      <c r="L1546" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1546" s="21" t="s">
-        <v>448</v>
-      </c>
+      <c r="A1546" s="21"/>
+      <c r="B1546" s="21"/>
+      <c r="C1546" s="21"/>
+      <c r="D1546" s="21"/>
+      <c r="E1546" s="21"/>
+      <c r="F1546" s="21"/>
+      <c r="G1546" s="21"/>
+      <c r="H1546" s="21"/>
+      <c r="I1546" s="21"/>
+      <c r="J1546" s="21"/>
+      <c r="K1546" s="57"/>
+      <c r="L1546" s="21"/>
+      <c r="M1546" s="21"/>
       <c r="N1546" s="21"/>
       <c r="O1546" s="21"/>
     </row>
-    <row r="1547" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1547" s="21"/>
-      <c r="B1547" s="21"/>
-      <c r="C1547" s="21"/>
-      <c r="D1547" s="21"/>
-      <c r="E1547" s="21"/>
-      <c r="F1547" s="21"/>
-      <c r="G1547" s="21"/>
-      <c r="H1547" s="21"/>
-      <c r="I1547" s="21"/>
-      <c r="J1547" s="21"/>
-      <c r="K1547" s="57"/>
-      <c r="L1547" s="21"/>
-      <c r="M1547" s="21"/>
-      <c r="N1547" s="21"/>
-      <c r="O1547" s="21"/>
+    <row r="1548" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C1548" s="24"/>
     </row>
     <row r="1549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1549" s="24"/>
@@ -80483,8 +80438,8 @@
     <row r="1551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1551" s="24"/>
     </row>
-    <row r="1552" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C1552" s="24"/>
+    <row r="1554" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1554" s="24"/>
     </row>
     <row r="1555" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1555" s="24"/>
@@ -80495,32 +80450,32 @@
     <row r="1557" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1557" s="24"/>
     </row>
-    <row r="1558" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1558" s="24"/>
+    <row r="1566" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1566" s="24"/>
     </row>
     <row r="1567" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1567" s="24"/>
     </row>
-    <row r="1568" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1568" s="24"/>
+    <row r="1610" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1610" s="24"/>
     </row>
     <row r="1611" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1611" s="24"/>
     </row>
-    <row r="1612" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1612" s="24"/>
-    </row>
-    <row r="1614" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1614" s="24"/>
-    </row>
-    <row r="1620" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D1620" s="24"/>
-    </row>
-    <row r="1622" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D1622" s="24"/>
+    <row r="1613" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1613" s="24"/>
+    </row>
+    <row r="1619" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D1619" s="24"/>
+    </row>
+    <row r="1621" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D1621" s="24"/>
+    </row>
+    <row r="1623" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C1623" s="24"/>
     </row>
     <row r="1624" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C1624" s="24"/>
+      <c r="D1624" s="24"/>
     </row>
     <row r="1625" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D1625" s="24"/>
@@ -80531,25 +80486,22 @@
     <row r="1627" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D1627" s="24"/>
     </row>
-    <row r="1628" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D1628" s="24"/>
+    <row r="1632" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C1632" s="24"/>
     </row>
     <row r="1633" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C1633" s="24"/>
+      <c r="D1633" s="24"/>
     </row>
     <row r="1634" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C1634" s="24"/>
       <c r="D1634" s="24"/>
     </row>
-    <row r="1635" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D1635" s="24"/>
-    </row>
-    <row r="1641" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D1641" s="24"/>
+    <row r="1640" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D1640" s="24"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q1549">
-    <sortCondition ref="A2:A1549"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q1548">
+    <sortCondition ref="A2:A1548"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/uom/DiggsUomDictionary.xlsx
+++ b/uom/DiggsUomDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/uom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE80D2-180C-F24F-9318-9F682F59B287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837FB2E-BBE3-4744-BD01-387591B3DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20641" uniqueCount="4489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20625" uniqueCount="4488">
   <si>
     <t>Dictionary Version</t>
   </si>
@@ -13867,9 +13867,6 @@
   </si>
   <si>
     <t>Diggs addition. Used in pressure filtration coefficient calculations. Used in pressure filtration tests.</t>
-  </si>
-  <si>
-    <t>Member Units</t>
   </si>
   <si>
     <t>1/rtS,1/rtMin,1/rtH</t>
@@ -14598,7 +14595,7 @@
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -16418,11 +16415,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18595,7 +18592,7 @@
         <v>4148</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
@@ -18721,7 +18718,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>4469</v>
@@ -18731,10 +18728,10 @@
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -19137,60 +19134,6 @@
       <c r="K183" s="25"/>
       <c r="L183" s="25"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="9" t="s">
-        <v>4484</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
-        <v>4143</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>4144</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>4470</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>4148</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>4485</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
-        <v>4486</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>4469</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>4471</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>4488</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>4487</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L183">
     <sortCondition ref="A2:A183"/>
@@ -19203,8 +19146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S1637"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1324" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1519" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1360" sqref="D1360:D1362"/>
     </sheetView>
   </sheetViews>

--- a/uom/DiggsUomDictionary.xlsx
+++ b/uom/DiggsUomDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/uom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837FB2E-BBE3-4744-BD01-387591B3DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC7020-26D9-F244-90B7-C330F184AFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20625" uniqueCount="4488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20765" uniqueCount="4487">
   <si>
     <t>Dictionary Version</t>
   </si>
@@ -13801,9 +13801,6 @@
   </si>
   <si>
     <t>Diggs addition. Mass per unit volume in US customary units.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A/m2 </t>
   </si>
   <si>
     <t>0.001 psi/ft,0.01 psi/ft,GPa/cm,MPa/m,N/m3,Pa/m,atm/ft,atm/hm,atm/m,bar/km,bar/m,kPa/hm,kPa/m,lbf/ft3,lbf/gal[US],psi/ft,psi/m,kN/m3,klbf/ft3</t>
@@ -16035,10 +16032,10 @@
         <v>4144</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -16127,16 +16124,16 @@
     </row>
     <row r="109" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B109" s="56" t="s">
         <v>4468</v>
       </c>
-      <c r="B109" s="56" t="s">
-        <v>4469</v>
-      </c>
       <c r="C109" s="56" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -16417,9 +16414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17174,7 +17171,7 @@
         <v>82</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>4462</v>
+        <v>83</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>4205</v>
@@ -17455,7 +17452,7 @@
         <v>360</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -18364,7 +18361,7 @@
         <v>4091</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -18378,7 +18375,7 @@
         <v>542</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -18585,14 +18582,14 @@
         <v>4144</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="25" t="s">
         <v>4148</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
@@ -18718,20 +18715,20 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -18945,6 +18942,9 @@
       </c>
       <c r="B171" s="9" t="s">
         <v>433</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>4300</v>
@@ -19146,9 +19146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S1637"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1360" sqref="D1360:D1362"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1517" sqref="M1517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19387,7 +19387,7 @@
         <v>582</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>18</v>
@@ -20959,7 +20959,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>4387</v>
@@ -20985,8 +20985,8 @@
       <c r="I44" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J44" s="38">
-        <v>0</v>
+      <c r="J44" s="38" t="s">
+        <v>448</v>
       </c>
       <c r="K44" s="46">
         <v>4.4482216152604996</v>
@@ -20994,8 +20994,8 @@
       <c r="L44" s="38">
         <v>0.92903040000000003</v>
       </c>
-      <c r="M44" s="38">
-        <v>0</v>
+      <c r="M44" s="38" t="s">
+        <v>448</v>
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="38" t="s">
@@ -21074,8 +21074,8 @@
       <c r="J46" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="K46" s="42" t="s">
-        <v>2513</v>
+      <c r="K46" s="42">
+        <v>4.4482216152604996</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>3236</v>
@@ -22337,7 +22337,7 @@
         <v>582</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -22688,7 +22688,7 @@
         <v>582</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -22752,7 +22752,7 @@
         <v>582</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -22980,7 +22980,7 @@
         <v>582</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -23003,7 +23003,7 @@
         <v>582</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -23026,7 +23026,7 @@
         <v>582</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -23254,7 +23254,7 @@
         <v>582</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -23318,7 +23318,7 @@
         <v>582</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -23405,7 +23405,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="57" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="B107" s="57" t="s">
         <v>4147</v>
@@ -23423,7 +23423,7 @@
         <v>590</v>
       </c>
       <c r="G107" s="57" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="H107" s="57" t="s">
         <v>615</v>
@@ -23431,8 +23431,8 @@
       <c r="I107" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="J107" s="57">
-        <v>0</v>
+      <c r="J107" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K107" s="58">
         <v>1</v>
@@ -23440,17 +23440,17 @@
       <c r="L107" s="57">
         <v>60</v>
       </c>
-      <c r="M107" s="57">
-        <v>0</v>
+      <c r="M107" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N107" s="57"/>
       <c r="O107" s="57" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="57" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="B108" s="57" t="s">
         <v>4146</v>
@@ -23468,7 +23468,7 @@
         <v>590</v>
       </c>
       <c r="G108" s="57" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="H108" s="57" t="s">
         <v>615</v>
@@ -23476,8 +23476,8 @@
       <c r="I108" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="J108" s="57">
-        <v>0</v>
+      <c r="J108" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K108" s="58">
         <v>1</v>
@@ -23485,17 +23485,17 @@
       <c r="L108" s="57">
         <v>7.7459666924148296</v>
       </c>
-      <c r="M108" s="57">
-        <v>0</v>
+      <c r="M108" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N108" s="57"/>
       <c r="O108" s="57" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="57" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B109" s="57" t="s">
         <v>4145</v>
@@ -23521,7 +23521,7 @@
       <c r="M109" s="57"/>
       <c r="N109" s="57"/>
       <c r="O109" s="58" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -23544,7 +23544,7 @@
         <v>582</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
@@ -23569,7 +23569,7 @@
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
       <c r="I111" s="24" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="J111" s="24"/>
       <c r="K111" s="45"/>
@@ -23723,7 +23723,7 @@
         <v>582</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -26086,7 +26086,7 @@
         <v>582</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O173" s="14" t="s">
         <v>1217</v>
@@ -26200,7 +26200,7 @@
         <v>582</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
@@ -26472,7 +26472,7 @@
         <v>582</v>
       </c>
       <c r="I183" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
@@ -26495,7 +26495,7 @@
         <v>582</v>
       </c>
       <c r="I184" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
@@ -27257,7 +27257,7 @@
         <v>582</v>
       </c>
       <c r="I202" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O202" s="14" t="s">
         <v>3939</v>
@@ -27283,7 +27283,7 @@
         <v>582</v>
       </c>
       <c r="I203" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
@@ -27347,7 +27347,7 @@
         <v>582</v>
       </c>
       <c r="I205" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
@@ -27370,7 +27370,7 @@
         <v>582</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O206" s="14" t="s">
         <v>3965</v>
@@ -28646,7 +28646,7 @@
         <v>582</v>
       </c>
       <c r="I237" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N237" s="14" t="s">
         <v>39</v>
@@ -28675,7 +28675,7 @@
         <v>582</v>
       </c>
       <c r="I238" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N238" s="14" t="s">
         <v>18</v>
@@ -28704,7 +28704,7 @@
         <v>582</v>
       </c>
       <c r="I239" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N239" s="14" t="s">
         <v>39</v>
@@ -28733,7 +28733,7 @@
         <v>582</v>
       </c>
       <c r="I240" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N240" s="14" t="s">
         <v>39</v>
@@ -28762,7 +28762,7 @@
         <v>582</v>
       </c>
       <c r="I241" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N241" s="14" t="s">
         <v>36</v>
@@ -30033,7 +30033,7 @@
         <v>582</v>
       </c>
       <c r="I272" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N272" s="14" t="s">
         <v>114</v>
@@ -30062,7 +30062,7 @@
         <v>582</v>
       </c>
       <c r="I273" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
@@ -30208,7 +30208,7 @@
         <v>582</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
@@ -30231,7 +30231,7 @@
         <v>582</v>
       </c>
       <c r="I278" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
@@ -30254,7 +30254,7 @@
         <v>582</v>
       </c>
       <c r="I279" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
@@ -31314,7 +31314,7 @@
         <v>582</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O305" s="14" t="s">
         <v>1385</v>
@@ -31340,7 +31340,7 @@
         <v>582</v>
       </c>
       <c r="I306" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
@@ -34537,7 +34537,7 @@
         <v>582</v>
       </c>
       <c r="I381" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O381" s="14" t="s">
         <v>3941</v>
@@ -36110,7 +36110,7 @@
         <v>582</v>
       </c>
       <c r="I419" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O419" s="14" t="s">
         <v>1162</v>
@@ -36177,7 +36177,7 @@
         <v>582</v>
       </c>
       <c r="I421" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
@@ -36241,7 +36241,7 @@
         <v>582</v>
       </c>
       <c r="I423" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
@@ -36264,7 +36264,7 @@
         <v>582</v>
       </c>
       <c r="I424" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.2">
@@ -36287,7 +36287,7 @@
         <v>582</v>
       </c>
       <c r="I425" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
@@ -36310,7 +36310,7 @@
         <v>582</v>
       </c>
       <c r="I426" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
@@ -39191,7 +39191,7 @@
         <v>582</v>
       </c>
       <c r="I496" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O496" s="14" t="s">
         <v>600</v>
@@ -39343,7 +39343,7 @@
         <v>582</v>
       </c>
       <c r="I500" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N500" s="14" t="s">
         <v>1304</v>
@@ -39372,7 +39372,7 @@
         <v>582</v>
       </c>
       <c r="I501" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
@@ -42069,8 +42069,8 @@
       <c r="I565" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J565" s="18">
-        <v>0</v>
+      <c r="J565" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K565" s="48">
         <v>9.2903040000000006E-2</v>
@@ -42078,8 +42078,8 @@
       <c r="L565" s="18">
         <v>60</v>
       </c>
-      <c r="M565" s="18">
-        <v>0</v>
+      <c r="M565" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N565" s="18"/>
       <c r="O565" s="18" t="s">
@@ -43060,8 +43060,8 @@
       <c r="I589" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="J589" s="40">
-        <v>0</v>
+      <c r="J589" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K589" s="49">
         <v>2988.98</v>
@@ -43069,8 +43069,8 @@
       <c r="L589" s="40">
         <v>1</v>
       </c>
-      <c r="M589" s="40">
-        <v>0</v>
+      <c r="M589" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N589" s="40"/>
       <c r="O589" s="40" t="s">
@@ -43105,8 +43105,8 @@
       <c r="I590" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="J590" s="40">
-        <v>0</v>
+      <c r="J590" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K590" s="49">
         <v>2986.116</v>
@@ -43114,8 +43114,8 @@
       <c r="L590" s="40">
         <v>1</v>
       </c>
-      <c r="M590" s="40">
-        <v>0</v>
+      <c r="M590" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N590" s="40"/>
       <c r="O590" s="40" t="s">
@@ -45476,8 +45476,8 @@
       <c r="I647" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="J647" s="24">
-        <v>0</v>
+      <c r="J647" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K647" s="45">
         <v>0.01</v>
@@ -45485,8 +45485,8 @@
       <c r="L647" s="24">
         <v>1</v>
       </c>
-      <c r="M647" s="24">
-        <v>0</v>
+      <c r="M647" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N647" s="24"/>
       <c r="O647" s="24" t="s">
@@ -45513,7 +45513,7 @@
         <v>582</v>
       </c>
       <c r="I648" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O648" s="14" t="s">
         <v>3943</v>
@@ -46514,8 +46514,8 @@
       <c r="I672" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J672" s="38">
-        <v>0</v>
+      <c r="J672" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K672" s="46">
         <v>1000000000</v>
@@ -46523,8 +46523,8 @@
       <c r="L672" s="38">
         <v>1</v>
       </c>
-      <c r="M672" s="38">
-        <v>0</v>
+      <c r="M672" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N672" s="38"/>
       <c r="O672" s="38" t="s">
@@ -47005,7 +47005,7 @@
         <v>582</v>
       </c>
       <c r="I684" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N684" s="14" t="s">
         <v>192</v>
@@ -47034,7 +47034,7 @@
         <v>582</v>
       </c>
       <c r="I685" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N685" s="14" t="s">
         <v>2128</v>
@@ -47192,7 +47192,7 @@
         <v>582</v>
       </c>
       <c r="I689" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.2">
@@ -47393,8 +47393,8 @@
       <c r="I694" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J694" s="38">
-        <v>0</v>
+      <c r="J694" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K694" s="46">
         <v>10000000</v>
@@ -47402,8 +47402,8 @@
       <c r="L694" s="38">
         <v>1</v>
       </c>
-      <c r="M694" s="38">
-        <v>0</v>
+      <c r="M694" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N694" s="38"/>
       <c r="O694" s="38" t="s">
@@ -48104,7 +48104,7 @@
         <v>582</v>
       </c>
       <c r="I711" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N711" s="14" t="s">
         <v>39</v>
@@ -48481,8 +48481,8 @@
       <c r="I720" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J720" s="18">
-        <v>0</v>
+      <c r="J720" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K720" s="48">
         <v>6.4515999999999998E-4</v>
@@ -48490,8 +48490,8 @@
       <c r="L720" s="18">
         <v>31557600</v>
       </c>
-      <c r="M720" s="18">
-        <v>0</v>
+      <c r="M720" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N720" s="18"/>
       <c r="O720" s="18" t="s">
@@ -48526,8 +48526,8 @@
       <c r="I721" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J721" s="18">
-        <v>0</v>
+      <c r="J721" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K721" s="48">
         <v>6.4515999999999998E-4</v>
@@ -48535,8 +48535,8 @@
       <c r="L721" s="18">
         <v>86400</v>
       </c>
-      <c r="M721" s="18">
-        <v>0</v>
+      <c r="M721" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N721" s="18"/>
       <c r="O721" s="18" t="s">
@@ -48612,8 +48612,8 @@
       <c r="I723" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J723" s="18">
-        <v>0</v>
+      <c r="J723" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K723" s="48">
         <v>6.4515999999999998E-4</v>
@@ -48621,8 +48621,8 @@
       <c r="L723" s="18">
         <v>3600</v>
       </c>
-      <c r="M723" s="18">
-        <v>0</v>
+      <c r="M723" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N723" s="18"/>
       <c r="O723" s="18" t="s">
@@ -48698,8 +48698,8 @@
       <c r="I725" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J725" s="18">
-        <v>0</v>
+      <c r="J725" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K725" s="48">
         <v>6.4515999999999998E-4</v>
@@ -48707,8 +48707,8 @@
       <c r="L725" s="18">
         <v>60</v>
       </c>
-      <c r="M725" s="18">
-        <v>0</v>
+      <c r="M725" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N725" s="18"/>
       <c r="O725" s="18" t="s">
@@ -48951,8 +48951,8 @@
       <c r="I731" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J731" s="38">
-        <v>0</v>
+      <c r="J731" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K731" s="46">
         <v>249.08199999999999</v>
@@ -48960,8 +48960,8 @@
       <c r="L731" s="38">
         <v>1</v>
       </c>
-      <c r="M731" s="38">
-        <v>0</v>
+      <c r="M731" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N731" s="38"/>
       <c r="O731" s="38" t="s">
@@ -48996,8 +48996,8 @@
       <c r="I732" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="J732" s="40">
-        <v>0</v>
+      <c r="J732" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K732" s="49">
         <v>249.08890830780001</v>
@@ -49005,8 +49005,8 @@
       <c r="L732" s="40">
         <v>1</v>
       </c>
-      <c r="M732" s="40">
-        <v>0</v>
+      <c r="M732" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N732" s="40"/>
       <c r="O732" s="40" t="s">
@@ -49085,8 +49085,8 @@
       <c r="I734" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J734" s="38">
-        <v>0</v>
+      <c r="J734" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K734" s="46">
         <v>248.84299999999999</v>
@@ -49094,8 +49094,8 @@
       <c r="L734" s="38">
         <v>1</v>
       </c>
-      <c r="M734" s="38">
-        <v>0</v>
+      <c r="M734" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N734" s="38"/>
       <c r="O734" s="38" t="s">
@@ -49174,8 +49174,8 @@
       <c r="I736" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J736" s="38">
-        <v>0</v>
+      <c r="J736" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K736" s="46">
         <v>3386.3890000000001</v>
@@ -49183,8 +49183,8 @@
       <c r="L736" s="38">
         <v>1</v>
       </c>
-      <c r="M736" s="38">
-        <v>0</v>
+      <c r="M736" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N736" s="38"/>
       <c r="O736" s="38" t="s">
@@ -49263,8 +49263,8 @@
       <c r="I738" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J738" s="38">
-        <v>0</v>
+      <c r="J738" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K738" s="46">
         <v>3376.85</v>
@@ -49272,8 +49272,8 @@
       <c r="L738" s="38">
         <v>1</v>
       </c>
-      <c r="M738" s="38">
-        <v>0</v>
+      <c r="M738" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N738" s="38"/>
       <c r="O738" s="38" t="s">
@@ -49300,7 +49300,7 @@
         <v>582</v>
       </c>
       <c r="I739" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N739" s="14" t="s">
         <v>519</v>
@@ -49329,7 +49329,7 @@
         <v>582</v>
       </c>
       <c r="I740" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N740" s="14" t="s">
         <v>301</v>
@@ -49355,7 +49355,7 @@
         <v>582</v>
       </c>
       <c r="I741" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N741" s="14" t="s">
         <v>324</v>
@@ -49422,7 +49422,7 @@
         <v>582</v>
       </c>
       <c r="I743" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="744" spans="1:15" x14ac:dyDescent="0.2">
@@ -49445,7 +49445,7 @@
         <v>582</v>
       </c>
       <c r="I744" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.2">
@@ -49550,7 +49550,7 @@
         <v>582</v>
       </c>
       <c r="I747" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.2">
@@ -49655,7 +49655,7 @@
         <v>582</v>
       </c>
       <c r="I750" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="751" spans="1:15" x14ac:dyDescent="0.2">
@@ -49686,8 +49686,8 @@
       <c r="I751" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J751" s="32">
-        <v>0</v>
+      <c r="J751" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K751" s="50">
         <v>1</v>
@@ -49695,8 +49695,8 @@
       <c r="L751" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M751" s="32">
-        <v>0</v>
+      <c r="M751" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N751" s="32"/>
       <c r="O751" s="32" t="s">
@@ -49723,7 +49723,7 @@
         <v>582</v>
       </c>
       <c r="I752" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N752" s="14" t="s">
         <v>324</v>
@@ -49749,7 +49749,7 @@
         <v>582</v>
       </c>
       <c r="I753" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N753" s="14" t="s">
         <v>400</v>
@@ -49775,7 +49775,7 @@
         <v>582</v>
       </c>
       <c r="I754" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="755" spans="1:15" x14ac:dyDescent="0.2">
@@ -49798,7 +49798,7 @@
         <v>582</v>
       </c>
       <c r="I755" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="756" spans="1:15" x14ac:dyDescent="0.2">
@@ -49821,7 +49821,7 @@
         <v>582</v>
       </c>
       <c r="I756" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N756" s="14" t="s">
         <v>242</v>
@@ -49847,7 +49847,7 @@
         <v>582</v>
       </c>
       <c r="I757" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O757" s="14" t="s">
         <v>1407</v>
@@ -50458,8 +50458,8 @@
       <c r="I772" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J772" s="32">
-        <v>0</v>
+      <c r="J772" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K772" s="50">
         <v>4184</v>
@@ -50467,8 +50467,8 @@
       <c r="L772" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M772" s="32">
-        <v>0</v>
+      <c r="M772" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N772" s="32"/>
       <c r="O772" s="32" t="s">
@@ -50703,7 +50703,7 @@
         <v>582</v>
       </c>
       <c r="I778" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O778" s="14" t="s">
         <v>3099</v>
@@ -50729,7 +50729,7 @@
         <v>582</v>
       </c>
       <c r="I779" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="780" spans="1:15" x14ac:dyDescent="0.2">
@@ -50793,7 +50793,7 @@
         <v>582</v>
       </c>
       <c r="I781" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.2">
@@ -50816,7 +50816,7 @@
         <v>582</v>
       </c>
       <c r="I782" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.2">
@@ -50880,7 +50880,7 @@
         <v>582</v>
       </c>
       <c r="I784" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N784" s="14" t="s">
         <v>378</v>
@@ -50906,7 +50906,7 @@
         <v>582</v>
       </c>
       <c r="I785" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.2">
@@ -51093,7 +51093,7 @@
         <v>582</v>
       </c>
       <c r="I790" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.2">
@@ -51116,7 +51116,7 @@
         <v>582</v>
       </c>
       <c r="I791" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N791" s="14" t="s">
         <v>18</v>
@@ -51183,7 +51183,7 @@
         <v>582</v>
       </c>
       <c r="I793" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.2">
@@ -51206,7 +51206,7 @@
         <v>582</v>
       </c>
       <c r="I794" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.2">
@@ -51229,7 +51229,7 @@
         <v>582</v>
       </c>
       <c r="I795" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.2">
@@ -51252,7 +51252,7 @@
         <v>582</v>
       </c>
       <c r="I796" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.2">
@@ -51357,7 +51357,7 @@
         <v>582</v>
       </c>
       <c r="I799" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.2">
@@ -51380,7 +51380,7 @@
         <v>582</v>
       </c>
       <c r="I800" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.2">
@@ -51780,8 +51780,8 @@
       <c r="I810" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J810" s="38">
-        <v>0</v>
+      <c r="J810" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K810" s="46">
         <v>9.8066499999999994</v>
@@ -51789,8 +51789,8 @@
       <c r="L810" s="38">
         <v>1E-4</v>
       </c>
-      <c r="M810" s="38">
-        <v>0</v>
+      <c r="M810" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N810" s="38"/>
       <c r="O810" s="38" t="s">
@@ -51825,8 +51825,8 @@
       <c r="I811" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J811" s="38">
-        <v>0</v>
+      <c r="J811" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K811" s="46">
         <v>9.8066499999999994</v>
@@ -51834,8 +51834,8 @@
       <c r="L811" s="38">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M811" s="38">
-        <v>0</v>
+      <c r="M811" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N811" s="38"/>
       <c r="O811" s="38" t="s">
@@ -52570,8 +52570,8 @@
       <c r="I829" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J829" s="32">
-        <v>0</v>
+      <c r="J829" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K829" s="50">
         <v>1000</v>
@@ -52579,8 +52579,8 @@
       <c r="L829" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M829" s="32">
-        <v>0</v>
+      <c r="M829" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N829" s="32"/>
       <c r="O829" s="32" t="s">
@@ -52700,8 +52700,8 @@
       <c r="I832" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="J832" s="40">
-        <v>0</v>
+      <c r="J832" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K832" s="49">
         <v>4448.2216152604997</v>
@@ -52709,8 +52709,8 @@
       <c r="L832" s="40">
         <v>9.2903040000000006E-2</v>
       </c>
-      <c r="M832" s="40">
-        <v>0</v>
+      <c r="M832" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N832" s="40"/>
       <c r="O832" s="40" t="s">
@@ -52745,8 +52745,8 @@
       <c r="I833" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="J833" s="29">
-        <v>0</v>
+      <c r="J833" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K833" s="51">
         <v>4448221.6152605005</v>
@@ -52754,8 +52754,8 @@
       <c r="L833" s="29">
         <v>2.8316846592000001E-2</v>
       </c>
-      <c r="M833" s="29">
-        <v>0</v>
+      <c r="M833" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N833" s="29"/>
       <c r="O833" s="29" t="s">
@@ -52790,8 +52790,8 @@
       <c r="I834" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="J834" s="40">
-        <v>0</v>
+      <c r="J834" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K834" s="49">
         <v>4448.2216152604997</v>
@@ -52799,8 +52799,8 @@
       <c r="L834" s="40">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M834" s="40">
-        <v>0</v>
+      <c r="M834" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N834" s="40"/>
       <c r="O834" s="40" t="s">
@@ -53658,8 +53658,8 @@
       <c r="I855" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="J855" s="29">
-        <v>0</v>
+      <c r="J855" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K855" s="51">
         <v>1000</v>
@@ -53667,8 +53667,8 @@
       <c r="L855" s="29">
         <v>1</v>
       </c>
-      <c r="M855" s="29">
-        <v>0</v>
+      <c r="M855" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N855" s="29"/>
       <c r="O855" s="29" t="s">
@@ -54037,7 +54037,7 @@
       <c r="I864" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="J864" s="16" t="s">
+      <c r="J864" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K864" s="43" t="s">
@@ -54046,7 +54046,7 @@
       <c r="L864" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M864" s="16" t="s">
+      <c r="M864" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N864" s="16"/>
@@ -54164,8 +54164,8 @@
       <c r="I867" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J867" s="38">
-        <v>0</v>
+      <c r="J867" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K867" s="46">
         <v>1000</v>
@@ -54173,8 +54173,8 @@
       <c r="L867" s="38">
         <v>1</v>
       </c>
-      <c r="M867" s="38">
-        <v>0</v>
+      <c r="M867" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N867" s="38"/>
       <c r="O867" s="38" t="s">
@@ -54332,8 +54332,8 @@
       <c r="I871" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J871" s="38">
-        <v>0</v>
+      <c r="J871" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K871" s="46">
         <v>4448.2216152604997</v>
@@ -54341,8 +54341,8 @@
       <c r="L871" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M871" s="38">
-        <v>0</v>
+      <c r="M871" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N871" s="38"/>
       <c r="O871" s="38" t="s">
@@ -54869,8 +54869,8 @@
       <c r="I884" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J884" s="32">
-        <v>0</v>
+      <c r="J884" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K884" s="50">
         <v>3600000</v>
@@ -54878,8 +54878,8 @@
       <c r="L884" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M884" s="32">
-        <v>0</v>
+      <c r="M884" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N884" s="32"/>
       <c r="O884" s="32" t="s">
@@ -56531,8 +56531,8 @@
       <c r="I924" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="J924" s="40">
-        <v>0</v>
+      <c r="J924" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K924" s="49">
         <v>4.4482216152604996</v>
@@ -56540,8 +56540,8 @@
       <c r="L924" s="40">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M924" s="40">
-        <v>0</v>
+      <c r="M924" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N924" s="40"/>
       <c r="O924" s="40" t="s">
@@ -58297,7 +58297,7 @@
         <v>582</v>
       </c>
       <c r="I966" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N966" s="14" t="s">
         <v>140</v>
@@ -58326,7 +58326,7 @@
         <v>582</v>
       </c>
       <c r="I967" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O967" s="14" t="s">
         <v>1401</v>
@@ -58393,7 +58393,7 @@
         <v>582</v>
       </c>
       <c r="I969" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="970" spans="1:15" x14ac:dyDescent="0.2">
@@ -58424,8 +58424,8 @@
       <c r="I970" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="J970" s="35">
-        <v>0</v>
+      <c r="J970" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K970" s="52">
         <v>1E-3</v>
@@ -58433,8 +58433,8 @@
       <c r="L970" s="35">
         <v>60000000</v>
       </c>
-      <c r="M970" s="35">
-        <v>0</v>
+      <c r="M970" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N970" s="35" t="s">
         <v>4352</v>
@@ -58463,7 +58463,7 @@
         <v>582</v>
       </c>
       <c r="I971" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N971" s="14" t="s">
         <v>1392</v>
@@ -58492,7 +58492,7 @@
         <v>582</v>
       </c>
       <c r="I972" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="973" spans="1:15" x14ac:dyDescent="0.2">
@@ -58515,7 +58515,7 @@
         <v>582</v>
       </c>
       <c r="I973" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O973" s="14" t="s">
         <v>1420</v>
@@ -58585,7 +58585,7 @@
         <v>582</v>
       </c>
       <c r="I975" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N975" s="14" t="s">
         <v>21</v>
@@ -58693,7 +58693,7 @@
         <v>582</v>
       </c>
       <c r="I978" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="979" spans="1:15" x14ac:dyDescent="0.2">
@@ -58757,7 +58757,7 @@
         <v>582</v>
       </c>
       <c r="I980" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="981" spans="1:15" x14ac:dyDescent="0.2">
@@ -58865,7 +58865,7 @@
         <v>582</v>
       </c>
       <c r="I983" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N983" s="14" t="s">
         <v>18</v>
@@ -58891,7 +58891,7 @@
         <v>582</v>
       </c>
       <c r="I984" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N984" s="14" t="s">
         <v>27</v>
@@ -58999,7 +58999,7 @@
         <v>582</v>
       </c>
       <c r="I987" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="988" spans="1:15" x14ac:dyDescent="0.2">
@@ -59022,7 +59022,7 @@
         <v>582</v>
       </c>
       <c r="I988" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="989" spans="1:15" x14ac:dyDescent="0.2">
@@ -59045,7 +59045,7 @@
         <v>582</v>
       </c>
       <c r="I989" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="990" spans="1:15" x14ac:dyDescent="0.2">
@@ -59068,7 +59068,7 @@
         <v>582</v>
       </c>
       <c r="I990" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="991" spans="1:15" x14ac:dyDescent="0.2">
@@ -59132,7 +59132,7 @@
         <v>582</v>
       </c>
       <c r="I992" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="993" spans="1:15" x14ac:dyDescent="0.2">
@@ -59163,8 +59163,8 @@
       <c r="I993" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J993" s="18">
-        <v>0</v>
+      <c r="J993" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K993" s="48">
         <v>1</v>
@@ -59172,8 +59172,8 @@
       <c r="L993" s="18">
         <v>31557600</v>
       </c>
-      <c r="M993" s="18">
-        <v>0</v>
+      <c r="M993" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N993" s="18"/>
       <c r="O993" s="18" t="s">
@@ -59364,7 +59364,7 @@
         <v>582</v>
       </c>
       <c r="I998" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="999" spans="1:15" x14ac:dyDescent="0.2">
@@ -59387,7 +59387,7 @@
         <v>582</v>
       </c>
       <c r="I999" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N999" s="14" t="s">
         <v>18</v>
@@ -59413,7 +59413,7 @@
         <v>582</v>
       </c>
       <c r="I1000" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1000" s="14" t="s">
         <v>24</v>
@@ -59447,8 +59447,8 @@
       <c r="I1001" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J1001" s="18">
-        <v>0</v>
+      <c r="J1001" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1001" s="48">
         <v>1</v>
@@ -59456,8 +59456,8 @@
       <c r="L1001" s="18">
         <v>60</v>
       </c>
-      <c r="M1001" s="18">
-        <v>0</v>
+      <c r="M1001" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1001" s="18"/>
       <c r="O1001" s="18" t="s">
@@ -59484,7 +59484,7 @@
         <v>582</v>
       </c>
       <c r="I1002" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1003" spans="1:15" x14ac:dyDescent="0.2">
@@ -59507,7 +59507,7 @@
         <v>582</v>
       </c>
       <c r="I1003" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1004" spans="1:15" x14ac:dyDescent="0.2">
@@ -59530,7 +59530,7 @@
         <v>582</v>
       </c>
       <c r="I1004" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1005" spans="1:15" x14ac:dyDescent="0.2">
@@ -59922,7 +59922,7 @@
         <v>582</v>
       </c>
       <c r="I1014" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1014" s="14" t="s">
         <v>21</v>
@@ -59948,7 +59948,7 @@
         <v>582</v>
       </c>
       <c r="I1015" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1016" spans="1:14" x14ac:dyDescent="0.2">
@@ -60053,7 +60053,7 @@
         <v>582</v>
       </c>
       <c r="I1018" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1018" s="14" t="s">
         <v>189</v>
@@ -60079,7 +60079,7 @@
         <v>582</v>
       </c>
       <c r="I1019" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1019" s="14" t="s">
         <v>170</v>
@@ -60105,7 +60105,7 @@
         <v>582</v>
       </c>
       <c r="I1020" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1020" s="14" t="s">
         <v>39</v>
@@ -60336,7 +60336,7 @@
         <v>582</v>
       </c>
       <c r="I1026" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1026" s="14" t="s">
         <v>328</v>
@@ -60362,7 +60362,7 @@
         <v>582</v>
       </c>
       <c r="I1027" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1028" spans="1:14" x14ac:dyDescent="0.2">
@@ -60508,7 +60508,7 @@
         <v>582</v>
       </c>
       <c r="I1031" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1031" s="14" t="s">
         <v>176</v>
@@ -60534,7 +60534,7 @@
         <v>582</v>
       </c>
       <c r="I1032" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1032" s="14" t="s">
         <v>161</v>
@@ -60560,7 +60560,7 @@
         <v>582</v>
       </c>
       <c r="I1033" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1033" s="14" t="s">
         <v>18</v>
@@ -60627,7 +60627,7 @@
         <v>582</v>
       </c>
       <c r="I1035" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1036" spans="1:14" x14ac:dyDescent="0.2">
@@ -60650,7 +60650,7 @@
         <v>582</v>
       </c>
       <c r="I1036" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1037" spans="1:14" x14ac:dyDescent="0.2">
@@ -60673,7 +60673,7 @@
         <v>582</v>
       </c>
       <c r="I1037" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1038" spans="1:14" x14ac:dyDescent="0.2">
@@ -60737,7 +60737,7 @@
         <v>582</v>
       </c>
       <c r="I1039" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1040" spans="1:14" x14ac:dyDescent="0.2">
@@ -60760,7 +60760,7 @@
         <v>582</v>
       </c>
       <c r="I1040" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1041" spans="1:15" x14ac:dyDescent="0.2">
@@ -60906,7 +60906,7 @@
         <v>582</v>
       </c>
       <c r="I1044" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1045" spans="1:15" x14ac:dyDescent="0.2">
@@ -60929,7 +60929,7 @@
         <v>582</v>
       </c>
       <c r="I1045" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1046" spans="1:15" x14ac:dyDescent="0.2">
@@ -61206,8 +61206,8 @@
       <c r="I1052" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1052" s="38">
-        <v>0</v>
+      <c r="J1052" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1052" s="46">
         <v>100</v>
@@ -61215,8 +61215,8 @@
       <c r="L1052" s="38">
         <v>1</v>
       </c>
-      <c r="M1052" s="38">
-        <v>0</v>
+      <c r="M1052" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1052" s="38"/>
       <c r="O1052" s="38" t="s">
@@ -62774,8 +62774,8 @@
       <c r="I1090" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="J1090" s="24">
-        <v>0</v>
+      <c r="J1090" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1090" s="45">
         <v>1.0000000000000001E-5</v>
@@ -62783,8 +62783,8 @@
       <c r="L1090" s="24">
         <v>1</v>
       </c>
-      <c r="M1090" s="24">
-        <v>0</v>
+      <c r="M1090" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1090" s="24"/>
       <c r="O1090" s="24" t="s">
@@ -64305,8 +64305,8 @@
       <c r="I1126" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J1126" s="32">
-        <v>0</v>
+      <c r="J1126" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1126" s="50">
         <v>1000000</v>
@@ -64314,8 +64314,8 @@
       <c r="L1126" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M1126" s="32">
-        <v>0</v>
+      <c r="M1126" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1126" s="32"/>
       <c r="O1126" s="32" t="s">
@@ -64350,8 +64350,8 @@
       <c r="I1127" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J1127" s="32">
-        <v>0</v>
+      <c r="J1127" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1127" s="50">
         <v>1E-3</v>
@@ -64359,8 +64359,8 @@
       <c r="L1127" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M1127" s="32">
-        <v>0</v>
+      <c r="M1127" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1127" s="32"/>
       <c r="O1127" s="32" t="s">
@@ -64518,8 +64518,8 @@
       <c r="I1131" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J1131" s="32">
-        <v>0</v>
+      <c r="J1131" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1131" s="50">
         <v>1E-3</v>
@@ -64527,8 +64527,8 @@
       <c r="L1131" s="32">
         <v>1</v>
       </c>
-      <c r="M1131" s="32">
-        <v>0</v>
+      <c r="M1131" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1131" s="32"/>
       <c r="O1131" s="32" t="s">
@@ -64891,8 +64891,8 @@
       <c r="I1140" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="J1140" s="34">
-        <v>0</v>
+      <c r="J1140" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1140" s="47">
         <v>1E-3</v>
@@ -64900,8 +64900,8 @@
       <c r="L1140" s="34">
         <v>86400</v>
       </c>
-      <c r="M1140" s="34">
-        <v>0</v>
+      <c r="M1140" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1140" s="34"/>
       <c r="O1140" s="34" t="s">
@@ -64936,8 +64936,8 @@
       <c r="I1141" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="J1141" s="34">
-        <v>0</v>
+      <c r="J1141" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1141" s="47">
         <v>1E-3</v>
@@ -64945,8 +64945,8 @@
       <c r="L1141" s="34">
         <v>3600</v>
       </c>
-      <c r="M1141" s="34">
-        <v>0</v>
+      <c r="M1141" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1141" s="34"/>
       <c r="O1141" s="34" t="s">
@@ -64981,8 +64981,8 @@
       <c r="I1142" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="J1142" s="34">
-        <v>0</v>
+      <c r="J1142" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1142" s="47">
         <v>1E-3</v>
@@ -64990,8 +64990,8 @@
       <c r="L1142" s="34">
         <v>60</v>
       </c>
-      <c r="M1142" s="34">
-        <v>0</v>
+      <c r="M1142" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1142" s="34"/>
       <c r="O1142" s="34" t="s">
@@ -65108,8 +65108,8 @@
       <c r="I1145" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J1145" s="18">
-        <v>0</v>
+      <c r="J1145" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1145" s="48">
         <v>9.9999999999999995E-7</v>
@@ -65117,8 +65117,8 @@
       <c r="L1145" s="18">
         <v>31557600</v>
       </c>
-      <c r="M1145" s="18">
-        <v>0</v>
+      <c r="M1145" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1145" s="18"/>
       <c r="O1145" s="18" t="s">
@@ -65153,8 +65153,8 @@
       <c r="I1146" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J1146" s="18">
-        <v>0</v>
+      <c r="J1146" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1146" s="48">
         <v>9.9999999999999995E-7</v>
@@ -65162,8 +65162,8 @@
       <c r="L1146" s="18">
         <v>86400</v>
       </c>
-      <c r="M1146" s="18">
-        <v>0</v>
+      <c r="M1146" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1146" s="18"/>
       <c r="O1146" s="18" t="s">
@@ -65198,8 +65198,8 @@
       <c r="I1147" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J1147" s="18">
-        <v>0</v>
+      <c r="J1147" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1147" s="48">
         <v>9.9999999999999995E-7</v>
@@ -65207,8 +65207,8 @@
       <c r="L1147" s="18">
         <v>3600</v>
       </c>
-      <c r="M1147" s="18">
-        <v>0</v>
+      <c r="M1147" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1147" s="18"/>
       <c r="O1147" s="18" t="s">
@@ -65243,8 +65243,8 @@
       <c r="I1148" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J1148" s="18">
-        <v>0</v>
+      <c r="J1148" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1148" s="48">
         <v>9.9999999999999995E-7</v>
@@ -65252,8 +65252,8 @@
       <c r="L1148" s="18">
         <v>60</v>
       </c>
-      <c r="M1148" s="18">
-        <v>0</v>
+      <c r="M1148" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1148" s="18"/>
       <c r="O1148" s="18" t="s">
@@ -65496,8 +65496,8 @@
       <c r="I1154" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1154" s="38">
-        <v>0</v>
+      <c r="J1154" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1154" s="46">
         <v>133.32238741500001</v>
@@ -65505,8 +65505,8 @@
       <c r="L1154" s="38">
         <v>1</v>
       </c>
-      <c r="M1154" s="38">
-        <v>0</v>
+      <c r="M1154" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1154" s="38"/>
       <c r="O1154" s="38" t="s">
@@ -65861,7 +65861,7 @@
         <v>582</v>
       </c>
       <c r="I1163" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1163" s="14" t="s">
         <v>3762</v>
@@ -65887,7 +65887,7 @@
         <v>582</v>
       </c>
       <c r="I1164" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1164" s="14" t="s">
         <v>189</v>
@@ -65913,7 +65913,7 @@
         <v>582</v>
       </c>
       <c r="I1165" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1166" spans="1:15" x14ac:dyDescent="0.2">
@@ -65936,7 +65936,7 @@
         <v>582</v>
       </c>
       <c r="I1166" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1167" spans="1:15" x14ac:dyDescent="0.2">
@@ -65959,7 +65959,7 @@
         <v>582</v>
       </c>
       <c r="I1167" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1168" spans="1:15" x14ac:dyDescent="0.2">
@@ -65982,7 +65982,7 @@
         <v>582</v>
       </c>
       <c r="I1168" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1168" s="14" t="s">
         <v>18</v>
@@ -66008,7 +66008,7 @@
         <v>582</v>
       </c>
       <c r="I1169" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1170" spans="1:15" x14ac:dyDescent="0.2">
@@ -66367,7 +66367,7 @@
       <c r="I1178" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="J1178" s="16" t="s">
+      <c r="J1178" s="14" t="s">
         <v>448</v>
       </c>
       <c r="K1178" s="43" t="s">
@@ -66376,7 +66376,7 @@
       <c r="L1178" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M1178" s="16" t="s">
+      <c r="M1178" s="14" t="s">
         <v>448</v>
       </c>
       <c r="N1178" s="16"/>
@@ -66412,8 +66412,8 @@
       <c r="I1179" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1179" s="38">
-        <v>0</v>
+      <c r="J1179" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1179" s="46">
         <v>1E-3</v>
@@ -66421,8 +66421,8 @@
       <c r="L1179" s="38">
         <v>1</v>
       </c>
-      <c r="M1179" s="38">
-        <v>0</v>
+      <c r="M1179" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1179" s="38"/>
       <c r="O1179" s="38" t="s">
@@ -66457,8 +66457,8 @@
       <c r="I1180" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1180" s="38">
-        <v>0</v>
+      <c r="J1180" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1180" s="46">
         <v>1E-3</v>
@@ -66466,8 +66466,8 @@
       <c r="L1180" s="38">
         <v>1</v>
       </c>
-      <c r="M1180" s="38">
-        <v>0</v>
+      <c r="M1180" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1180" s="38"/>
       <c r="O1180" s="38" t="s">
@@ -66543,8 +66543,8 @@
       <c r="I1182" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1182" s="38">
-        <v>0</v>
+      <c r="J1182" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1182" s="46">
         <v>4448221.6152605005</v>
@@ -66552,8 +66552,8 @@
       <c r="L1182" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M1182" s="38">
-        <v>0</v>
+      <c r="M1182" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1182" s="38"/>
       <c r="O1182" s="38" t="s">
@@ -67892,7 +67892,7 @@
         <v>582</v>
       </c>
       <c r="I1215" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1215" s="14" t="s">
         <v>2933</v>
@@ -67921,7 +67921,7 @@
         <v>582</v>
       </c>
       <c r="I1216" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1216" s="14" t="s">
         <v>132</v>
@@ -67947,7 +67947,7 @@
         <v>582</v>
       </c>
       <c r="I1217" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1217" s="14" t="s">
         <v>324</v>
@@ -67973,7 +67973,7 @@
         <v>582</v>
       </c>
       <c r="I1218" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1219" spans="1:15" x14ac:dyDescent="0.2">
@@ -68045,8 +68045,8 @@
       <c r="I1220" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1220" s="38">
-        <v>0</v>
+      <c r="J1220" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1220" s="46">
         <v>1</v>
@@ -68054,8 +68054,8 @@
       <c r="L1220" s="38">
         <v>1</v>
       </c>
-      <c r="M1220" s="38">
-        <v>0</v>
+      <c r="M1220" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1220" s="38"/>
       <c r="O1220" s="38" t="s">
@@ -68090,8 +68090,8 @@
       <c r="I1221" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1221" s="38">
-        <v>0</v>
+      <c r="J1221" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1221" s="46">
         <v>1</v>
@@ -68099,8 +68099,8 @@
       <c r="L1221" s="38">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="M1221" s="38">
-        <v>0</v>
+      <c r="M1221" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1221" s="38"/>
       <c r="O1221" s="38" t="s">
@@ -68127,7 +68127,7 @@
         <v>582</v>
       </c>
       <c r="I1222" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1223" spans="1:15" x14ac:dyDescent="0.2">
@@ -68191,7 +68191,7 @@
         <v>582</v>
       </c>
       <c r="I1224" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1225" spans="1:15" x14ac:dyDescent="0.2">
@@ -68255,7 +68255,7 @@
         <v>582</v>
       </c>
       <c r="I1226" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1226" s="14" t="s">
         <v>18</v>
@@ -68363,7 +68363,7 @@
         <v>582</v>
       </c>
       <c r="I1229" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1229" s="14" t="s">
         <v>3945</v>
@@ -69663,7 +69663,7 @@
         <v>582</v>
       </c>
       <c r="I1261" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1261" s="14" t="s">
         <v>3947</v>
@@ -69733,7 +69733,7 @@
         <v>582</v>
       </c>
       <c r="I1263" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1263" s="14" t="s">
         <v>2152</v>
@@ -69803,7 +69803,7 @@
         <v>582</v>
       </c>
       <c r="I1265" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1266" spans="1:15" x14ac:dyDescent="0.2">
@@ -69867,7 +69867,7 @@
         <v>582</v>
       </c>
       <c r="I1267" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1268" spans="1:15" x14ac:dyDescent="0.2">
@@ -70119,7 +70119,7 @@
         <v>582</v>
       </c>
       <c r="I1273" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1273" s="14" t="s">
         <v>382</v>
@@ -70148,7 +70148,7 @@
         <v>582</v>
       </c>
       <c r="I1274" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1275" spans="1:15" x14ac:dyDescent="0.2">
@@ -70171,7 +70171,7 @@
         <v>582</v>
       </c>
       <c r="I1275" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1275" s="14" t="s">
         <v>189</v>
@@ -70197,7 +70197,7 @@
         <v>582</v>
       </c>
       <c r="I1276" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1277" spans="1:15" x14ac:dyDescent="0.2">
@@ -70269,8 +70269,8 @@
       <c r="I1278" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1278" s="38">
-        <v>0</v>
+      <c r="J1278" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1278" s="46">
         <v>1</v>
@@ -70278,8 +70278,8 @@
       <c r="L1278" s="38">
         <v>1</v>
       </c>
-      <c r="M1278" s="38">
-        <v>0</v>
+      <c r="M1278" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1278" s="38"/>
       <c r="O1278" s="38" t="s">
@@ -70388,7 +70388,7 @@
         <v>582</v>
       </c>
       <c r="I1281" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1282" spans="1:15" x14ac:dyDescent="0.2">
@@ -70415,7 +70415,7 @@
       </c>
       <c r="H1282" s="16"/>
       <c r="I1282" s="16" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="J1282" s="16"/>
       <c r="K1282" s="43"/>
@@ -70446,7 +70446,7 @@
         <v>582</v>
       </c>
       <c r="I1283" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1283" s="14" t="s">
         <v>386</v>
@@ -70472,7 +70472,7 @@
         <v>582</v>
       </c>
       <c r="I1284" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1285" spans="1:15" x14ac:dyDescent="0.2">
@@ -70495,7 +70495,7 @@
         <v>582</v>
       </c>
       <c r="I1285" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1285" s="14" t="s">
         <v>386</v>
@@ -71106,7 +71106,7 @@
       <c r="G1300" s="21"/>
       <c r="H1300" s="21"/>
       <c r="I1300" s="21" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="J1300" s="21"/>
       <c r="K1300" s="53"/>
@@ -71434,8 +71434,8 @@
       <c r="I1308" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1308" s="38">
-        <v>0</v>
+      <c r="J1308" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1308" s="46">
         <v>9.9999999999999998E-13</v>
@@ -71443,8 +71443,8 @@
       <c r="L1308" s="38">
         <v>1</v>
       </c>
-      <c r="M1308" s="38">
-        <v>0</v>
+      <c r="M1308" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1308" s="38"/>
       <c r="O1308" s="38" t="s">
@@ -72001,8 +72001,8 @@
       <c r="I1321" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1321" s="38">
-        <v>0</v>
+      <c r="J1321" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1321" s="52" t="s">
         <v>2513</v>
@@ -72010,8 +72010,8 @@
       <c r="L1321" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M1321" s="38">
-        <v>0</v>
+      <c r="M1321" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1321" s="38"/>
       <c r="O1321" s="38" t="s">
@@ -72046,8 +72046,8 @@
       <c r="I1322" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1322" s="38">
-        <v>0</v>
+      <c r="J1322" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1322" s="52" t="s">
         <v>2513</v>
@@ -72055,8 +72055,8 @@
       <c r="L1322" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M1322" s="38">
-        <v>0</v>
+      <c r="M1322" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1322" s="38"/>
       <c r="O1322" s="38" t="s">
@@ -72300,8 +72300,8 @@
       <c r="I1328" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1328" s="38">
-        <v>0</v>
+      <c r="J1328" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1328" s="46">
         <v>4.4482216152604996</v>
@@ -72309,8 +72309,8 @@
       <c r="L1328" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M1328" s="38">
-        <v>0</v>
+      <c r="M1328" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1328" s="38"/>
       <c r="O1328" s="38" t="s">
@@ -72941,7 +72941,7 @@
         <v>582</v>
       </c>
       <c r="I1343" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1343" s="14" t="s">
         <v>1058</v>
@@ -73049,7 +73049,7 @@
         <v>582</v>
       </c>
       <c r="I1346" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1347" spans="1:15" x14ac:dyDescent="0.2">
@@ -73072,7 +73072,7 @@
         <v>582</v>
       </c>
       <c r="I1347" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1348" spans="1:15" x14ac:dyDescent="0.2">
@@ -73095,7 +73095,7 @@
         <v>582</v>
       </c>
       <c r="I1348" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1349" spans="1:15" x14ac:dyDescent="0.2">
@@ -73118,7 +73118,7 @@
         <v>582</v>
       </c>
       <c r="I1349" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1350" spans="1:15" x14ac:dyDescent="0.2">
@@ -73560,13 +73560,13 @@
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1360" s="57" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B1360" s="57" t="s">
         <v>4475</v>
       </c>
-      <c r="B1360" s="57" t="s">
-        <v>4476</v>
-      </c>
       <c r="C1360" s="59" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="D1360" s="57" t="s">
         <v>590</v>
@@ -73578,7 +73578,7 @@
         <v>590</v>
       </c>
       <c r="G1360" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H1360" s="57" t="s">
         <v>592</v>
@@ -73586,8 +73586,8 @@
       <c r="I1360" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="J1360" s="57">
-        <v>0</v>
+      <c r="J1360" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1360" s="58">
         <v>60</v>
@@ -73595,23 +73595,23 @@
       <c r="L1360" s="57">
         <v>1</v>
       </c>
-      <c r="M1360" s="57">
-        <v>0</v>
+      <c r="M1360" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1360" s="57"/>
       <c r="O1360" s="57" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1361" s="57" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B1361" s="57" t="s">
         <v>4473</v>
       </c>
-      <c r="B1361" s="57" t="s">
-        <v>4474</v>
-      </c>
       <c r="C1361" s="59" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="D1361" s="57" t="s">
         <v>590</v>
@@ -73623,7 +73623,7 @@
         <v>590</v>
       </c>
       <c r="G1361" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H1361" s="57" t="s">
         <v>592</v>
@@ -73631,8 +73631,8 @@
       <c r="I1361" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="J1361" s="57">
-        <v>0</v>
+      <c r="J1361" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1361" s="58">
         <v>7.7459666924148296</v>
@@ -73640,23 +73640,23 @@
       <c r="L1361" s="57">
         <v>1</v>
       </c>
-      <c r="M1361" s="57">
-        <v>0</v>
+      <c r="M1361" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1361" s="57"/>
       <c r="O1361" s="57" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1362" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B1362" s="57" t="s">
         <v>4471</v>
       </c>
-      <c r="B1362" s="57" t="s">
-        <v>4472</v>
-      </c>
       <c r="C1362" s="59" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="D1362" s="57" t="s">
         <v>590</v>
@@ -73676,7 +73676,7 @@
       <c r="M1362" s="57"/>
       <c r="N1362" s="57"/>
       <c r="O1362" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1363" spans="1:15" x14ac:dyDescent="0.2">
@@ -73699,7 +73699,7 @@
         <v>582</v>
       </c>
       <c r="I1363" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1363" s="14" t="s">
         <v>1270</v>
@@ -73728,7 +73728,7 @@
         <v>582</v>
       </c>
       <c r="I1364" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1364" s="14" t="s">
         <v>3799</v>
@@ -73918,7 +73918,7 @@
         <v>582</v>
       </c>
       <c r="I1369" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1370" spans="1:15" x14ac:dyDescent="0.2">
@@ -73982,7 +73982,7 @@
         <v>582</v>
       </c>
       <c r="I1371" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1372" spans="1:15" x14ac:dyDescent="0.2">
@@ -74005,7 +74005,7 @@
         <v>582</v>
       </c>
       <c r="I1372" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1373" spans="1:15" x14ac:dyDescent="0.2">
@@ -74028,7 +74028,7 @@
         <v>582</v>
       </c>
       <c r="I1373" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1374" spans="1:15" x14ac:dyDescent="0.2">
@@ -74133,7 +74133,7 @@
         <v>582</v>
       </c>
       <c r="I1376" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1376" s="14" t="s">
         <v>18</v>
@@ -74308,8 +74308,8 @@
       <c r="I1380" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="J1380" s="35">
-        <v>0</v>
+      <c r="J1380" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1380" s="52">
         <v>14.593902937199999</v>
@@ -74317,8 +74317,8 @@
       <c r="L1380" s="35">
         <v>1</v>
       </c>
-      <c r="M1380" s="35">
-        <v>0</v>
+      <c r="M1380" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1380" s="35" t="s">
         <v>4356</v>
@@ -74355,8 +74355,8 @@
       <c r="I1381" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="J1381" s="29">
-        <v>0</v>
+      <c r="J1381" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1381" s="51">
         <v>14.593902937199999</v>
@@ -74364,8 +74364,8 @@
       <c r="L1381" s="29">
         <v>2.8316846592000001E-2</v>
       </c>
-      <c r="M1381" s="29">
-        <v>0</v>
+      <c r="M1381" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1381" s="29"/>
       <c r="O1381" s="29" t="s">
@@ -74392,7 +74392,7 @@
         <v>582</v>
       </c>
       <c r="I1382" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1382" s="14" t="s">
         <v>3797</v>
@@ -74465,7 +74465,7 @@
         <v>582</v>
       </c>
       <c r="I1384" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1384" s="14" t="s">
         <v>192</v>
@@ -74535,7 +74535,7 @@
         <v>582</v>
       </c>
       <c r="I1386" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="O1386" s="14" t="s">
         <v>2104</v>
@@ -74608,7 +74608,7 @@
         <v>582</v>
       </c>
       <c r="I1388" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1388" s="14" t="s">
         <v>3168</v>
@@ -74760,7 +74760,7 @@
         <v>582</v>
       </c>
       <c r="I1392" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.2">
@@ -75070,7 +75070,7 @@
         <v>582</v>
       </c>
       <c r="I1400" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1400" s="14" t="s">
         <v>176</v>
@@ -75099,7 +75099,7 @@
         <v>582</v>
       </c>
       <c r="I1401" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1401" s="14" t="s">
         <v>250</v>
@@ -75125,7 +75125,7 @@
         <v>582</v>
       </c>
       <c r="I1402" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1402" s="14" t="s">
         <v>280</v>
@@ -76721,8 +76721,8 @@
       <c r="I1440" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1440" s="38">
-        <v>0</v>
+      <c r="J1440" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1440" s="46">
         <v>8896.4432305209994</v>
@@ -76730,8 +76730,8 @@
       <c r="L1440" s="38">
         <v>9.2903040000000006E-2</v>
       </c>
-      <c r="M1440" s="38">
-        <v>0</v>
+      <c r="M1440" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1440" s="38"/>
       <c r="O1440" s="38" t="s">
@@ -76766,8 +76766,8 @@
       <c r="I1441" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1441" s="38">
-        <v>0</v>
+      <c r="J1441" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1441" s="46">
         <v>8896.4432305209994</v>
@@ -76775,8 +76775,8 @@
       <c r="L1441" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M1441" s="38">
-        <v>0</v>
+      <c r="M1441" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1441" s="38"/>
       <c r="O1441" s="38" t="s">
@@ -77036,8 +77036,8 @@
       <c r="I1447" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1447" s="38">
-        <v>0</v>
+      <c r="J1447" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1447" s="46">
         <v>133.322368421053</v>
@@ -77045,8 +77045,8 @@
       <c r="L1447" s="38">
         <v>1</v>
       </c>
-      <c r="M1447" s="38">
-        <v>0</v>
+      <c r="M1447" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1447" s="38"/>
       <c r="O1447" s="38" t="s">
@@ -77672,8 +77672,8 @@
       <c r="I1461" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1461" s="38">
-        <v>0</v>
+      <c r="J1461" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1461" s="46">
         <v>0.1</v>
@@ -77681,8 +77681,8 @@
       <c r="L1461" s="38">
         <v>1</v>
       </c>
-      <c r="M1461" s="38">
-        <v>0</v>
+      <c r="M1461" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1461" s="38"/>
       <c r="O1461" s="38" t="s">
@@ -78710,8 +78710,8 @@
       <c r="I1486" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1486" s="38">
-        <v>0</v>
+      <c r="J1486" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1486" s="46">
         <v>0.13332238741499999</v>
@@ -78719,8 +78719,8 @@
       <c r="L1486" s="38">
         <v>1</v>
       </c>
-      <c r="M1486" s="38">
-        <v>0</v>
+      <c r="M1486" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1486" s="38"/>
       <c r="O1486" s="38" t="s">
@@ -79042,8 +79042,8 @@
       <c r="I1494" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1494" s="38">
-        <v>0</v>
+      <c r="J1494" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1494" s="46">
         <v>9.9999999999999995E-7</v>
@@ -79051,8 +79051,8 @@
       <c r="L1494" s="38">
         <v>1</v>
       </c>
-      <c r="M1494" s="38">
-        <v>0</v>
+      <c r="M1494" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1494" s="38"/>
       <c r="O1494" s="38" t="s">
@@ -79128,8 +79128,8 @@
       <c r="I1496" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="J1496" s="38">
-        <v>0</v>
+      <c r="J1496" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1496" s="46">
         <v>4.4482216152605001E-6</v>
@@ -79137,8 +79137,8 @@
       <c r="L1496" s="38">
         <v>6.4515999999999998E-4</v>
       </c>
-      <c r="M1496" s="38">
-        <v>0</v>
+      <c r="M1496" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1496" s="38"/>
       <c r="O1496" s="38" t="s">
@@ -79739,7 +79739,7 @@
         <v>582</v>
       </c>
       <c r="I1511" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1511" s="14" t="s">
         <v>2206</v>
@@ -79768,7 +79768,7 @@
         <v>582</v>
       </c>
       <c r="I1512" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.2">
@@ -79832,7 +79832,7 @@
         <v>582</v>
       </c>
       <c r="I1514" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.2">
@@ -79855,7 +79855,7 @@
         <v>582</v>
       </c>
       <c r="I1515" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1515" s="14" t="s">
         <v>521</v>
@@ -79892,8 +79892,8 @@
       <c r="I1516" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J1516" s="32">
-        <v>0</v>
+      <c r="J1516" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1516" s="50">
         <v>3600</v>
@@ -79901,8 +79901,8 @@
       <c r="L1516" s="32">
         <v>1E-3</v>
       </c>
-      <c r="M1516" s="32">
-        <v>0</v>
+      <c r="M1516" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1516" s="32"/>
       <c r="O1516" s="32" t="s">
@@ -79937,8 +79937,8 @@
       <c r="I1517" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="J1517" s="32">
-        <v>0</v>
+      <c r="J1517" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K1517" s="50">
         <v>3600</v>
@@ -79946,8 +79946,8 @@
       <c r="L1517" s="32">
         <v>1</v>
       </c>
-      <c r="M1517" s="32">
-        <v>0</v>
+      <c r="M1517" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="N1517" s="32"/>
       <c r="O1517" s="32" t="s">
@@ -79974,7 +79974,7 @@
         <v>582</v>
       </c>
       <c r="I1518" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1518" s="14" t="s">
         <v>189</v>
@@ -80000,7 +80000,7 @@
         <v>582</v>
       </c>
       <c r="I1519" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.2">
@@ -80023,7 +80023,7 @@
         <v>582</v>
       </c>
       <c r="I1520" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.2">
@@ -80046,7 +80046,7 @@
         <v>582</v>
       </c>
       <c r="I1521" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.2">
@@ -80069,7 +80069,7 @@
         <v>582</v>
       </c>
       <c r="I1522" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.2">
@@ -80133,7 +80133,7 @@
         <v>582</v>
       </c>
       <c r="I1524" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.2">
@@ -80197,7 +80197,7 @@
         <v>582</v>
       </c>
       <c r="I1526" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.2">
@@ -80220,7 +80220,7 @@
         <v>582</v>
       </c>
       <c r="I1527" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.2">
@@ -80284,7 +80284,7 @@
         <v>582</v>
       </c>
       <c r="I1529" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.2">
@@ -80307,7 +80307,7 @@
         <v>582</v>
       </c>
       <c r="I1530" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1530" s="14" t="s">
         <v>18</v>
@@ -80333,7 +80333,7 @@
         <v>582</v>
       </c>
       <c r="I1531" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N1531" s="14" t="s">
         <v>2179</v>
@@ -80362,7 +80362,7 @@
         <v>582</v>
       </c>
       <c r="I1532" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.2">
@@ -80385,7 +80385,7 @@
         <v>582</v>
       </c>
       <c r="I1533" s="14" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.2">

--- a/uom/DiggsUomDictionary.xlsx
+++ b/uom/DiggsUomDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/uom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC7020-26D9-F244-90B7-C330F184AFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15560640-540C-9A4B-AD86-2E7AC450D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20765" uniqueCount="4487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="4487">
   <si>
     <t>Dictionary Version</t>
   </si>
@@ -19147,8 +19147,8 @@
   <dimension ref="A1:S1637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1517" sqref="M1517"/>
+      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23428,8 +23428,8 @@
       <c r="H107" s="57" t="s">
         <v>615</v>
       </c>
-      <c r="I107" s="57" t="b">
-        <v>1</v>
+      <c r="I107" s="57" t="s">
+        <v>582</v>
       </c>
       <c r="J107" s="14" t="s">
         <v>448</v>
@@ -23473,8 +23473,8 @@
       <c r="H108" s="57" t="s">
         <v>615</v>
       </c>
-      <c r="I108" s="57" t="b">
-        <v>1</v>
+      <c r="I108" s="57" t="s">
+        <v>582</v>
       </c>
       <c r="J108" s="14" t="s">
         <v>448</v>

--- a/uom/DiggsUomDictionary.xlsx
+++ b/uom/DiggsUomDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/uom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15560640-540C-9A4B-AD86-2E7AC450D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D84D2-0BE4-DC40-B96D-0BBC4541106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="4487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="4482">
   <si>
     <t>Dictionary Version</t>
   </si>
@@ -12684,15 +12684,9 @@
     <t>kilonewton per square metre per kilonewton per square metre</t>
   </si>
   <si>
-    <t>DIGGS addition</t>
-  </si>
-  <si>
     <t>WITSML 2.0 addition</t>
   </si>
   <si>
-    <t>This quantity class comes from the WITSML 2.0 schema but was not included in the Energistics v 1.0 dictioary</t>
-  </si>
-  <si>
     <t>cm2/a</t>
   </si>
   <si>
@@ -12795,18 +12789,12 @@
     <t>square inch per minute</t>
   </si>
   <si>
-    <t>Diggs addition.</t>
-  </si>
-  <si>
     <t>grain size (phi scale)</t>
   </si>
   <si>
     <t>phi</t>
   </si>
   <si>
-    <t>Diggs addition. Logarithmic scale for expressing grain size in sedimentology. Values are not directly convertible to length units. phi = -log₂(grain diameter in mm).</t>
-  </si>
-  <si>
     <t>gravitational gradient</t>
   </si>
   <si>
@@ -12816,9 +12804,6 @@
     <t>1/s2</t>
   </si>
   <si>
-    <t>Diggs addition. Gravitational gradient representing the spatial rate of change of gravitational acceleration. Used in gravity surveys for geophysical exploration.</t>
-  </si>
-  <si>
     <t>per second squared</t>
   </si>
   <si>
@@ -12837,15 +12822,6 @@
     <t>gal per metre</t>
   </si>
   <si>
-    <t>Diggs addition. SI unit for gravitational gradient.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Gravitational gradient expressed as change in acceleration per unit distance.</t>
-  </si>
-  <si>
-    <t>Diggs addition. The Eötvös unit  named after Hungarian physicist Loránd Eötvös</t>
-  </si>
-  <si>
     <t>reciprocal square root time</t>
   </si>
   <si>
@@ -12861,9 +12837,6 @@
     <t>per square root of hour</t>
   </si>
   <si>
-    <t>Diggs addition. Reciprocal square root of time. Used for pressure filtration coefficients in geotechnical testing where fluid loss is proportional to the square root of elapsed time.</t>
-  </si>
-  <si>
     <t>relative rate</t>
   </si>
   <si>
@@ -12888,9 +12861,6 @@
     <t>%/ky</t>
   </si>
   <si>
-    <t>Diggs addition. Rate of relative change expressed as percentage per unit time. Used for strain rates and other dimensionless rates of change in geotechnical testing.</t>
-  </si>
-  <si>
     <t>percent per second</t>
   </si>
   <si>
@@ -13479,18 +13449,12 @@
     <t>lugeon permeability</t>
   </si>
   <si>
-    <t>Diggs addition. Lugeon unit. Measure of rock permeability defined as 1 liter per minute per meter of borehole at 1 megapascal injection pressure. Used in water pressure testing of rock formations.</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
     <t>1 lbf.s2/ft</t>
   </si>
   <si>
-    <t>Diggs addition. Imperial unit of mass defined as the mass that accelerates at 1 ft/s² when a force of 1 pound-force is applied. Equal to approximately 14.59390 kilograms.</t>
-  </si>
-  <si>
     <t>Eg,Gg,Mg,Tg,ag,cg,ct,cwt[UK],cwt[US],fg,g,grain,hg,kg,klbm,lbm,mg,ng,ozm,ozm[troy],pg,sack[94lbm],t,ton[UK],ton[US],ug,slug</t>
   </si>
   <si>
@@ -13743,66 +13707,9 @@
     <t>0.01 lbf/ft2,EPa,GPa,MPa,Mpsi,N/m2,N/mm2,Pa,TPa,at,atm,bar,cPa,cmH2O[4degC],dPa,dyne/cm2,fPa,hbar,inH2O[39degF],inH2O[60degF],inHg[32degF],inHg[60degF],kN/m2,kPa,kgf/cm2,kgf/m2,kgf/mm2,kpsi,lbf/ft2,mPa,mbar,mmHg[0degC],nPa,pPa,psi,tonf[UK]/ft2,tonf[US]/ft2,tonf[US]/in2,torr,uPa,ubar,umHg[0degC],upsi,klbf/in2,klbf/ft2,ftH2O[39degF],ftH2O[60degF],inH2O[4degC],lbf/in2</t>
   </si>
   <si>
-    <t>Diggs addition.Rate of relative change per day.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of relative change per hour.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of relative change per kiloyear.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Average month = 30.4375 days. Rate of relative change per month.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of relative change per minute.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of relative change per second.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Julian year = 365.25 days. Rate of relative change per year.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of pressure change.</t>
-  </si>
-  <si>
-    <t>Diggs addition. 0Rate of pressure change.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Pressure unit based on height of water column.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Pressure or stress unit.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Force per unit volume in US customary units.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Force per unit volume</t>
-  </si>
-  <si>
-    <t>Diggs addition. Commonly abbreviated as psi.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of pressure change. Equivalent to Pa/s.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of gauge pressure change.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> c</t>
   </si>
   <si>
-    <t>Diggs addition.  Logarithmic grain size scale where phi = -log2(D/1mm). Used in sedimentology for particle size analysis. Grain diameter D in millimeters equals 2^(-phi) mm.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Rate of absolute pressure change.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Mass per unit volume in US customary units.</t>
-  </si>
-  <si>
     <t>0.001 psi/ft,0.01 psi/ft,GPa/cm,MPa/m,N/m3,Pa/m,atm/ft,atm/hm,atm/m,bar/km,bar/m,kPa/hm,kPa/m,lbf/ft3,lbf/gal[US],psi/ft,psi/m,kN/m3,klbf/ft3</t>
   </si>
   <si>
@@ -13845,27 +13752,12 @@
     <t>square root of hour</t>
   </si>
   <si>
-    <t>Diggs addition. Used for reciprocal square root time calculations.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Used for reciprocal square root time calculations. sqrt(60) ≈ 7.746.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Used for reciprocal square root time calculations. sqrt(3600) = 60.</t>
-  </si>
-  <si>
     <t>1/rtMin</t>
   </si>
   <si>
     <t>1/rtH</t>
   </si>
   <si>
-    <t>Diggs addition. SI base unit for reciprocal square root time. Used in pressure filtration tests.</t>
-  </si>
-  <si>
-    <t>Diggs addition. Used in pressure filtration coefficient calculations. Used in pressure filtration tests.</t>
-  </si>
-  <si>
     <t>1/rtS,1/rtMin,1/rtH</t>
   </si>
   <si>
@@ -13875,7 +13767,100 @@
     <t>rtS,rtMin,rtH</t>
   </si>
   <si>
-    <t>Diggs addition. Square root time. Atomic units.</t>
+    <t>This quantity class comes from the WITSML 2.0 schema but was not included in the Energistics v 1.0 dictionary</t>
+  </si>
+  <si>
+    <t>DIGGS extension.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Logarithmic scale for expressing grain size in sedimentology. Values are not directly convertible to length units with standard coefficients. phi = -log₂(grain diameter in mm).</t>
+  </si>
+  <si>
+    <t>DIGGS extension.Rate of relative change per day.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of relative change per hour.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of relative change per kiloyear.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Average month = 30.4375 days. Rate of relative change per month.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of relative change per minute.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of relative change per second.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Julian year = 365.25 days. Rate of relative change per year.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of pressure change.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Used in pressure filtration coefficient calculations. Used in pressure filtration tests.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. SI base unit for reciprocal square root time. Used in pressure filtration tests.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. SI unit for gravitational gradient.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. 0Rate of pressure change.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. The Eötvös unit  named after Hungarian physicist Loránd Eötvös</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Pressure unit based on height of water column.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Gravitational gradient expressed as change in acceleration per unit distance.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Pressure or stress unit.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Force per unit volume in US customary units.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Force per unit volume</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Commonly abbreviated as psi.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Lugeon unit. Measure of rock permeability defined as 1 liter per minute per meter of borehole at 1 megapascal injection pressure. Used in water pressure testing of rock formations.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of pressure change. Equivalent to Pa/s.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of gauge pressure change.</t>
+  </si>
+  <si>
+    <t>DIGGS extension.  Logarithmic grain size scale where phi = -log2(D/1mm). Used in sedimentology for particle size analysis. Grain diameter D in millimeters equals 2^(-phi) mm.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Rate of absolute pressure change.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Used for reciprocal square root time calculations. sqrt(3600) = 60.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Used for reciprocal square root time calculations. sqrt(60) ≈ 7.746.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Used for reciprocal square root time calculations.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Imperial unit of mass defined as the mass that accelerates at 1 ft/s² when a force of 1 pound-force is applied. Equal to approximately 14.59390 kilograms.</t>
+  </si>
+  <si>
+    <t>DIGGS extension. Mass per unit volume in US customary units.</t>
   </si>
 </sst>
 </file>
@@ -16026,16 +16011,16 @@
     </row>
     <row r="102" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="s">
-        <v>4143</v>
+        <v>4135</v>
       </c>
       <c r="B102" s="56" t="s">
-        <v>4144</v>
+        <v>4136</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>4469</v>
+        <v>4438</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>4469</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -16124,16 +16109,16 @@
     </row>
     <row r="109" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="s">
-        <v>4467</v>
+        <v>4436</v>
       </c>
       <c r="B109" s="56" t="s">
-        <v>4468</v>
+        <v>4437</v>
       </c>
       <c r="C109" s="56" t="s">
-        <v>4470</v>
+        <v>4439</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>4470</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -16415,8 +16400,8 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16460,7 +16445,7 @@
         <v>417</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>4165</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16474,7 +16459,7 @@
         <v>196</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>4166</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -16488,7 +16473,7 @@
         <v>357</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>4167</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -16505,7 +16490,7 @@
         <v>378</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>4168</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -16519,7 +16504,7 @@
         <v>367</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>4169</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -16533,7 +16518,7 @@
         <v>287</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>4170</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -16547,7 +16532,7 @@
         <v>280</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>4350</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -16561,7 +16546,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>4171</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -16575,7 +16560,7 @@
         <v>510</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>4172</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -16589,7 +16574,7 @@
         <v>290</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>4173</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -16603,7 +16588,7 @@
         <v>265</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>4174</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -16617,7 +16602,7 @@
         <v>493</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>4175</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -16634,7 +16619,7 @@
         <v>515</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>4176</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -16651,7 +16636,7 @@
         <v>486</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>4177</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -16668,7 +16653,7 @@
         <v>548</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>4178</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -16685,7 +16670,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>4179</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -16713,7 +16698,7 @@
         <v>424</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>4180</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -16730,7 +16715,7 @@
         <v>549</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>4181</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -16744,7 +16729,7 @@
         <v>45</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>4182</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -16758,7 +16743,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>4183</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -16772,7 +16757,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>4184</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -16789,7 +16774,7 @@
         <v>494</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>4185</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -16848,7 +16833,7 @@
         <v>176</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>4186</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -16879,7 +16864,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>4187</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -16893,7 +16878,7 @@
         <v>183</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>4188</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -16907,7 +16892,7 @@
         <v>189</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>4189</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -16924,7 +16909,7 @@
         <v>24</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>4190</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -16941,7 +16926,7 @@
         <v>556</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>4191</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -16955,7 +16940,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>4192</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -16972,7 +16957,7 @@
         <v>491</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>4193</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -17003,7 +16988,7 @@
         <v>460</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>4194</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -17020,7 +17005,7 @@
         <v>454</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>4195</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -17048,7 +17033,7 @@
         <v>517</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>4196</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -17062,7 +17047,7 @@
         <v>378</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>4197</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -17076,7 +17061,7 @@
         <v>113</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>4198</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -17090,7 +17075,7 @@
         <v>117</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>4199</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -17104,7 +17089,7 @@
         <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>4200</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -17118,7 +17103,7 @@
         <v>121</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>4201</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -17132,7 +17117,7 @@
         <v>90</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>4202</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -17146,7 +17131,7 @@
         <v>94</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>4203</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -17160,7 +17145,7 @@
         <v>41</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>4204</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -17174,7 +17159,7 @@
         <v>83</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>4205</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -17188,7 +17173,7 @@
         <v>317</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>4206</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -17202,7 +17187,7 @@
         <v>227</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>4207</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -17216,7 +17201,7 @@
         <v>219</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>4208</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -17230,7 +17215,7 @@
         <v>309</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>4209</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -17247,7 +17232,7 @@
         <v>525</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>4210</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -17275,7 +17260,7 @@
         <v>132</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>4211</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -17289,7 +17274,7 @@
         <v>531</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>4212</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -17306,7 +17291,7 @@
         <v>301</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>4213</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -17323,7 +17308,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>4214</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -17337,7 +17322,7 @@
         <v>533</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>4215</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -17351,7 +17336,7 @@
         <v>192</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>4216</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -17365,7 +17350,7 @@
         <v>382</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>4318</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -17379,7 +17364,7 @@
         <v>324</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>4217</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -17393,7 +17378,7 @@
         <v>276</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>4218</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -17407,7 +17392,7 @@
         <v>535</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>4219</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -17424,7 +17409,7 @@
         <v>18</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>4220</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -17438,7 +17423,7 @@
         <v>400</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>4221</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -17452,7 +17437,7 @@
         <v>360</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>4462</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -17466,7 +17451,7 @@
         <v>488</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>4222</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -17488,36 +17473,36 @@
     </row>
     <row r="72" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>4127</v>
+        <v>4124</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>4128</v>
+        <v>4125</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>4129</v>
+        <v>4452</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>4128</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>4133</v>
+        <v>4451</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>4223</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -17548,7 +17533,7 @@
         <v>242</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>4224</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -17562,7 +17547,7 @@
         <v>339</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>4225</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -17576,7 +17561,7 @@
         <v>143</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>4226</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -17590,7 +17575,7 @@
         <v>215</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>4227</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -17604,7 +17589,7 @@
         <v>537</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>4228</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -17621,7 +17606,7 @@
         <v>189</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>4229</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -17635,7 +17620,7 @@
         <v>161</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>4230</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -17652,7 +17637,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>4231</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -17666,7 +17651,7 @@
         <v>167</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>4232</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -17680,7 +17665,7 @@
         <v>246</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>4233</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -17694,7 +17679,7 @@
         <v>164</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>4234</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -17708,7 +17693,7 @@
         <v>170</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>4337</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -17722,7 +17707,7 @@
         <v>480</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>4235</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -17736,7 +17721,7 @@
         <v>151</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>4236</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -17750,7 +17735,7 @@
         <v>173</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>4237</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -17767,7 +17752,7 @@
         <v>21</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>4238</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -17781,7 +17766,7 @@
         <v>551</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>4239</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -17795,7 +17780,7 @@
         <v>558</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>4240</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -17851,7 +17836,7 @@
         <v>133</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>4241</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -17879,7 +17864,7 @@
         <v>80</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>4242</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -17893,7 +17878,7 @@
         <v>223</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>4243</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -17907,7 +17892,7 @@
         <v>347</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>4244</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -17921,7 +17906,7 @@
         <v>343</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>4245</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -17935,7 +17920,7 @@
         <v>305</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>4246</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -17949,7 +17934,7 @@
         <v>313</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>4247</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -17963,7 +17948,7 @@
         <v>332</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>4358</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -17977,7 +17962,7 @@
         <v>298</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>4248</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -17991,7 +17976,7 @@
         <v>354</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>4249</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -18005,7 +17990,7 @@
         <v>440</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>4250</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -18019,7 +18004,7 @@
         <v>351</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>4251</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -18036,7 +18021,7 @@
         <v>18</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>4252</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -18050,7 +18035,7 @@
         <v>397</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>4253</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -18064,7 +18049,7 @@
         <v>364</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>4254</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -18078,7 +18063,7 @@
         <v>527</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>4255</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -18092,7 +18077,7 @@
         <v>231</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>4256</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -18106,7 +18091,7 @@
         <v>203</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>4257</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -18120,7 +18105,7 @@
         <v>259</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>4258</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -18134,7 +18119,7 @@
         <v>390</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>4259</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -18151,7 +18136,7 @@
         <v>132</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>4260</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -18165,7 +18150,7 @@
         <v>200</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>4261</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -18179,7 +18164,7 @@
         <v>321</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>4262</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -18193,7 +18178,7 @@
         <v>553</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>4263</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -18207,7 +18192,7 @@
         <v>524</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>4264</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -18221,7 +18206,7 @@
         <v>502</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>4265</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -18235,7 +18220,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>4266</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -18249,7 +18234,7 @@
         <v>42</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>4267</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -18263,7 +18248,7 @@
         <v>563</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>4268</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -18277,7 +18262,7 @@
         <v>242</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>4269</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -18291,7 +18276,7 @@
         <v>404</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>4270</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -18308,7 +18293,7 @@
         <v>18</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>4271</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -18324,7 +18309,7 @@
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9" t="s">
-        <v>4272</v>
+        <v>4262</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -18341,7 +18326,7 @@
         <v>540</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>4441</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -18358,10 +18343,10 @@
         <v>18</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>4091</v>
+        <v>4450</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>4463</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -18375,7 +18360,7 @@
         <v>542</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>4465</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -18389,7 +18374,7 @@
         <v>374</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>4273</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -18403,7 +18388,7 @@
         <v>408</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>4274</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -18417,7 +18402,7 @@
         <v>544</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>4275</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -18431,7 +18416,7 @@
         <v>370</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>4276</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -18487,7 +18472,7 @@
         <v>481</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>4277</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -18501,7 +18486,7 @@
         <v>27</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>4278</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -18515,7 +18500,7 @@
         <v>129</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>4279</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -18529,7 +18514,7 @@
         <v>444</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>4280</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -18543,7 +18528,7 @@
         <v>24</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>4281</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -18557,7 +18542,7 @@
         <v>33</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>4282</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -18571,25 +18556,25 @@
         <v>328</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>4283</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="25" t="s">
-        <v>4143</v>
+        <v>4135</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>4144</v>
+        <v>4136</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>4469</v>
+        <v>4438</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="25" t="s">
-        <v>4148</v>
+        <v>4451</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>4483</v>
+        <v>4447</v>
       </c>
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
@@ -18609,7 +18594,7 @@
         <v>434</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>4284</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -18623,12 +18608,12 @@
         <v>30</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>4285</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="26" t="s">
-        <v>4149</v>
+        <v>4140</v>
       </c>
       <c r="B150" s="26" t="s">
         <v>38</v>
@@ -18637,10 +18622,10 @@
         <v>39</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>4157</v>
+        <v>4451</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>4286</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -18668,7 +18653,7 @@
         <v>284</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>4287</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -18710,25 +18695,25 @@
         <v>179</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>4288</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
-        <v>4484</v>
+        <v>4448</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>4468</v>
+        <v>4437</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>4470</v>
+        <v>4439</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25" t="s">
-        <v>4486</v>
+        <v>4451</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>4485</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -18745,7 +18730,7 @@
         <v>496</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>4289</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -18759,7 +18744,7 @@
         <v>60</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>4290</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -18773,7 +18758,7 @@
         <v>66</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>4291</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -18787,7 +18772,7 @@
         <v>63</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>4292</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -18815,7 +18800,7 @@
         <v>301</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>4293</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -18832,7 +18817,7 @@
         <v>189</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>4294</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -18846,7 +18831,7 @@
         <v>74</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>4295</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -18874,7 +18859,7 @@
         <v>158</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>4296</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -18888,7 +18873,7 @@
         <v>428</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>4297</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -18902,7 +18887,7 @@
         <v>431</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>4298</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -18933,7 +18918,7 @@
         <v>18</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>4299</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -18947,7 +18932,7 @@
         <v>434</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>4300</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -18961,7 +18946,7 @@
         <v>250</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>4301</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -18978,7 +18963,7 @@
         <v>18</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>4302</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -18992,7 +18977,7 @@
         <v>498</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>4303</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -19006,7 +18991,7 @@
         <v>504</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>4304</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -19020,7 +19005,7 @@
         <v>256</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>4305</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -19034,7 +19019,7 @@
         <v>294</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>4306</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -19048,7 +19033,7 @@
         <v>253</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>4307</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -19062,7 +19047,7 @@
         <v>262</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>4308</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -19079,7 +19064,7 @@
         <v>18</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>4309</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -19093,7 +19078,7 @@
         <v>335</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>4310</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="182" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -19111,7 +19096,7 @@
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9" t="s">
-        <v>4311</v>
+        <v>4301</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -19147,8 +19132,8 @@
   <dimension ref="A1:S1637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19283,7 +19268,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>4422</v>
+        <v>4410</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>4088</v>
@@ -19323,7 +19308,7 @@
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>4089</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -19387,7 +19372,7 @@
         <v>582</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>18</v>
@@ -19395,7 +19380,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>4423</v>
+        <v>4411</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>4087</v>
@@ -19435,7 +19420,7 @@
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16" t="s">
-        <v>4089</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -19660,10 +19645,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>4153</v>
+        <v>4144</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>4161</v>
+        <v>4151</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>38</v>
@@ -19700,15 +19685,15 @@
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27" t="s">
-        <v>4442</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>4152</v>
+        <v>4143</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>4160</v>
+        <v>4150</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>38</v>
@@ -19745,15 +19730,15 @@
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27" t="s">
-        <v>4443</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>4156</v>
+        <v>4147</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>4164</v>
+        <v>4154</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>38</v>
@@ -19790,15 +19775,15 @@
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27" t="s">
-        <v>4444</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>4154</v>
+        <v>4145</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>4162</v>
+        <v>4152</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>38</v>
@@ -19835,15 +19820,15 @@
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27" t="s">
-        <v>4445</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>4151</v>
+        <v>4142</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>4159</v>
+        <v>4149</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>38</v>
@@ -19880,15 +19865,15 @@
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="27" t="s">
-        <v>4446</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>4150</v>
+        <v>4141</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>4158</v>
+        <v>4148</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>38</v>
@@ -19925,15 +19910,15 @@
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
-        <v>4447</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>4155</v>
+        <v>4146</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>4163</v>
+        <v>4153</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>38</v>
@@ -19970,7 +19955,7 @@
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
-        <v>4448</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -20959,10 +20944,10 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>4466</v>
+        <v>4435</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>4387</v>
+        <v>4375</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>385</v>
@@ -20999,7 +20984,7 @@
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -22337,7 +22322,7 @@
         <v>582</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -22688,7 +22673,7 @@
         <v>582</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -22752,7 +22737,7 @@
         <v>582</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -22980,7 +22965,7 @@
         <v>582</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -23003,7 +22988,7 @@
         <v>582</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -23026,7 +23011,7 @@
         <v>582</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -23254,7 +23239,7 @@
         <v>582</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -23318,7 +23303,7 @@
         <v>582</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -23405,13 +23390,13 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="57" t="s">
-        <v>4480</v>
+        <v>4446</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>4147</v>
+        <v>4139</v>
       </c>
       <c r="C107" s="59" t="s">
-        <v>4144</v>
+        <v>4136</v>
       </c>
       <c r="D107" s="57" t="s">
         <v>590</v>
@@ -23423,7 +23408,7 @@
         <v>590</v>
       </c>
       <c r="G107" s="57" t="s">
-        <v>4469</v>
+        <v>4438</v>
       </c>
       <c r="H107" s="57" t="s">
         <v>615</v>
@@ -23445,18 +23430,18 @@
       </c>
       <c r="N107" s="57"/>
       <c r="O107" s="57" t="s">
-        <v>4482</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="57" t="s">
-        <v>4479</v>
+        <v>4445</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>4146</v>
+        <v>4138</v>
       </c>
       <c r="C108" s="59" t="s">
-        <v>4144</v>
+        <v>4136</v>
       </c>
       <c r="D108" s="57" t="s">
         <v>590</v>
@@ -23468,7 +23453,7 @@
         <v>590</v>
       </c>
       <c r="G108" s="57" t="s">
-        <v>4469</v>
+        <v>4438</v>
       </c>
       <c r="H108" s="57" t="s">
         <v>615</v>
@@ -23490,18 +23475,18 @@
       </c>
       <c r="N108" s="57"/>
       <c r="O108" s="57" t="s">
-        <v>4482</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="57" t="s">
-        <v>4469</v>
+        <v>4438</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>4145</v>
+        <v>4137</v>
       </c>
       <c r="C109" s="57" t="s">
-        <v>4144</v>
+        <v>4136</v>
       </c>
       <c r="D109" s="57" t="s">
         <v>590</v>
@@ -23521,7 +23506,7 @@
       <c r="M109" s="57"/>
       <c r="N109" s="57"/>
       <c r="O109" s="58" t="s">
-        <v>4481</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -23544,18 +23529,18 @@
         <v>582</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>4134</v>
+        <v>4129</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>582</v>
@@ -23569,7 +23554,7 @@
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
       <c r="I111" s="24" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="J111" s="24"/>
       <c r="K111" s="45"/>
@@ -23577,7 +23562,7 @@
       <c r="M111" s="24"/>
       <c r="N111" s="24"/>
       <c r="O111" s="24" t="s">
-        <v>4140</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -23723,7 +23708,7 @@
         <v>582</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -26086,7 +26071,7 @@
         <v>582</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O173" s="14" t="s">
         <v>1217</v>
@@ -26200,7 +26185,7 @@
         <v>582</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
@@ -26472,7 +26457,7 @@
         <v>582</v>
       </c>
       <c r="I183" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
@@ -26495,7 +26480,7 @@
         <v>582</v>
       </c>
       <c r="I184" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
@@ -26846,10 +26831,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="38" t="s">
-        <v>4359</v>
+        <v>4347</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>4360</v>
+        <v>4348</v>
       </c>
       <c r="C193" s="38" t="s">
         <v>385</v>
@@ -26886,7 +26871,7 @@
       </c>
       <c r="N193" s="38"/>
       <c r="O193" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
@@ -26978,7 +26963,7 @@
       </c>
       <c r="N195" s="16"/>
       <c r="O195" s="16" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
@@ -27147,10 +27132,10 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="38" t="s">
-        <v>4361</v>
+        <v>4349</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>4362</v>
+        <v>4350</v>
       </c>
       <c r="C200" s="38" t="s">
         <v>385</v>
@@ -27187,7 +27172,7 @@
       </c>
       <c r="N200" s="38"/>
       <c r="O200" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
@@ -27257,7 +27242,7 @@
         <v>582</v>
       </c>
       <c r="I202" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O202" s="14" t="s">
         <v>3939</v>
@@ -27283,7 +27268,7 @@
         <v>582</v>
       </c>
       <c r="I203" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
@@ -27347,7 +27332,7 @@
         <v>582</v>
       </c>
       <c r="I205" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
@@ -27370,7 +27355,7 @@
         <v>582</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O206" s="14" t="s">
         <v>3965</v>
@@ -27465,7 +27450,7 @@
       </c>
       <c r="N208" s="16"/>
       <c r="O208" s="16" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
@@ -27593,10 +27578,10 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="38" t="s">
-        <v>4363</v>
+        <v>4351</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>4364</v>
+        <v>4352</v>
       </c>
       <c r="C212" s="38" t="s">
         <v>385</v>
@@ -27633,7 +27618,7 @@
       </c>
       <c r="N212" s="38"/>
       <c r="O212" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
@@ -28646,7 +28631,7 @@
         <v>582</v>
       </c>
       <c r="I237" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N237" s="14" t="s">
         <v>39</v>
@@ -28675,7 +28660,7 @@
         <v>582</v>
       </c>
       <c r="I238" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N238" s="14" t="s">
         <v>18</v>
@@ -28704,7 +28689,7 @@
         <v>582</v>
       </c>
       <c r="I239" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N239" s="14" t="s">
         <v>39</v>
@@ -28733,7 +28718,7 @@
         <v>582</v>
       </c>
       <c r="I240" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N240" s="14" t="s">
         <v>39</v>
@@ -28762,7 +28747,7 @@
         <v>582</v>
       </c>
       <c r="I241" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N241" s="14" t="s">
         <v>36</v>
@@ -30033,7 +30018,7 @@
         <v>582</v>
       </c>
       <c r="I272" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N272" s="14" t="s">
         <v>114</v>
@@ -30062,7 +30047,7 @@
         <v>582</v>
       </c>
       <c r="I273" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
@@ -30208,7 +30193,7 @@
         <v>582</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
@@ -30231,7 +30216,7 @@
         <v>582</v>
       </c>
       <c r="I278" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
@@ -30254,7 +30239,7 @@
         <v>582</v>
       </c>
       <c r="I279" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
@@ -31314,7 +31299,7 @@
         <v>582</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O305" s="14" t="s">
         <v>1385</v>
@@ -31340,7 +31325,7 @@
         <v>582</v>
       </c>
       <c r="I306" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
@@ -32269,10 +32254,10 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="34" t="s">
-        <v>4342</v>
+        <v>4332</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>4343</v>
+        <v>4333</v>
       </c>
       <c r="C328" s="34" t="s">
         <v>169</v>
@@ -32309,15 +32294,15 @@
       </c>
       <c r="N328" s="34"/>
       <c r="O328" s="34" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="34" t="s">
-        <v>4338</v>
+        <v>4328</v>
       </c>
       <c r="B329" s="34" t="s">
-        <v>4339</v>
+        <v>4329</v>
       </c>
       <c r="C329" s="34" t="s">
         <v>169</v>
@@ -32354,15 +32339,15 @@
       </c>
       <c r="N329" s="34"/>
       <c r="O329" s="34" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="34" t="s">
-        <v>4340</v>
+        <v>4330</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="C330" s="34" t="s">
         <v>169</v>
@@ -32399,7 +32384,7 @@
       </c>
       <c r="N330" s="34"/>
       <c r="O330" s="34" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
@@ -32527,10 +32512,10 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="17" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>188</v>
@@ -32567,15 +32552,15 @@
       </c>
       <c r="N334" s="18"/>
       <c r="O334" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="18" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>188</v>
@@ -32612,7 +32597,7 @@
       </c>
       <c r="N335" s="18"/>
       <c r="O335" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
@@ -32658,10 +32643,10 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="18" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>188</v>
@@ -32698,15 +32683,15 @@
       </c>
       <c r="N337" s="18"/>
       <c r="O337" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="18" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>188</v>
@@ -32743,7 +32728,7 @@
       </c>
       <c r="N338" s="18"/>
       <c r="O338" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
@@ -33205,10 +33190,10 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="38" t="s">
-        <v>4365</v>
+        <v>4353</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>4366</v>
+        <v>4354</v>
       </c>
       <c r="C350" s="38" t="s">
         <v>385</v>
@@ -33245,7 +33230,7 @@
       </c>
       <c r="N350" s="38"/>
       <c r="O350" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
@@ -34537,7 +34522,7 @@
         <v>582</v>
       </c>
       <c r="I381" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O381" s="14" t="s">
         <v>3941</v>
@@ -36110,7 +36095,7 @@
         <v>582</v>
       </c>
       <c r="I419" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O419" s="14" t="s">
         <v>1162</v>
@@ -36177,7 +36162,7 @@
         <v>582</v>
       </c>
       <c r="I421" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
@@ -36241,7 +36226,7 @@
         <v>582</v>
       </c>
       <c r="I423" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
@@ -36264,7 +36249,7 @@
         <v>582</v>
       </c>
       <c r="I424" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.2">
@@ -36287,7 +36272,7 @@
         <v>582</v>
       </c>
       <c r="I425" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
@@ -36310,7 +36295,7 @@
         <v>582</v>
       </c>
       <c r="I426" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
@@ -37387,10 +37372,10 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="38" t="s">
-        <v>4367</v>
+        <v>4355</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>4368</v>
+        <v>4356</v>
       </c>
       <c r="C453" s="38" t="s">
         <v>385</v>
@@ -37427,7 +37412,7 @@
       </c>
       <c r="N453" s="38"/>
       <c r="O453" s="38" t="s">
-        <v>4450</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
@@ -37933,10 +37918,10 @@
         <v>4040</v>
       </c>
       <c r="B466" s="24" t="s">
-        <v>4135</v>
+        <v>4130</v>
       </c>
       <c r="C466" s="24" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="D466" s="24" t="s">
         <v>590</v>
@@ -37948,7 +37933,7 @@
         <v>590</v>
       </c>
       <c r="G466" s="24" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="H466" s="24" t="s">
         <v>592</v>
@@ -37970,7 +37955,7 @@
       </c>
       <c r="N466" s="24"/>
       <c r="O466" s="24" t="s">
-        <v>4142</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
@@ -39191,7 +39176,7 @@
         <v>582</v>
       </c>
       <c r="I496" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O496" s="14" t="s">
         <v>600</v>
@@ -39343,7 +39328,7 @@
         <v>582</v>
       </c>
       <c r="I500" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N500" s="14" t="s">
         <v>1304</v>
@@ -39372,7 +39357,7 @@
         <v>582</v>
       </c>
       <c r="I501" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
@@ -41830,10 +41815,10 @@
     </row>
     <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="18" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="B560" s="18" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="C560" s="18" t="s">
         <v>188</v>
@@ -41870,15 +41855,15 @@
       </c>
       <c r="N560" s="18"/>
       <c r="O560" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="18" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="C561" s="18" t="s">
         <v>188</v>
@@ -41915,7 +41900,7 @@
       </c>
       <c r="N561" s="18"/>
       <c r="O561" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.2">
@@ -42043,10 +42028,10 @@
     </row>
     <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="18" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="C565" s="18" t="s">
         <v>188</v>
@@ -42083,7 +42068,7 @@
       </c>
       <c r="N565" s="18"/>
       <c r="O565" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
@@ -43034,10 +43019,10 @@
     </row>
     <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="40" t="s">
-        <v>4434</v>
+        <v>4422</v>
       </c>
       <c r="B589" s="40" t="s">
-        <v>4435</v>
+        <v>4423</v>
       </c>
       <c r="C589" s="40" t="s">
         <v>381</v>
@@ -43074,15 +43059,15 @@
       </c>
       <c r="N589" s="40"/>
       <c r="O589" s="40" t="s">
-        <v>4451</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="40" t="s">
-        <v>4436</v>
+        <v>4424</v>
       </c>
       <c r="B590" s="40" t="s">
-        <v>4437</v>
+        <v>4425</v>
       </c>
       <c r="C590" s="40" t="s">
         <v>381</v>
@@ -43119,7 +43104,7 @@
       </c>
       <c r="N590" s="40"/>
       <c r="O590" s="40" t="s">
-        <v>4451</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
@@ -45450,13 +45435,13 @@
     </row>
     <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="24" t="s">
-        <v>4138</v>
+        <v>4133</v>
       </c>
       <c r="B647" s="24" t="s">
-        <v>4139</v>
+        <v>4134</v>
       </c>
       <c r="C647" s="24" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="D647" s="24" t="s">
         <v>590</v>
@@ -45468,7 +45453,7 @@
         <v>590</v>
       </c>
       <c r="G647" s="24" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="H647" s="24" t="s">
         <v>615</v>
@@ -45490,7 +45475,7 @@
       </c>
       <c r="N647" s="24"/>
       <c r="O647" s="24" t="s">
-        <v>4141</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.2">
@@ -45513,7 +45498,7 @@
         <v>582</v>
       </c>
       <c r="I648" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O648" s="14" t="s">
         <v>3943</v>
@@ -46488,10 +46473,10 @@
     </row>
     <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" s="38" t="s">
-        <v>4369</v>
+        <v>4357</v>
       </c>
       <c r="B672" s="38" t="s">
-        <v>4370</v>
+        <v>4358</v>
       </c>
       <c r="C672" s="38" t="s">
         <v>385</v>
@@ -46528,7 +46513,7 @@
       </c>
       <c r="N672" s="38"/>
       <c r="O672" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.2">
@@ -47005,7 +46990,7 @@
         <v>582</v>
       </c>
       <c r="I684" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N684" s="14" t="s">
         <v>192</v>
@@ -47034,7 +47019,7 @@
         <v>582</v>
       </c>
       <c r="I685" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N685" s="14" t="s">
         <v>2128</v>
@@ -47192,7 +47177,7 @@
         <v>582</v>
       </c>
       <c r="I689" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.2">
@@ -47367,10 +47352,10 @@
     </row>
     <row r="694" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A694" s="38" t="s">
-        <v>4371</v>
+        <v>4359</v>
       </c>
       <c r="B694" s="38" t="s">
-        <v>4372</v>
+        <v>4360</v>
       </c>
       <c r="C694" s="38" t="s">
         <v>385</v>
@@ -47407,7 +47392,7 @@
       </c>
       <c r="N694" s="38"/>
       <c r="O694" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.2">
@@ -48104,7 +48089,7 @@
         <v>582</v>
       </c>
       <c r="I711" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N711" s="14" t="s">
         <v>39</v>
@@ -48455,10 +48440,10 @@
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" s="18" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="B720" s="18" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="C720" s="18" t="s">
         <v>188</v>
@@ -48495,15 +48480,15 @@
       </c>
       <c r="N720" s="18"/>
       <c r="O720" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A721" s="18" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="B721" s="18" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="C721" s="18" t="s">
         <v>188</v>
@@ -48540,7 +48525,7 @@
       </c>
       <c r="N721" s="18"/>
       <c r="O721" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="722" spans="1:15" x14ac:dyDescent="0.2">
@@ -48586,10 +48571,10 @@
     </row>
     <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" s="18" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="B723" s="18" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="C723" s="18" t="s">
         <v>188</v>
@@ -48626,7 +48611,7 @@
       </c>
       <c r="N723" s="18"/>
       <c r="O723" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="724" spans="1:15" x14ac:dyDescent="0.2">
@@ -48672,10 +48657,10 @@
     </row>
     <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" s="18" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="B725" s="18" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="C725" s="18" t="s">
         <v>188</v>
@@ -48712,7 +48697,7 @@
       </c>
       <c r="N725" s="18"/>
       <c r="O725" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.2">
@@ -48925,10 +48910,10 @@
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" s="38" t="s">
-        <v>4373</v>
+        <v>4361</v>
       </c>
       <c r="B731" s="38" t="s">
-        <v>4374</v>
+        <v>4362</v>
       </c>
       <c r="C731" s="38" t="s">
         <v>385</v>
@@ -48965,15 +48950,15 @@
       </c>
       <c r="N731" s="38"/>
       <c r="O731" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A732" s="40" t="s">
-        <v>4438</v>
+        <v>4426</v>
       </c>
       <c r="B732" s="40" t="s">
-        <v>4439</v>
+        <v>4427</v>
       </c>
       <c r="C732" s="40" t="s">
         <v>381</v>
@@ -49010,7 +48995,7 @@
       </c>
       <c r="N732" s="40"/>
       <c r="O732" s="40" t="s">
-        <v>4451</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="733" spans="1:15" x14ac:dyDescent="0.2">
@@ -49059,10 +49044,10 @@
     </row>
     <row r="734" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A734" s="38" t="s">
-        <v>4375</v>
+        <v>4363</v>
       </c>
       <c r="B734" s="38" t="s">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="C734" s="38" t="s">
         <v>385</v>
@@ -49099,7 +49084,7 @@
       </c>
       <c r="N734" s="38"/>
       <c r="O734" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="735" spans="1:15" x14ac:dyDescent="0.2">
@@ -49148,10 +49133,10 @@
     </row>
     <row r="736" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A736" s="38" t="s">
-        <v>4377</v>
+        <v>4365</v>
       </c>
       <c r="B736" s="38" t="s">
-        <v>4378</v>
+        <v>4366</v>
       </c>
       <c r="C736" s="38" t="s">
         <v>385</v>
@@ -49188,7 +49173,7 @@
       </c>
       <c r="N736" s="38"/>
       <c r="O736" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="737" spans="1:15" x14ac:dyDescent="0.2">
@@ -49237,10 +49222,10 @@
     </row>
     <row r="738" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A738" s="38" t="s">
-        <v>4379</v>
+        <v>4367</v>
       </c>
       <c r="B738" s="38" t="s">
-        <v>4380</v>
+        <v>4368</v>
       </c>
       <c r="C738" s="38" t="s">
         <v>385</v>
@@ -49277,7 +49262,7 @@
       </c>
       <c r="N738" s="38"/>
       <c r="O738" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="739" spans="1:15" x14ac:dyDescent="0.2">
@@ -49300,7 +49285,7 @@
         <v>582</v>
       </c>
       <c r="I739" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N739" s="14" t="s">
         <v>519</v>
@@ -49329,7 +49314,7 @@
         <v>582</v>
       </c>
       <c r="I740" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N740" s="14" t="s">
         <v>301</v>
@@ -49355,7 +49340,7 @@
         <v>582</v>
       </c>
       <c r="I741" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N741" s="14" t="s">
         <v>324</v>
@@ -49422,7 +49407,7 @@
         <v>582</v>
       </c>
       <c r="I743" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="744" spans="1:15" x14ac:dyDescent="0.2">
@@ -49445,7 +49430,7 @@
         <v>582</v>
       </c>
       <c r="I744" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.2">
@@ -49550,7 +49535,7 @@
         <v>582</v>
       </c>
       <c r="I747" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.2">
@@ -49655,15 +49640,15 @@
         <v>582</v>
       </c>
       <c r="I750" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" s="32" t="s">
-        <v>4321</v>
+        <v>4311</v>
       </c>
       <c r="B751" s="32" t="s">
-        <v>4322</v>
+        <v>4312</v>
       </c>
       <c r="C751" s="32" t="s">
         <v>381</v>
@@ -49700,7 +49685,7 @@
       </c>
       <c r="N751" s="32"/>
       <c r="O751" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.2">
@@ -49723,7 +49708,7 @@
         <v>582</v>
       </c>
       <c r="I752" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N752" s="14" t="s">
         <v>324</v>
@@ -49749,7 +49734,7 @@
         <v>582</v>
       </c>
       <c r="I753" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N753" s="14" t="s">
         <v>400</v>
@@ -49775,7 +49760,7 @@
         <v>582</v>
       </c>
       <c r="I754" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="755" spans="1:15" x14ac:dyDescent="0.2">
@@ -49798,7 +49783,7 @@
         <v>582</v>
       </c>
       <c r="I755" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="756" spans="1:15" x14ac:dyDescent="0.2">
@@ -49821,7 +49806,7 @@
         <v>582</v>
       </c>
       <c r="I756" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N756" s="14" t="s">
         <v>242</v>
@@ -49847,7 +49832,7 @@
         <v>582</v>
       </c>
       <c r="I757" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O757" s="14" t="s">
         <v>1407</v>
@@ -50432,10 +50417,10 @@
     </row>
     <row r="772" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A772" s="32" t="s">
-        <v>4333</v>
+        <v>4323</v>
       </c>
       <c r="B772" s="32" t="s">
-        <v>4334</v>
+        <v>4324</v>
       </c>
       <c r="C772" s="32" t="s">
         <v>381</v>
@@ -50472,7 +50457,7 @@
       </c>
       <c r="N772" s="32"/>
       <c r="O772" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="773" spans="1:15" x14ac:dyDescent="0.2">
@@ -50703,7 +50688,7 @@
         <v>582</v>
       </c>
       <c r="I778" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O778" s="14" t="s">
         <v>3099</v>
@@ -50729,7 +50714,7 @@
         <v>582</v>
       </c>
       <c r="I779" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="780" spans="1:15" x14ac:dyDescent="0.2">
@@ -50793,7 +50778,7 @@
         <v>582</v>
       </c>
       <c r="I781" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.2">
@@ -50816,7 +50801,7 @@
         <v>582</v>
       </c>
       <c r="I782" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.2">
@@ -50880,7 +50865,7 @@
         <v>582</v>
       </c>
       <c r="I784" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N784" s="14" t="s">
         <v>378</v>
@@ -50906,7 +50891,7 @@
         <v>582</v>
       </c>
       <c r="I785" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.2">
@@ -51093,7 +51078,7 @@
         <v>582</v>
       </c>
       <c r="I790" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.2">
@@ -51116,7 +51101,7 @@
         <v>582</v>
       </c>
       <c r="I791" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N791" s="14" t="s">
         <v>18</v>
@@ -51183,7 +51168,7 @@
         <v>582</v>
       </c>
       <c r="I793" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.2">
@@ -51206,7 +51191,7 @@
         <v>582</v>
       </c>
       <c r="I794" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.2">
@@ -51229,7 +51214,7 @@
         <v>582</v>
       </c>
       <c r="I795" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.2">
@@ -51252,7 +51237,7 @@
         <v>582</v>
       </c>
       <c r="I796" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.2">
@@ -51357,7 +51342,7 @@
         <v>582</v>
       </c>
       <c r="I799" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.2">
@@ -51380,7 +51365,7 @@
         <v>582</v>
       </c>
       <c r="I800" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.2">
@@ -51754,10 +51739,10 @@
     </row>
     <row r="810" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A810" s="38" t="s">
-        <v>4424</v>
+        <v>4412</v>
       </c>
       <c r="B810" s="38" t="s">
-        <v>4381</v>
+        <v>4369</v>
       </c>
       <c r="C810" s="38" t="s">
         <v>385</v>
@@ -51794,15 +51779,15 @@
       </c>
       <c r="N810" s="38"/>
       <c r="O810" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="811" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A811" s="38" t="s">
-        <v>4425</v>
+        <v>4413</v>
       </c>
       <c r="B811" s="38" t="s">
-        <v>4382</v>
+        <v>4370</v>
       </c>
       <c r="C811" s="38" t="s">
         <v>385</v>
@@ -51839,7 +51824,7 @@
       </c>
       <c r="N811" s="38"/>
       <c r="O811" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="812" spans="1:15" x14ac:dyDescent="0.2">
@@ -52544,10 +52529,10 @@
     </row>
     <row r="829" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A829" s="32" t="s">
-        <v>4323</v>
+        <v>4313</v>
       </c>
       <c r="B829" s="32" t="s">
-        <v>4324</v>
+        <v>4314</v>
       </c>
       <c r="C829" s="32" t="s">
         <v>381</v>
@@ -52584,7 +52569,7 @@
       </c>
       <c r="N829" s="32"/>
       <c r="O829" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.2">
@@ -52674,10 +52659,10 @@
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A832" s="40" t="s">
-        <v>4432</v>
+        <v>4420</v>
       </c>
       <c r="B832" s="40" t="s">
-        <v>4433</v>
+        <v>4421</v>
       </c>
       <c r="C832" s="40" t="s">
         <v>381</v>
@@ -52714,15 +52699,15 @@
       </c>
       <c r="N832" s="40"/>
       <c r="O832" s="40" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="833" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A833" s="29" t="s">
-        <v>4316</v>
+        <v>4306</v>
       </c>
       <c r="B833" s="29" t="s">
-        <v>4317</v>
+        <v>4307</v>
       </c>
       <c r="C833" s="30" t="s">
         <v>359</v>
@@ -52759,15 +52744,15 @@
       </c>
       <c r="N833" s="29"/>
       <c r="O833" s="29" t="s">
-        <v>4453</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="834" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A834" s="40" t="s">
-        <v>4430</v>
+        <v>4418</v>
       </c>
       <c r="B834" s="40" t="s">
-        <v>4431</v>
+        <v>4419</v>
       </c>
       <c r="C834" s="40" t="s">
         <v>381</v>
@@ -52804,7 +52789,7 @@
       </c>
       <c r="N834" s="40"/>
       <c r="O834" s="40" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="835" spans="1:15" x14ac:dyDescent="0.2">
@@ -53632,10 +53617,10 @@
     </row>
     <row r="855" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A855" s="29" t="s">
-        <v>4314</v>
+        <v>4304</v>
       </c>
       <c r="B855" s="29" t="s">
-        <v>4315</v>
+        <v>4305</v>
       </c>
       <c r="C855" s="30" t="s">
         <v>359</v>
@@ -53672,7 +53657,7 @@
       </c>
       <c r="N855" s="29"/>
       <c r="O855" s="29" t="s">
-        <v>4454</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="856" spans="1:15" x14ac:dyDescent="0.2">
@@ -54051,7 +54036,7 @@
       </c>
       <c r="N864" s="16"/>
       <c r="O864" s="16" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="865" spans="1:15" x14ac:dyDescent="0.2">
@@ -54138,10 +54123,10 @@
     </row>
     <row r="867" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A867" s="38" t="s">
-        <v>4383</v>
+        <v>4371</v>
       </c>
       <c r="B867" s="38" t="s">
-        <v>4384</v>
+        <v>4372</v>
       </c>
       <c r="C867" s="38" t="s">
         <v>385</v>
@@ -54178,7 +54163,7 @@
       </c>
       <c r="N867" s="38"/>
       <c r="O867" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.2">
@@ -54306,10 +54291,10 @@
     </row>
     <row r="871" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A871" s="38" t="s">
-        <v>4385</v>
+        <v>4373</v>
       </c>
       <c r="B871" s="38" t="s">
-        <v>4386</v>
+        <v>4374</v>
       </c>
       <c r="C871" s="38" t="s">
         <v>385</v>
@@ -54346,7 +54331,7 @@
       </c>
       <c r="N871" s="38"/>
       <c r="O871" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.2">
@@ -54843,10 +54828,10 @@
     </row>
     <row r="884" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A884" s="32" t="s">
-        <v>4335</v>
+        <v>4325</v>
       </c>
       <c r="B884" s="32" t="s">
-        <v>4336</v>
+        <v>4326</v>
       </c>
       <c r="C884" s="32" t="s">
         <v>381</v>
@@ -54883,7 +54868,7 @@
       </c>
       <c r="N884" s="32"/>
       <c r="O884" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="885" spans="1:15" x14ac:dyDescent="0.2">
@@ -56545,7 +56530,7 @@
       </c>
       <c r="N924" s="40"/>
       <c r="O924" s="40" t="s">
-        <v>4455</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.2">
@@ -58297,7 +58282,7 @@
         <v>582</v>
       </c>
       <c r="I966" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N966" s="14" t="s">
         <v>140</v>
@@ -58326,7 +58311,7 @@
         <v>582</v>
       </c>
       <c r="I967" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O967" s="14" t="s">
         <v>1401</v>
@@ -58393,15 +58378,15 @@
         <v>582</v>
       </c>
       <c r="I969" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="970" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A970" s="35" t="s">
-        <v>4351</v>
+        <v>4341</v>
       </c>
       <c r="B970" s="35" t="s">
-        <v>4353</v>
+        <v>4343</v>
       </c>
       <c r="C970" s="35" t="s">
         <v>279</v>
@@ -58437,10 +58422,10 @@
         <v>448</v>
       </c>
       <c r="N970" s="35" t="s">
-        <v>4352</v>
+        <v>4342</v>
       </c>
       <c r="O970" s="35" t="s">
-        <v>4354</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="971" spans="1:15" x14ac:dyDescent="0.2">
@@ -58463,7 +58448,7 @@
         <v>582</v>
       </c>
       <c r="I971" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N971" s="14" t="s">
         <v>1392</v>
@@ -58492,7 +58477,7 @@
         <v>582</v>
       </c>
       <c r="I972" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="973" spans="1:15" x14ac:dyDescent="0.2">
@@ -58515,7 +58500,7 @@
         <v>582</v>
       </c>
       <c r="I973" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O973" s="14" t="s">
         <v>1420</v>
@@ -58585,7 +58570,7 @@
         <v>582</v>
       </c>
       <c r="I975" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N975" s="14" t="s">
         <v>21</v>
@@ -58693,7 +58678,7 @@
         <v>582</v>
       </c>
       <c r="I978" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="979" spans="1:15" x14ac:dyDescent="0.2">
@@ -58757,7 +58742,7 @@
         <v>582</v>
       </c>
       <c r="I980" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="981" spans="1:15" x14ac:dyDescent="0.2">
@@ -58865,7 +58850,7 @@
         <v>582</v>
       </c>
       <c r="I983" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N983" s="14" t="s">
         <v>18</v>
@@ -58891,7 +58876,7 @@
         <v>582</v>
       </c>
       <c r="I984" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N984" s="14" t="s">
         <v>27</v>
@@ -58999,7 +58984,7 @@
         <v>582</v>
       </c>
       <c r="I987" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="988" spans="1:15" x14ac:dyDescent="0.2">
@@ -59022,7 +59007,7 @@
         <v>582</v>
       </c>
       <c r="I988" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="989" spans="1:15" x14ac:dyDescent="0.2">
@@ -59045,7 +59030,7 @@
         <v>582</v>
       </c>
       <c r="I989" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="990" spans="1:15" x14ac:dyDescent="0.2">
@@ -59068,7 +59053,7 @@
         <v>582</v>
       </c>
       <c r="I990" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="991" spans="1:15" x14ac:dyDescent="0.2">
@@ -59132,15 +59117,15 @@
         <v>582</v>
       </c>
       <c r="I992" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="993" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A993" s="18" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="B993" s="18" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="C993" s="18" t="s">
         <v>188</v>
@@ -59177,7 +59162,7 @@
       </c>
       <c r="N993" s="18"/>
       <c r="O993" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="994" spans="1:15" x14ac:dyDescent="0.2">
@@ -59364,7 +59349,7 @@
         <v>582</v>
       </c>
       <c r="I998" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="999" spans="1:15" x14ac:dyDescent="0.2">
@@ -59387,7 +59372,7 @@
         <v>582</v>
       </c>
       <c r="I999" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N999" s="14" t="s">
         <v>18</v>
@@ -59413,7 +59398,7 @@
         <v>582</v>
       </c>
       <c r="I1000" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1000" s="14" t="s">
         <v>24</v>
@@ -59421,10 +59406,10 @@
     </row>
     <row r="1001" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1001" s="18" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="B1001" s="18" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="C1001" s="18" t="s">
         <v>188</v>
@@ -59461,7 +59446,7 @@
       </c>
       <c r="N1001" s="18"/>
       <c r="O1001" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1002" spans="1:15" x14ac:dyDescent="0.2">
@@ -59484,7 +59469,7 @@
         <v>582</v>
       </c>
       <c r="I1002" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1003" spans="1:15" x14ac:dyDescent="0.2">
@@ -59507,7 +59492,7 @@
         <v>582</v>
       </c>
       <c r="I1003" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1004" spans="1:15" x14ac:dyDescent="0.2">
@@ -59530,7 +59515,7 @@
         <v>582</v>
       </c>
       <c r="I1004" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1005" spans="1:15" x14ac:dyDescent="0.2">
@@ -59922,7 +59907,7 @@
         <v>582</v>
       </c>
       <c r="I1014" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1014" s="14" t="s">
         <v>21</v>
@@ -59948,7 +59933,7 @@
         <v>582</v>
       </c>
       <c r="I1015" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1016" spans="1:14" x14ac:dyDescent="0.2">
@@ -60053,7 +60038,7 @@
         <v>582</v>
       </c>
       <c r="I1018" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1018" s="14" t="s">
         <v>189</v>
@@ -60079,7 +60064,7 @@
         <v>582</v>
       </c>
       <c r="I1019" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1019" s="14" t="s">
         <v>170</v>
@@ -60105,7 +60090,7 @@
         <v>582</v>
       </c>
       <c r="I1020" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1020" s="14" t="s">
         <v>39</v>
@@ -60336,7 +60321,7 @@
         <v>582</v>
       </c>
       <c r="I1026" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1026" s="14" t="s">
         <v>328</v>
@@ -60362,7 +60347,7 @@
         <v>582</v>
       </c>
       <c r="I1027" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1028" spans="1:14" x14ac:dyDescent="0.2">
@@ -60508,7 +60493,7 @@
         <v>582</v>
       </c>
       <c r="I1031" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1031" s="14" t="s">
         <v>176</v>
@@ -60534,7 +60519,7 @@
         <v>582</v>
       </c>
       <c r="I1032" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1032" s="14" t="s">
         <v>161</v>
@@ -60560,7 +60545,7 @@
         <v>582</v>
       </c>
       <c r="I1033" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1033" s="14" t="s">
         <v>18</v>
@@ -60627,7 +60612,7 @@
         <v>582</v>
       </c>
       <c r="I1035" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1036" spans="1:14" x14ac:dyDescent="0.2">
@@ -60650,7 +60635,7 @@
         <v>582</v>
       </c>
       <c r="I1036" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1037" spans="1:14" x14ac:dyDescent="0.2">
@@ -60673,7 +60658,7 @@
         <v>582</v>
       </c>
       <c r="I1037" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1038" spans="1:14" x14ac:dyDescent="0.2">
@@ -60737,7 +60722,7 @@
         <v>582</v>
       </c>
       <c r="I1039" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1040" spans="1:14" x14ac:dyDescent="0.2">
@@ -60760,7 +60745,7 @@
         <v>582</v>
       </c>
       <c r="I1040" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1041" spans="1:15" x14ac:dyDescent="0.2">
@@ -60906,7 +60891,7 @@
         <v>582</v>
       </c>
       <c r="I1044" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1045" spans="1:15" x14ac:dyDescent="0.2">
@@ -60929,7 +60914,7 @@
         <v>582</v>
       </c>
       <c r="I1045" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1046" spans="1:15" x14ac:dyDescent="0.2">
@@ -61180,10 +61165,10 @@
     </row>
     <row r="1052" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1052" s="38" t="s">
-        <v>4388</v>
+        <v>4376</v>
       </c>
       <c r="B1052" s="38" t="s">
-        <v>4389</v>
+        <v>4377</v>
       </c>
       <c r="C1052" s="38" t="s">
         <v>385</v>
@@ -61220,7 +61205,7 @@
       </c>
       <c r="N1052" s="38"/>
       <c r="O1052" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1053" spans="1:15" x14ac:dyDescent="0.2">
@@ -62748,13 +62733,13 @@
     </row>
     <row r="1090" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1090" s="24" t="s">
-        <v>4136</v>
+        <v>4131</v>
       </c>
       <c r="B1090" s="24" t="s">
-        <v>4137</v>
+        <v>4132</v>
       </c>
       <c r="C1090" s="24" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="D1090" s="24" t="s">
         <v>590</v>
@@ -62766,7 +62751,7 @@
         <v>590</v>
       </c>
       <c r="G1090" s="24" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="H1090" s="24" t="s">
         <v>615</v>
@@ -62788,7 +62773,7 @@
       </c>
       <c r="N1090" s="24"/>
       <c r="O1090" s="24" t="s">
-        <v>4141</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1091" spans="1:15" x14ac:dyDescent="0.2">
@@ -64279,10 +64264,10 @@
     </row>
     <row r="1126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1126" s="32" t="s">
-        <v>4325</v>
+        <v>4315</v>
       </c>
       <c r="B1126" s="32" t="s">
-        <v>4326</v>
+        <v>4316</v>
       </c>
       <c r="C1126" s="32" t="s">
         <v>381</v>
@@ -64319,15 +64304,15 @@
       </c>
       <c r="N1126" s="32"/>
       <c r="O1126" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1127" s="32" t="s">
-        <v>4327</v>
+        <v>4317</v>
       </c>
       <c r="B1127" s="32" t="s">
-        <v>4328</v>
+        <v>4318</v>
       </c>
       <c r="C1127" s="32" t="s">
         <v>381</v>
@@ -64364,7 +64349,7 @@
       </c>
       <c r="N1127" s="32"/>
       <c r="O1127" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1128" spans="1:15" x14ac:dyDescent="0.2">
@@ -64492,10 +64477,10 @@
     </row>
     <row r="1131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1131" s="32" t="s">
-        <v>4319</v>
+        <v>4309</v>
       </c>
       <c r="B1131" s="32" t="s">
-        <v>4320</v>
+        <v>4310</v>
       </c>
       <c r="C1131" s="32" t="s">
         <v>381</v>
@@ -64532,7 +64517,7 @@
       </c>
       <c r="N1131" s="32"/>
       <c r="O1131" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1132" spans="1:15" x14ac:dyDescent="0.2">
@@ -64865,10 +64850,10 @@
     </row>
     <row r="1140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1140" s="34" t="s">
-        <v>4348</v>
+        <v>4338</v>
       </c>
       <c r="B1140" s="34" t="s">
-        <v>4349</v>
+        <v>4339</v>
       </c>
       <c r="C1140" s="34" t="s">
         <v>169</v>
@@ -64905,15 +64890,15 @@
       </c>
       <c r="N1140" s="34"/>
       <c r="O1140" s="34" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1141" s="34" t="s">
-        <v>4344</v>
+        <v>4334</v>
       </c>
       <c r="B1141" s="34" t="s">
-        <v>4345</v>
+        <v>4335</v>
       </c>
       <c r="C1141" s="34" t="s">
         <v>169</v>
@@ -64950,15 +64935,15 @@
       </c>
       <c r="N1141" s="34"/>
       <c r="O1141" s="34" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1142" s="34" t="s">
-        <v>4346</v>
+        <v>4336</v>
       </c>
       <c r="B1142" s="34" t="s">
-        <v>4347</v>
+        <v>4337</v>
       </c>
       <c r="C1142" s="34" t="s">
         <v>169</v>
@@ -64995,7 +64980,7 @@
       </c>
       <c r="N1142" s="34"/>
       <c r="O1142" s="34" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1143" spans="1:15" x14ac:dyDescent="0.2">
@@ -65082,10 +65067,10 @@
     </row>
     <row r="1145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1145" s="18" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="B1145" s="18" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="C1145" s="18" t="s">
         <v>188</v>
@@ -65122,15 +65107,15 @@
       </c>
       <c r="N1145" s="18"/>
       <c r="O1145" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1146" s="18" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="B1146" s="18" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="C1146" s="18" t="s">
         <v>188</v>
@@ -65167,15 +65152,15 @@
       </c>
       <c r="N1146" s="18"/>
       <c r="O1146" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1147" s="18" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="B1147" s="18" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="C1147" s="18" t="s">
         <v>188</v>
@@ -65212,15 +65197,15 @@
       </c>
       <c r="N1147" s="18"/>
       <c r="O1147" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1148" s="18" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="B1148" s="18" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="C1148" s="18" t="s">
         <v>188</v>
@@ -65257,7 +65242,7 @@
       </c>
       <c r="N1148" s="18"/>
       <c r="O1148" s="18" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1149" spans="1:15" x14ac:dyDescent="0.2">
@@ -65470,10 +65455,10 @@
     </row>
     <row r="1154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1154" s="38" t="s">
-        <v>4390</v>
+        <v>4378</v>
       </c>
       <c r="B1154" s="38" t="s">
-        <v>4391</v>
+        <v>4379</v>
       </c>
       <c r="C1154" s="38" t="s">
         <v>385</v>
@@ -65510,7 +65495,7 @@
       </c>
       <c r="N1154" s="38"/>
       <c r="O1154" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1155" spans="1:15" x14ac:dyDescent="0.2">
@@ -65861,7 +65846,7 @@
         <v>582</v>
       </c>
       <c r="I1163" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1163" s="14" t="s">
         <v>3762</v>
@@ -65887,7 +65872,7 @@
         <v>582</v>
       </c>
       <c r="I1164" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1164" s="14" t="s">
         <v>189</v>
@@ -65913,7 +65898,7 @@
         <v>582</v>
       </c>
       <c r="I1165" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1166" spans="1:15" x14ac:dyDescent="0.2">
@@ -65936,7 +65921,7 @@
         <v>582</v>
       </c>
       <c r="I1166" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1167" spans="1:15" x14ac:dyDescent="0.2">
@@ -65959,7 +65944,7 @@
         <v>582</v>
       </c>
       <c r="I1167" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1168" spans="1:15" x14ac:dyDescent="0.2">
@@ -65982,7 +65967,7 @@
         <v>582</v>
       </c>
       <c r="I1168" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1168" s="14" t="s">
         <v>18</v>
@@ -66008,7 +65993,7 @@
         <v>582</v>
       </c>
       <c r="I1169" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1170" spans="1:15" x14ac:dyDescent="0.2">
@@ -66381,15 +66366,15 @@
       </c>
       <c r="N1178" s="16"/>
       <c r="O1178" s="19" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="1179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1179" s="38" t="s">
-        <v>4392</v>
+        <v>4380</v>
       </c>
       <c r="B1179" s="38" t="s">
-        <v>4393</v>
+        <v>4381</v>
       </c>
       <c r="C1179" s="38" t="s">
         <v>385</v>
@@ -66426,15 +66411,15 @@
       </c>
       <c r="N1179" s="38"/>
       <c r="O1179" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1180" s="38" t="s">
-        <v>4394</v>
+        <v>4382</v>
       </c>
       <c r="B1180" s="38" t="s">
-        <v>4395</v>
+        <v>4383</v>
       </c>
       <c r="C1180" s="38" t="s">
         <v>385</v>
@@ -66471,7 +66456,7 @@
       </c>
       <c r="N1180" s="38"/>
       <c r="O1180" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1181" spans="1:15" x14ac:dyDescent="0.2">
@@ -66517,10 +66502,10 @@
     </row>
     <row r="1182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1182" s="38" t="s">
-        <v>4396</v>
+        <v>4384</v>
       </c>
       <c r="B1182" s="38" t="s">
-        <v>4397</v>
+        <v>4385</v>
       </c>
       <c r="C1182" s="38" t="s">
         <v>385</v>
@@ -66557,7 +66542,7 @@
       </c>
       <c r="N1182" s="38"/>
       <c r="O1182" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1183" spans="1:15" x14ac:dyDescent="0.2">
@@ -67892,7 +67877,7 @@
         <v>582</v>
       </c>
       <c r="I1215" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1215" s="14" t="s">
         <v>2933</v>
@@ -67921,7 +67906,7 @@
         <v>582</v>
       </c>
       <c r="I1216" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1216" s="14" t="s">
         <v>132</v>
@@ -67947,7 +67932,7 @@
         <v>582</v>
       </c>
       <c r="I1217" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1217" s="14" t="s">
         <v>324</v>
@@ -67973,7 +67958,7 @@
         <v>582</v>
       </c>
       <c r="I1218" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1219" spans="1:15" x14ac:dyDescent="0.2">
@@ -68019,10 +68004,10 @@
     </row>
     <row r="1220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1220" s="38" t="s">
-        <v>4426</v>
+        <v>4414</v>
       </c>
       <c r="B1220" s="38" t="s">
-        <v>4398</v>
+        <v>4386</v>
       </c>
       <c r="C1220" s="38" t="s">
         <v>385</v>
@@ -68059,15 +68044,15 @@
       </c>
       <c r="N1220" s="38"/>
       <c r="O1220" s="38" t="s">
-        <v>4456</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1221" s="38" t="s">
-        <v>4427</v>
+        <v>4415</v>
       </c>
       <c r="B1221" s="38" t="s">
-        <v>4399</v>
+        <v>4387</v>
       </c>
       <c r="C1221" s="38" t="s">
         <v>385</v>
@@ -68104,7 +68089,7 @@
       </c>
       <c r="N1221" s="38"/>
       <c r="O1221" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1222" spans="1:15" x14ac:dyDescent="0.2">
@@ -68127,7 +68112,7 @@
         <v>582</v>
       </c>
       <c r="I1222" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1223" spans="1:15" x14ac:dyDescent="0.2">
@@ -68191,7 +68176,7 @@
         <v>582</v>
       </c>
       <c r="I1224" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1225" spans="1:15" x14ac:dyDescent="0.2">
@@ -68255,7 +68240,7 @@
         <v>582</v>
       </c>
       <c r="I1226" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1226" s="14" t="s">
         <v>18</v>
@@ -68363,7 +68348,7 @@
         <v>582</v>
       </c>
       <c r="I1229" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1229" s="14" t="s">
         <v>3945</v>
@@ -69663,7 +69648,7 @@
         <v>582</v>
       </c>
       <c r="I1261" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1261" s="14" t="s">
         <v>3947</v>
@@ -69733,7 +69718,7 @@
         <v>582</v>
       </c>
       <c r="I1263" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1263" s="14" t="s">
         <v>2152</v>
@@ -69803,7 +69788,7 @@
         <v>582</v>
       </c>
       <c r="I1265" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1266" spans="1:15" x14ac:dyDescent="0.2">
@@ -69867,7 +69852,7 @@
         <v>582</v>
       </c>
       <c r="I1267" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1268" spans="1:15" x14ac:dyDescent="0.2">
@@ -70119,7 +70104,7 @@
         <v>582</v>
       </c>
       <c r="I1273" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1273" s="14" t="s">
         <v>382</v>
@@ -70148,7 +70133,7 @@
         <v>582</v>
       </c>
       <c r="I1274" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1275" spans="1:15" x14ac:dyDescent="0.2">
@@ -70171,7 +70156,7 @@
         <v>582</v>
       </c>
       <c r="I1275" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1275" s="14" t="s">
         <v>189</v>
@@ -70197,7 +70182,7 @@
         <v>582</v>
       </c>
       <c r="I1276" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1277" spans="1:15" x14ac:dyDescent="0.2">
@@ -70243,10 +70228,10 @@
     </row>
     <row r="1278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1278" s="38" t="s">
-        <v>4400</v>
+        <v>4388</v>
       </c>
       <c r="B1278" s="38" t="s">
-        <v>4401</v>
+        <v>4389</v>
       </c>
       <c r="C1278" s="38" t="s">
         <v>385</v>
@@ -70283,7 +70268,7 @@
       </c>
       <c r="N1278" s="38"/>
       <c r="O1278" s="38" t="s">
-        <v>4457</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1279" spans="1:15" x14ac:dyDescent="0.2">
@@ -70388,7 +70373,7 @@
         <v>582</v>
       </c>
       <c r="I1281" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1282" spans="1:15" x14ac:dyDescent="0.2">
@@ -70411,11 +70396,11 @@
         <v>582</v>
       </c>
       <c r="G1282" s="16" t="s">
-        <v>4440</v>
+        <v>4428</v>
       </c>
       <c r="H1282" s="16"/>
       <c r="I1282" s="16" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="J1282" s="16"/>
       <c r="K1282" s="43"/>
@@ -70423,7 +70408,7 @@
       <c r="M1282" s="16"/>
       <c r="N1282" s="16"/>
       <c r="O1282" s="19" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="1283" spans="1:15" x14ac:dyDescent="0.2">
@@ -70446,7 +70431,7 @@
         <v>582</v>
       </c>
       <c r="I1283" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1283" s="14" t="s">
         <v>386</v>
@@ -70472,7 +70457,7 @@
         <v>582</v>
       </c>
       <c r="I1284" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1285" spans="1:15" x14ac:dyDescent="0.2">
@@ -70495,7 +70480,7 @@
         <v>582</v>
       </c>
       <c r="I1285" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1285" s="14" t="s">
         <v>386</v>
@@ -71086,10 +71071,10 @@
     </row>
     <row r="1300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1300" s="21" t="s">
-        <v>4128</v>
+        <v>4125</v>
       </c>
       <c r="B1300" s="21" t="s">
-        <v>4128</v>
+        <v>4125</v>
       </c>
       <c r="C1300" s="21" t="s">
         <v>447</v>
@@ -71106,17 +71091,17 @@
       <c r="G1300" s="21"/>
       <c r="H1300" s="21"/>
       <c r="I1300" s="21" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="J1300" s="21"/>
       <c r="K1300" s="53"/>
       <c r="L1300" s="21"/>
       <c r="M1300" s="21"/>
       <c r="N1300" s="21" t="s">
-        <v>4458</v>
+        <v>4430</v>
       </c>
       <c r="O1300" s="21" t="s">
-        <v>4459</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1301" spans="1:15" x14ac:dyDescent="0.2">
@@ -71408,10 +71393,10 @@
     </row>
     <row r="1308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1308" s="38" t="s">
-        <v>4402</v>
+        <v>4390</v>
       </c>
       <c r="B1308" s="38" t="s">
-        <v>4403</v>
+        <v>4391</v>
       </c>
       <c r="C1308" s="38" t="s">
         <v>385</v>
@@ -71448,7 +71433,7 @@
       </c>
       <c r="N1308" s="38"/>
       <c r="O1308" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1309" spans="1:15" x14ac:dyDescent="0.2">
@@ -71975,10 +71960,10 @@
     </row>
     <row r="1321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1321" s="38" t="s">
-        <v>4420</v>
+        <v>4408</v>
       </c>
       <c r="B1321" s="38" t="s">
-        <v>4406</v>
+        <v>4394</v>
       </c>
       <c r="C1321" s="38" t="s">
         <v>385</v>
@@ -72015,15 +72000,15 @@
       </c>
       <c r="N1321" s="38"/>
       <c r="O1321" s="38" t="s">
-        <v>4460</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1322" s="38" t="s">
-        <v>4421</v>
+        <v>4409</v>
       </c>
       <c r="B1322" s="38" t="s">
-        <v>4407</v>
+        <v>4395</v>
       </c>
       <c r="C1322" s="38" t="s">
         <v>385</v>
@@ -72060,7 +72045,7 @@
       </c>
       <c r="N1322" s="38"/>
       <c r="O1322" s="38" t="s">
-        <v>4457</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1323" spans="1:15" x14ac:dyDescent="0.2">
@@ -72269,15 +72254,15 @@
       </c>
       <c r="N1327" s="16"/>
       <c r="O1327" s="19" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="1328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1328" s="38" t="s">
-        <v>4404</v>
+        <v>4392</v>
       </c>
       <c r="B1328" s="38" t="s">
-        <v>4405</v>
+        <v>4393</v>
       </c>
       <c r="C1328" s="38" t="s">
         <v>385</v>
@@ -72314,7 +72299,7 @@
       </c>
       <c r="N1328" s="38"/>
       <c r="O1328" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1329" spans="1:15" x14ac:dyDescent="0.2">
@@ -72941,7 +72926,7 @@
         <v>582</v>
       </c>
       <c r="I1343" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1343" s="14" t="s">
         <v>1058</v>
@@ -73049,7 +73034,7 @@
         <v>582</v>
       </c>
       <c r="I1346" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1347" spans="1:15" x14ac:dyDescent="0.2">
@@ -73072,7 +73057,7 @@
         <v>582</v>
       </c>
       <c r="I1347" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1348" spans="1:15" x14ac:dyDescent="0.2">
@@ -73095,7 +73080,7 @@
         <v>582</v>
       </c>
       <c r="I1348" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1349" spans="1:15" x14ac:dyDescent="0.2">
@@ -73118,7 +73103,7 @@
         <v>582</v>
       </c>
       <c r="I1349" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1350" spans="1:15" x14ac:dyDescent="0.2">
@@ -73560,13 +73545,13 @@
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1360" s="57" t="s">
-        <v>4474</v>
+        <v>4443</v>
       </c>
       <c r="B1360" s="57" t="s">
-        <v>4475</v>
+        <v>4444</v>
       </c>
       <c r="C1360" s="59" t="s">
-        <v>4468</v>
+        <v>4437</v>
       </c>
       <c r="D1360" s="57" t="s">
         <v>590</v>
@@ -73578,7 +73563,7 @@
         <v>590</v>
       </c>
       <c r="G1360" s="57" t="s">
-        <v>4470</v>
+        <v>4439</v>
       </c>
       <c r="H1360" s="57" t="s">
         <v>592</v>
@@ -73600,18 +73585,18 @@
       </c>
       <c r="N1360" s="57"/>
       <c r="O1360" s="57" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1361" s="57" t="s">
-        <v>4472</v>
+        <v>4441</v>
       </c>
       <c r="B1361" s="57" t="s">
-        <v>4473</v>
+        <v>4442</v>
       </c>
       <c r="C1361" s="59" t="s">
-        <v>4468</v>
+        <v>4437</v>
       </c>
       <c r="D1361" s="57" t="s">
         <v>590</v>
@@ -73623,7 +73608,7 @@
         <v>590</v>
       </c>
       <c r="G1361" s="57" t="s">
-        <v>4470</v>
+        <v>4439</v>
       </c>
       <c r="H1361" s="57" t="s">
         <v>592</v>
@@ -73645,18 +73630,18 @@
       </c>
       <c r="N1361" s="57"/>
       <c r="O1361" s="57" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1362" s="57" t="s">
-        <v>4470</v>
+        <v>4439</v>
       </c>
       <c r="B1362" s="57" t="s">
-        <v>4471</v>
+        <v>4440</v>
       </c>
       <c r="C1362" s="59" t="s">
-        <v>4468</v>
+        <v>4437</v>
       </c>
       <c r="D1362" s="57" t="s">
         <v>590</v>
@@ -73676,7 +73661,7 @@
       <c r="M1362" s="57"/>
       <c r="N1362" s="57"/>
       <c r="O1362" s="57" t="s">
-        <v>4476</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1363" spans="1:15" x14ac:dyDescent="0.2">
@@ -73699,7 +73684,7 @@
         <v>582</v>
       </c>
       <c r="I1363" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1363" s="14" t="s">
         <v>1270</v>
@@ -73728,7 +73713,7 @@
         <v>582</v>
       </c>
       <c r="I1364" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1364" s="14" t="s">
         <v>3799</v>
@@ -73918,7 +73903,7 @@
         <v>582</v>
       </c>
       <c r="I1369" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1370" spans="1:15" x14ac:dyDescent="0.2">
@@ -73982,7 +73967,7 @@
         <v>582</v>
       </c>
       <c r="I1371" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1372" spans="1:15" x14ac:dyDescent="0.2">
@@ -74005,7 +73990,7 @@
         <v>582</v>
       </c>
       <c r="I1372" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1373" spans="1:15" x14ac:dyDescent="0.2">
@@ -74028,7 +74013,7 @@
         <v>582</v>
       </c>
       <c r="I1373" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1374" spans="1:15" x14ac:dyDescent="0.2">
@@ -74133,7 +74118,7 @@
         <v>582</v>
       </c>
       <c r="I1376" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1376" s="14" t="s">
         <v>18</v>
@@ -74282,10 +74267,10 @@
     </row>
     <row r="1380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1380" s="35" t="s">
-        <v>4355</v>
+        <v>4344</v>
       </c>
       <c r="B1380" s="35" t="s">
-        <v>4355</v>
+        <v>4344</v>
       </c>
       <c r="C1380" s="35" t="s">
         <v>331</v>
@@ -74321,18 +74306,18 @@
         <v>448</v>
       </c>
       <c r="N1380" s="35" t="s">
-        <v>4356</v>
+        <v>4345</v>
       </c>
       <c r="O1380" s="35" t="s">
-        <v>4357</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1381" s="29" t="s">
-        <v>4312</v>
+        <v>4302</v>
       </c>
       <c r="B1381" s="29" t="s">
-        <v>4313</v>
+        <v>4303</v>
       </c>
       <c r="C1381" s="29" t="s">
         <v>363</v>
@@ -74369,7 +74354,7 @@
       </c>
       <c r="N1381" s="29"/>
       <c r="O1381" s="29" t="s">
-        <v>4461</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1382" spans="1:15" x14ac:dyDescent="0.2">
@@ -74392,7 +74377,7 @@
         <v>582</v>
       </c>
       <c r="I1382" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1382" s="14" t="s">
         <v>3797</v>
@@ -74465,7 +74450,7 @@
         <v>582</v>
       </c>
       <c r="I1384" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1384" s="14" t="s">
         <v>192</v>
@@ -74535,7 +74520,7 @@
         <v>582</v>
       </c>
       <c r="I1386" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="O1386" s="14" t="s">
         <v>2104</v>
@@ -74608,7 +74593,7 @@
         <v>582</v>
       </c>
       <c r="I1388" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1388" s="14" t="s">
         <v>3168</v>
@@ -74760,7 +74745,7 @@
         <v>582</v>
       </c>
       <c r="I1392" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.2">
@@ -75070,7 +75055,7 @@
         <v>582</v>
       </c>
       <c r="I1400" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1400" s="14" t="s">
         <v>176</v>
@@ -75099,7 +75084,7 @@
         <v>582</v>
       </c>
       <c r="I1401" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1401" s="14" t="s">
         <v>250</v>
@@ -75125,7 +75110,7 @@
         <v>582</v>
       </c>
       <c r="I1402" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1402" s="14" t="s">
         <v>280</v>
@@ -76695,10 +76680,10 @@
     </row>
     <row r="1440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1440" s="38" t="s">
-        <v>4429</v>
+        <v>4417</v>
       </c>
       <c r="B1440" s="38" t="s">
-        <v>4409</v>
+        <v>4397</v>
       </c>
       <c r="C1440" s="38" t="s">
         <v>385</v>
@@ -76735,15 +76720,15 @@
       </c>
       <c r="N1440" s="38"/>
       <c r="O1440" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1441" s="38" t="s">
-        <v>4428</v>
+        <v>4416</v>
       </c>
       <c r="B1441" s="38" t="s">
-        <v>4408</v>
+        <v>4396</v>
       </c>
       <c r="C1441" s="38" t="s">
         <v>385</v>
@@ -76780,7 +76765,7 @@
       </c>
       <c r="N1441" s="38"/>
       <c r="O1441" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1442" spans="1:19" x14ac:dyDescent="0.2">
@@ -77010,10 +76995,10 @@
     </row>
     <row r="1447" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1447" s="38" t="s">
-        <v>4410</v>
+        <v>4398</v>
       </c>
       <c r="B1447" s="38" t="s">
-        <v>4411</v>
+        <v>4399</v>
       </c>
       <c r="C1447" s="38" t="s">
         <v>385</v>
@@ -77050,7 +77035,7 @@
       </c>
       <c r="N1447" s="38"/>
       <c r="O1447" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
       <c r="P1447" s="14"/>
       <c r="Q1447" s="14"/>
@@ -77646,10 +77631,10 @@
     </row>
     <row r="1461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1461" s="38" t="s">
-        <v>4412</v>
+        <v>4400</v>
       </c>
       <c r="B1461" s="38" t="s">
-        <v>4413</v>
+        <v>4401</v>
       </c>
       <c r="C1461" s="38" t="s">
         <v>385</v>
@@ -77686,7 +77671,7 @@
       </c>
       <c r="N1461" s="38"/>
       <c r="O1461" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1462" spans="1:15" x14ac:dyDescent="0.2">
@@ -78684,10 +78669,10 @@
     </row>
     <row r="1486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1486" s="38" t="s">
-        <v>4414</v>
+        <v>4402</v>
       </c>
       <c r="B1486" s="38" t="s">
-        <v>4415</v>
+        <v>4403</v>
       </c>
       <c r="C1486" s="38" t="s">
         <v>385</v>
@@ -78724,7 +78709,7 @@
       </c>
       <c r="N1486" s="38"/>
       <c r="O1486" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.2">
@@ -79016,10 +79001,10 @@
     </row>
     <row r="1494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1494" s="38" t="s">
-        <v>4416</v>
+        <v>4404</v>
       </c>
       <c r="B1494" s="38" t="s">
-        <v>4417</v>
+        <v>4405</v>
       </c>
       <c r="C1494" s="38" t="s">
         <v>385</v>
@@ -79056,7 +79041,7 @@
       </c>
       <c r="N1494" s="38"/>
       <c r="O1494" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.2">
@@ -79102,10 +79087,10 @@
     </row>
     <row r="1496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1496" s="38" t="s">
-        <v>4418</v>
+        <v>4406</v>
       </c>
       <c r="B1496" s="38" t="s">
-        <v>4419</v>
+        <v>4407</v>
       </c>
       <c r="C1496" s="38" t="s">
         <v>385</v>
@@ -79142,7 +79127,7 @@
       </c>
       <c r="N1496" s="38"/>
       <c r="O1496" s="38" t="s">
-        <v>4449</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.2">
@@ -79739,7 +79724,7 @@
         <v>582</v>
       </c>
       <c r="I1511" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1511" s="14" t="s">
         <v>2206</v>
@@ -79768,7 +79753,7 @@
         <v>582</v>
       </c>
       <c r="I1512" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1513" spans="1:15" x14ac:dyDescent="0.2">
@@ -79832,7 +79817,7 @@
         <v>582</v>
       </c>
       <c r="I1514" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1515" spans="1:15" x14ac:dyDescent="0.2">
@@ -79855,7 +79840,7 @@
         <v>582</v>
       </c>
       <c r="I1515" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1515" s="14" t="s">
         <v>521</v>
@@ -79866,10 +79851,10 @@
     </row>
     <row r="1516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1516" s="32" t="s">
-        <v>4331</v>
+        <v>4321</v>
       </c>
       <c r="B1516" s="32" t="s">
-        <v>4332</v>
+        <v>4322</v>
       </c>
       <c r="C1516" s="32" t="s">
         <v>381</v>
@@ -79906,15 +79891,15 @@
       </c>
       <c r="N1516" s="32"/>
       <c r="O1516" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1517" s="32" t="s">
-        <v>4329</v>
+        <v>4319</v>
       </c>
       <c r="B1517" s="32" t="s">
-        <v>4330</v>
+        <v>4320</v>
       </c>
       <c r="C1517" s="32" t="s">
         <v>381</v>
@@ -79951,7 +79936,7 @@
       </c>
       <c r="N1517" s="32"/>
       <c r="O1517" s="32" t="s">
-        <v>4126</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.2">
@@ -79974,7 +79959,7 @@
         <v>582</v>
       </c>
       <c r="I1518" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1518" s="14" t="s">
         <v>189</v>
@@ -80000,7 +79985,7 @@
         <v>582</v>
       </c>
       <c r="I1519" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1520" spans="1:15" x14ac:dyDescent="0.2">
@@ -80023,7 +80008,7 @@
         <v>582</v>
       </c>
       <c r="I1520" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1521" spans="1:15" x14ac:dyDescent="0.2">
@@ -80046,7 +80031,7 @@
         <v>582</v>
       </c>
       <c r="I1521" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1522" spans="1:15" x14ac:dyDescent="0.2">
@@ -80069,7 +80054,7 @@
         <v>582</v>
       </c>
       <c r="I1522" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1523" spans="1:15" x14ac:dyDescent="0.2">
@@ -80133,7 +80118,7 @@
         <v>582</v>
       </c>
       <c r="I1524" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1525" spans="1:15" x14ac:dyDescent="0.2">
@@ -80197,7 +80182,7 @@
         <v>582</v>
       </c>
       <c r="I1526" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1527" spans="1:15" x14ac:dyDescent="0.2">
@@ -80220,7 +80205,7 @@
         <v>582</v>
       </c>
       <c r="I1527" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1528" spans="1:15" x14ac:dyDescent="0.2">
@@ -80284,7 +80269,7 @@
         <v>582</v>
       </c>
       <c r="I1529" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1530" spans="1:15" x14ac:dyDescent="0.2">
@@ -80307,7 +80292,7 @@
         <v>582</v>
       </c>
       <c r="I1530" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1530" s="14" t="s">
         <v>18</v>
@@ -80333,7 +80318,7 @@
         <v>582</v>
       </c>
       <c r="I1531" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
       <c r="N1531" s="14" t="s">
         <v>2179</v>
@@ -80362,7 +80347,7 @@
         <v>582</v>
       </c>
       <c r="I1532" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1533" spans="1:15" x14ac:dyDescent="0.2">
@@ -80385,7 +80370,7 @@
         <v>582</v>
       </c>
       <c r="I1533" s="14" t="s">
-        <v>4464</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1534" spans="1:15" x14ac:dyDescent="0.2">

--- a/uom/DiggsUomDictionary.xlsx
+++ b/uom/DiggsUomDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/uom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E764807-E04E-984C-88CB-6362AA9193E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDA9FD-8E9B-D34A-94A9-AC0AC7469996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="32100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="4478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20767" uniqueCount="4477">
   <si>
     <t>Dictionary Version</t>
   </si>
@@ -13756,9 +13756,6 @@
   </si>
   <si>
     <t>1/rtS,1/rtMin,1/rtH</t>
-  </si>
-  <si>
-    <t>sauare root time</t>
   </si>
   <si>
     <t>rtS,rtMin,rtH</t>
@@ -16388,8 +16385,8 @@
   <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17470,7 +17467,7 @@
         <v>4125</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>4125</v>
@@ -17487,7 +17484,7 @@
         <v>4128</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>4213</v>
@@ -18331,7 +18328,7 @@
         <v>18</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>4431</v>
@@ -18559,7 +18556,7 @@
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F147" s="26" t="s">
         <v>4446</v>
@@ -18610,10 +18607,10 @@
         <v>39</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F150" s="27" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -18688,7 +18685,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
-        <v>4447</v>
+        <v>4435</v>
       </c>
       <c r="B156" s="26" t="s">
         <v>4436</v>
@@ -18698,10 +18695,10 @@
       </c>
       <c r="D156" s="26"/>
       <c r="E156" s="26" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F156" s="26" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -19296,7 +19293,7 @@
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -19408,7 +19405,7 @@
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -19673,7 +19670,7 @@
       </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -19718,7 +19715,7 @@
       </c>
       <c r="N14" s="28"/>
       <c r="O14" s="28" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -19763,7 +19760,7 @@
       </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -19808,7 +19805,7 @@
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="28" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -19853,7 +19850,7 @@
       </c>
       <c r="N17" s="28"/>
       <c r="O17" s="28" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -19898,7 +19895,7 @@
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -19943,7 +19940,7 @@
       </c>
       <c r="N19" s="28"/>
       <c r="O19" s="28" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -20972,7 +20969,7 @@
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -23418,7 +23415,7 @@
       </c>
       <c r="N107" s="57"/>
       <c r="O107" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -23463,7 +23460,7 @@
       </c>
       <c r="N108" s="57"/>
       <c r="O108" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
@@ -23494,7 +23491,7 @@
       <c r="M109" s="57"/>
       <c r="N109" s="57"/>
       <c r="O109" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -23550,7 +23547,7 @@
       <c r="M111" s="25"/>
       <c r="N111" s="25"/>
       <c r="O111" s="25" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -26859,7 +26856,7 @@
       </c>
       <c r="N193" s="38"/>
       <c r="O193" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
@@ -27160,7 +27157,7 @@
       </c>
       <c r="N200" s="38"/>
       <c r="O200" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
@@ -27606,7 +27603,7 @@
       </c>
       <c r="N212" s="38"/>
       <c r="O212" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
@@ -32282,7 +32279,7 @@
       </c>
       <c r="N328" s="35"/>
       <c r="O328" s="35" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
@@ -32327,7 +32324,7 @@
       </c>
       <c r="N329" s="35"/>
       <c r="O329" s="35" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
@@ -32372,7 +32369,7 @@
       </c>
       <c r="N330" s="35"/>
       <c r="O330" s="35" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
@@ -32540,7 +32537,7 @@
       </c>
       <c r="N334" s="19"/>
       <c r="O334" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
@@ -32585,7 +32582,7 @@
       </c>
       <c r="N335" s="19"/>
       <c r="O335" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
@@ -32671,7 +32668,7 @@
       </c>
       <c r="N337" s="19"/>
       <c r="O337" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
@@ -32716,7 +32713,7 @@
       </c>
       <c r="N338" s="19"/>
       <c r="O338" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
@@ -33218,7 +33215,7 @@
       </c>
       <c r="N350" s="38"/>
       <c r="O350" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
@@ -37400,7 +37397,7 @@
       </c>
       <c r="N453" s="38"/>
       <c r="O453" s="38" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
@@ -37943,7 +37940,7 @@
       </c>
       <c r="N466" s="25"/>
       <c r="O466" s="25" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
@@ -41843,7 +41840,7 @@
       </c>
       <c r="N560" s="19"/>
       <c r="O560" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
@@ -41888,7 +41885,7 @@
       </c>
       <c r="N561" s="19"/>
       <c r="O561" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.2">
@@ -42056,7 +42053,7 @@
       </c>
       <c r="N565" s="19"/>
       <c r="O565" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
@@ -43047,7 +43044,7 @@
       </c>
       <c r="N589" s="40"/>
       <c r="O589" s="40" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="590" spans="1:15" x14ac:dyDescent="0.2">
@@ -43092,7 +43089,7 @@
       </c>
       <c r="N590" s="40"/>
       <c r="O590" s="40" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
@@ -45463,7 +45460,7 @@
       </c>
       <c r="N647" s="25"/>
       <c r="O647" s="25" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.2">
@@ -46501,7 +46498,7 @@
       </c>
       <c r="N672" s="38"/>
       <c r="O672" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.2">
@@ -47380,7 +47377,7 @@
       </c>
       <c r="N694" s="38"/>
       <c r="O694" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.2">
@@ -48468,7 +48465,7 @@
       </c>
       <c r="N720" s="19"/>
       <c r="O720" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.2">
@@ -48513,7 +48510,7 @@
       </c>
       <c r="N721" s="19"/>
       <c r="O721" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="722" spans="1:15" x14ac:dyDescent="0.2">
@@ -48599,7 +48596,7 @@
       </c>
       <c r="N723" s="19"/>
       <c r="O723" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="724" spans="1:15" x14ac:dyDescent="0.2">
@@ -48685,7 +48682,7 @@
       </c>
       <c r="N725" s="19"/>
       <c r="O725" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.2">
@@ -48938,7 +48935,7 @@
       </c>
       <c r="N731" s="38"/>
       <c r="O731" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.2">
@@ -48983,7 +48980,7 @@
       </c>
       <c r="N732" s="40"/>
       <c r="O732" s="40" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="733" spans="1:15" x14ac:dyDescent="0.2">
@@ -49072,7 +49069,7 @@
       </c>
       <c r="N734" s="38"/>
       <c r="O734" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="735" spans="1:15" x14ac:dyDescent="0.2">
@@ -49161,7 +49158,7 @@
       </c>
       <c r="N736" s="38"/>
       <c r="O736" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="737" spans="1:15" x14ac:dyDescent="0.2">
@@ -49250,7 +49247,7 @@
       </c>
       <c r="N738" s="38"/>
       <c r="O738" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="739" spans="1:15" x14ac:dyDescent="0.2">
@@ -49673,7 +49670,7 @@
       </c>
       <c r="N751" s="33"/>
       <c r="O751" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.2">
@@ -50445,7 +50442,7 @@
       </c>
       <c r="N772" s="33"/>
       <c r="O772" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="773" spans="1:15" x14ac:dyDescent="0.2">
@@ -51767,7 +51764,7 @@
       </c>
       <c r="N810" s="38"/>
       <c r="O810" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="811" spans="1:15" x14ac:dyDescent="0.2">
@@ -51812,7 +51809,7 @@
       </c>
       <c r="N811" s="38"/>
       <c r="O811" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="812" spans="1:15" x14ac:dyDescent="0.2">
@@ -52557,7 +52554,7 @@
       </c>
       <c r="N829" s="33"/>
       <c r="O829" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.2">
@@ -52687,7 +52684,7 @@
       </c>
       <c r="N832" s="40"/>
       <c r="O832" s="40" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="833" spans="1:15" x14ac:dyDescent="0.2">
@@ -52732,7 +52729,7 @@
       </c>
       <c r="N833" s="30"/>
       <c r="O833" s="30" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="834" spans="1:15" x14ac:dyDescent="0.2">
@@ -52777,7 +52774,7 @@
       </c>
       <c r="N834" s="40"/>
       <c r="O834" s="40" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="835" spans="1:15" x14ac:dyDescent="0.2">
@@ -53645,7 +53642,7 @@
       </c>
       <c r="N855" s="30"/>
       <c r="O855" s="30" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="856" spans="1:15" x14ac:dyDescent="0.2">
@@ -54151,7 +54148,7 @@
       </c>
       <c r="N867" s="38"/>
       <c r="O867" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.2">
@@ -54319,7 +54316,7 @@
       </c>
       <c r="N871" s="38"/>
       <c r="O871" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.2">
@@ -54856,7 +54853,7 @@
       </c>
       <c r="N884" s="33"/>
       <c r="O884" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="885" spans="1:15" x14ac:dyDescent="0.2">
@@ -56518,7 +56515,7 @@
       </c>
       <c r="N924" s="40"/>
       <c r="O924" s="40" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.2">
@@ -58413,7 +58410,7 @@
         <v>4341</v>
       </c>
       <c r="O970" s="36" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="971" spans="1:15" x14ac:dyDescent="0.2">
@@ -59150,7 +59147,7 @@
       </c>
       <c r="N993" s="19"/>
       <c r="O993" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="994" spans="1:15" x14ac:dyDescent="0.2">
@@ -59434,7 +59431,7 @@
       </c>
       <c r="N1001" s="19"/>
       <c r="O1001" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1002" spans="1:15" x14ac:dyDescent="0.2">
@@ -61193,7 +61190,7 @@
       </c>
       <c r="N1052" s="38"/>
       <c r="O1052" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1053" spans="1:15" x14ac:dyDescent="0.2">
@@ -62761,7 +62758,7 @@
       </c>
       <c r="N1090" s="25"/>
       <c r="O1090" s="25" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1091" spans="1:15" x14ac:dyDescent="0.2">
@@ -64292,7 +64289,7 @@
       </c>
       <c r="N1126" s="33"/>
       <c r="O1126" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1127" spans="1:15" x14ac:dyDescent="0.2">
@@ -64337,7 +64334,7 @@
       </c>
       <c r="N1127" s="33"/>
       <c r="O1127" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1128" spans="1:15" x14ac:dyDescent="0.2">
@@ -64505,7 +64502,7 @@
       </c>
       <c r="N1131" s="33"/>
       <c r="O1131" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1132" spans="1:15" x14ac:dyDescent="0.2">
@@ -64878,7 +64875,7 @@
       </c>
       <c r="N1140" s="35"/>
       <c r="O1140" s="35" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1141" spans="1:15" x14ac:dyDescent="0.2">
@@ -64923,7 +64920,7 @@
       </c>
       <c r="N1141" s="35"/>
       <c r="O1141" s="35" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1142" spans="1:15" x14ac:dyDescent="0.2">
@@ -64968,7 +64965,7 @@
       </c>
       <c r="N1142" s="35"/>
       <c r="O1142" s="35" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1143" spans="1:15" x14ac:dyDescent="0.2">
@@ -65095,7 +65092,7 @@
       </c>
       <c r="N1145" s="19"/>
       <c r="O1145" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1146" spans="1:15" x14ac:dyDescent="0.2">
@@ -65140,7 +65137,7 @@
       </c>
       <c r="N1146" s="19"/>
       <c r="O1146" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1147" spans="1:15" x14ac:dyDescent="0.2">
@@ -65185,7 +65182,7 @@
       </c>
       <c r="N1147" s="19"/>
       <c r="O1147" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1148" spans="1:15" x14ac:dyDescent="0.2">
@@ -65230,7 +65227,7 @@
       </c>
       <c r="N1148" s="19"/>
       <c r="O1148" s="19" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1149" spans="1:15" x14ac:dyDescent="0.2">
@@ -65483,7 +65480,7 @@
       </c>
       <c r="N1154" s="38"/>
       <c r="O1154" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1155" spans="1:15" x14ac:dyDescent="0.2">
@@ -66399,7 +66396,7 @@
       </c>
       <c r="N1179" s="38"/>
       <c r="O1179" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1180" spans="1:15" x14ac:dyDescent="0.2">
@@ -66444,7 +66441,7 @@
       </c>
       <c r="N1180" s="38"/>
       <c r="O1180" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1181" spans="1:15" x14ac:dyDescent="0.2">
@@ -66530,7 +66527,7 @@
       </c>
       <c r="N1182" s="38"/>
       <c r="O1182" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1183" spans="1:15" x14ac:dyDescent="0.2">
@@ -68032,7 +68029,7 @@
       </c>
       <c r="N1220" s="38"/>
       <c r="O1220" s="38" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1221" spans="1:15" x14ac:dyDescent="0.2">
@@ -68077,7 +68074,7 @@
       </c>
       <c r="N1221" s="38"/>
       <c r="O1221" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1222" spans="1:15" x14ac:dyDescent="0.2">
@@ -70256,7 +70253,7 @@
       </c>
       <c r="N1278" s="38"/>
       <c r="O1278" s="38" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1279" spans="1:15" x14ac:dyDescent="0.2">
@@ -71089,7 +71086,7 @@
         <v>4429</v>
       </c>
       <c r="O1300" s="22" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1301" spans="1:15" x14ac:dyDescent="0.2">
@@ -71421,7 +71418,7 @@
       </c>
       <c r="N1308" s="38"/>
       <c r="O1308" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1309" spans="1:15" x14ac:dyDescent="0.2">
@@ -71988,7 +71985,7 @@
       </c>
       <c r="N1321" s="38"/>
       <c r="O1321" s="38" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1322" spans="1:15" x14ac:dyDescent="0.2">
@@ -72033,7 +72030,7 @@
       </c>
       <c r="N1322" s="38"/>
       <c r="O1322" s="38" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1323" spans="1:15" x14ac:dyDescent="0.2">
@@ -72287,7 +72284,7 @@
       </c>
       <c r="N1328" s="38"/>
       <c r="O1328" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1329" spans="1:15" x14ac:dyDescent="0.2">
@@ -73573,7 +73570,7 @@
       </c>
       <c r="N1360" s="57"/>
       <c r="O1360" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1361" spans="1:15" x14ac:dyDescent="0.2">
@@ -73618,7 +73615,7 @@
       </c>
       <c r="N1361" s="57"/>
       <c r="O1361" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.2">
@@ -73649,7 +73646,7 @@
       <c r="M1362" s="57"/>
       <c r="N1362" s="57"/>
       <c r="O1362" s="57" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1363" spans="1:15" x14ac:dyDescent="0.2">
@@ -74297,7 +74294,7 @@
         <v>4344</v>
       </c>
       <c r="O1380" s="36" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1381" spans="1:15" x14ac:dyDescent="0.2">
@@ -74342,7 +74339,7 @@
       </c>
       <c r="N1381" s="30"/>
       <c r="O1381" s="30" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1382" spans="1:15" x14ac:dyDescent="0.2">
@@ -76708,7 +76705,7 @@
       </c>
       <c r="N1440" s="38"/>
       <c r="O1440" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1441" spans="1:19" x14ac:dyDescent="0.2">
@@ -76753,7 +76750,7 @@
       </c>
       <c r="N1441" s="38"/>
       <c r="O1441" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1442" spans="1:19" x14ac:dyDescent="0.2">
@@ -77023,7 +77020,7 @@
       </c>
       <c r="N1447" s="38"/>
       <c r="O1447" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="P1447" s="15"/>
       <c r="Q1447" s="15"/>
@@ -77659,7 +77656,7 @@
       </c>
       <c r="N1461" s="38"/>
       <c r="O1461" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1462" spans="1:15" x14ac:dyDescent="0.2">
@@ -78697,7 +78694,7 @@
       </c>
       <c r="N1486" s="38"/>
       <c r="O1486" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1487" spans="1:15" x14ac:dyDescent="0.2">
@@ -79029,7 +79026,7 @@
       </c>
       <c r="N1494" s="38"/>
       <c r="O1494" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1495" spans="1:15" x14ac:dyDescent="0.2">
@@ -79115,7 +79112,7 @@
       </c>
       <c r="N1496" s="38"/>
       <c r="O1496" s="38" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1497" spans="1:15" x14ac:dyDescent="0.2">
@@ -79879,7 +79876,7 @@
       </c>
       <c r="N1516" s="33"/>
       <c r="O1516" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1517" spans="1:15" x14ac:dyDescent="0.2">
@@ -79924,7 +79921,7 @@
       </c>
       <c r="N1517" s="33"/>
       <c r="O1517" s="33" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1518" spans="1:15" x14ac:dyDescent="0.2">
